--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20674F95-8D0E-45B5-9E2E-7F707B7E9FE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC667C54-F9AE-469E-90CD-F1BEC55F3AB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
+    <sheet name="country" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="311">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -412,6 +421,552 @@
   </si>
   <si>
     <t>AlfaBank</t>
+  </si>
+  <si>
+    <t>called_name</t>
+  </si>
+  <si>
+    <t>boleto</t>
+  </si>
+  <si>
+    <t>santander</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>banrisul</t>
+  </si>
+  <si>
+    <t>mbank</t>
+  </si>
+  <si>
+    <t>wbk</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>inteligo</t>
+  </si>
+  <si>
+    <t>culture voucher</t>
+  </si>
+  <si>
+    <t>bookgiftvoucher</t>
+  </si>
+  <si>
+    <t>ppro ideal</t>
+  </si>
+  <si>
+    <t>culture land</t>
+  </si>
+  <si>
+    <t>umpay</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>yandex</t>
+  </si>
+  <si>
+    <t>sberbank</t>
+  </si>
+  <si>
+    <t>alfabank</t>
+  </si>
+  <si>
+    <t>yandexcash</t>
+  </si>
+  <si>
+    <t>hipercard</t>
+  </si>
+  <si>
+    <t>ebanx</t>
+  </si>
+  <si>
+    <t>bancodobrazil</t>
+  </si>
+  <si>
+    <t>dotpay ing bank slaski</t>
+  </si>
+  <si>
+    <t>payletterallthegate</t>
+  </si>
+  <si>
+    <t>game-on</t>
+  </si>
+  <si>
+    <t>walmartmoneygram</t>
+  </si>
+  <si>
+    <t>co_name</t>
+  </si>
+  <si>
+    <t>co_id</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>p1_paymentMethod</t>
+  </si>
+  <si>
+    <t>is_working</t>
+  </si>
+  <si>
+    <t>no_payment</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>tab_epinpaymentsystem</t>
+  </si>
+  <si>
+    <t>mint</t>
+  </si>
+  <si>
+    <t>tab_gateway</t>
+  </si>
+  <si>
+    <t>tab_mobilegateway</t>
+  </si>
+  <si>
+    <t>mobiamo</t>
+  </si>
+  <si>
+    <t>tab_sofortbanktransfer</t>
+  </si>
+  <si>
+    <t>sofortbanktransfer</t>
+  </si>
+  <si>
+    <t>tab_boletobancario</t>
+  </si>
+  <si>
+    <t>tab_idealpayments</t>
+  </si>
+  <si>
+    <t>tab_webmoney</t>
+  </si>
+  <si>
+    <t>webmoney</t>
+  </si>
+  <si>
+    <t>tab_neosurf</t>
+  </si>
+  <si>
+    <t>neosurf</t>
+  </si>
+  <si>
+    <t>tab_yamoney</t>
+  </si>
+  <si>
+    <t>yamoney</t>
+  </si>
+  <si>
+    <t>tab_onecard</t>
+  </si>
+  <si>
+    <t>onecard</t>
+  </si>
+  <si>
+    <t>tab_qiwiwallet</t>
+  </si>
+  <si>
+    <t>qiwiwallet</t>
+  </si>
+  <si>
+    <t>tab_ticketsurf</t>
+  </si>
+  <si>
+    <t>ticketsurf</t>
+  </si>
+  <si>
+    <t>tab_safetypay</t>
+  </si>
+  <si>
+    <t>safetypay</t>
+  </si>
+  <si>
+    <t>tab_cherrycredits</t>
+  </si>
+  <si>
+    <t>cherrycredits</t>
+  </si>
+  <si>
+    <t>tab_sepadirectdebit</t>
+  </si>
+  <si>
+    <t>sepadirectdebit</t>
+  </si>
+  <si>
+    <t>tab_mycardcard</t>
+  </si>
+  <si>
+    <t>mycardcard</t>
+  </si>
+  <si>
+    <t>tab_mycardwallet</t>
+  </si>
+  <si>
+    <t>mycardwallet</t>
+  </si>
+  <si>
+    <t>tab_dollargeneral</t>
+  </si>
+  <si>
+    <t>dollargeneral</t>
+  </si>
+  <si>
+    <t>tab_subway</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <t>tab_bancontact</t>
+  </si>
+  <si>
+    <t>bancontact</t>
+  </si>
+  <si>
+    <t>tab_unionpay</t>
+  </si>
+  <si>
+    <t>unionpay</t>
+  </si>
+  <si>
+    <t>tab_maxima</t>
+  </si>
+  <si>
+    <t>maxima</t>
+  </si>
+  <si>
+    <t>tab_polipayments</t>
+  </si>
+  <si>
+    <t>polipayments</t>
+  </si>
+  <si>
+    <t>tab_kbc</t>
+  </si>
+  <si>
+    <t>kbc</t>
+  </si>
+  <si>
+    <t>tab_cbc</t>
+  </si>
+  <si>
+    <t>cbc</t>
+  </si>
+  <si>
+    <t>tab_mercadopago</t>
+  </si>
+  <si>
+    <t>mercadopago</t>
+  </si>
+  <si>
+    <t>tab_pagseguro</t>
+  </si>
+  <si>
+    <t>pagseguro</t>
+  </si>
+  <si>
+    <t>tab_ebanxtransfer</t>
+  </si>
+  <si>
+    <t>btbrazil</t>
+  </si>
+  <si>
+    <t>tab_ccbrazil</t>
+  </si>
+  <si>
+    <t>tab_ccbrazilhipercard</t>
+  </si>
+  <si>
+    <t>tab_redcompra</t>
+  </si>
+  <si>
+    <t>redcompra</t>
+  </si>
+  <si>
+    <t>tab_servipagchile</t>
+  </si>
+  <si>
+    <t>servipagchile</t>
+  </si>
+  <si>
+    <t>tab_sencillito</t>
+  </si>
+  <si>
+    <t>sencillito</t>
+  </si>
+  <si>
+    <t>tab_btcolombia</t>
+  </si>
+  <si>
+    <t>btcolombia</t>
+  </si>
+  <si>
+    <t>tab_baloto</t>
+  </si>
+  <si>
+    <t>baloto</t>
+  </si>
+  <si>
+    <t>tab_gana</t>
+  </si>
+  <si>
+    <t>gana</t>
+  </si>
+  <si>
+    <t>tab_pse</t>
+  </si>
+  <si>
+    <t>tab_efecty</t>
+  </si>
+  <si>
+    <t>tab_davivienda</t>
+  </si>
+  <si>
+    <t>davivienda</t>
+  </si>
+  <si>
+    <t>tab_psecolombia</t>
+  </si>
+  <si>
+    <t>psecolombia</t>
+  </si>
+  <si>
+    <t>tab_btestonia</t>
+  </si>
+  <si>
+    <t>btestonia</t>
+  </si>
+  <si>
+    <t>tab_giropay</t>
+  </si>
+  <si>
+    <t>giropay</t>
+  </si>
+  <si>
+    <t>tab_gudangvoucher</t>
+  </si>
+  <si>
+    <t>gudangvoucher</t>
+  </si>
+  <si>
+    <t>tab_wavegame</t>
+  </si>
+  <si>
+    <t>wavegame</t>
+  </si>
+  <si>
+    <t>tab_indomog</t>
+  </si>
+  <si>
+    <t>indomog</t>
+  </si>
+  <si>
+    <t>tab_banktransferlatvia</t>
+  </si>
+  <si>
+    <t>banktransferlatvia</t>
+  </si>
+  <si>
+    <t>tab_paypost</t>
+  </si>
+  <si>
+    <t>paypost</t>
+  </si>
+  <si>
+    <t>tab_perlas</t>
+  </si>
+  <si>
+    <t>perlas</t>
+  </si>
+  <si>
+    <t>tab_narvesen</t>
+  </si>
+  <si>
+    <t>narvesen</t>
+  </si>
+  <si>
+    <t>tab_webcash</t>
+  </si>
+  <si>
+    <t>webcash</t>
+  </si>
+  <si>
+    <t>tab_todito</t>
+  </si>
+  <si>
+    <t>todito</t>
+  </si>
+  <si>
+    <t>tab_banktransfermexico</t>
+  </si>
+  <si>
+    <t>banktransfermexico</t>
+  </si>
+  <si>
+    <t>tab_btperu</t>
+  </si>
+  <si>
+    <t>btperu</t>
+  </si>
+  <si>
+    <t>tab_dragonpay</t>
+  </si>
+  <si>
+    <t>btphilippines</t>
+  </si>
+  <si>
+    <t>tab_przelewy24</t>
+  </si>
+  <si>
+    <t>przelewy24</t>
+  </si>
+  <si>
+    <t>tab_dotpay</t>
+  </si>
+  <si>
+    <t>dotpay</t>
+  </si>
+  <si>
+    <t>tab_evroset</t>
+  </si>
+  <si>
+    <t>evroset</t>
+  </si>
+  <si>
+    <t>tab_svyasnoi</t>
+  </si>
+  <si>
+    <t>svyasnoi</t>
+  </si>
+  <si>
+    <t>tab_redpagos</t>
+  </si>
+  <si>
+    <t>redpagos</t>
+  </si>
+  <si>
+    <t>tab_vtctelcocard</t>
+  </si>
+  <si>
+    <t>vtctelcocard</t>
+  </si>
+  <si>
+    <t>tab_vcoincard</t>
+  </si>
+  <si>
+    <t>vcoincard</t>
+  </si>
+  <si>
+    <t>tab_mol</t>
+  </si>
+  <si>
+    <t>tab_alipay</t>
+  </si>
+  <si>
+    <t>alipay</t>
+  </si>
+  <si>
+    <t>tab_ipay88</t>
+  </si>
+  <si>
+    <t>btmalaysia</t>
+  </si>
+  <si>
+    <t>tab_btczech</t>
+  </si>
+  <si>
+    <t>btczech</t>
+  </si>
+  <si>
+    <t>tab_banktransferestonia</t>
+  </si>
+  <si>
+    <t>banktransferestonia</t>
+  </si>
+  <si>
+    <t>tab_unipinwallet</t>
+  </si>
+  <si>
+    <t>unipinwallet</t>
+  </si>
+  <si>
+    <t>tab_btlatvia</t>
+  </si>
+  <si>
+    <t>btlatvia</t>
+  </si>
+  <si>
+    <t>tab_btlithuania</t>
+  </si>
+  <si>
+    <t>btlithuania</t>
+  </si>
+  <si>
+    <t>tab_banktransferlithuania</t>
+  </si>
+  <si>
+    <t>banktransferlithuania</t>
+  </si>
+  <si>
+    <t>tab_btslovakia</t>
+  </si>
+  <si>
+    <t>btslovakia</t>
+  </si>
+  <si>
+    <t>tab_pinhall</t>
+  </si>
+  <si>
+    <t>pinhall</t>
+  </si>
+  <si>
+    <t>tab_fasterpay</t>
+  </si>
+  <si>
+    <t>fasterpay</t>
+  </si>
+  <si>
+    <t>tab_vtc</t>
+  </si>
+  <si>
+    <t>vtc</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Korea (Republic of)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +1015,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -520,11 +1075,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,11 +1108,150 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -559,6 +1262,1888 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="paymentMethod"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>United States</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Canada</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Afghanistan</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Albania</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Algeria</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>American Samoa</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Andorra</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>8</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Angola</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>9</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Anguilla</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>10</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Antigua and Barbuda</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>11</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Argentina</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>12</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Armenia</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>233</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Aruba</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>14</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Australia</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>15</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Austria</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>16</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Azerbaijan</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>17</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Bahamas</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>18</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Bahrain</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>19</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Bangladesh</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>20</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Barbados</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>21</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Belarus</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>22</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Belgium</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>23</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Belize</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>24</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Benin</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>25</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Bermuda</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>26</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Bhutan</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>27</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Bolivia</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>28</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Bosnia and Herzegovina</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>29</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Botswana</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>30</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Brazil</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>31</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>British Indian Ocean Territory</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>32</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Brunei Darussalam</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>33</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Bulgaria</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>34</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Burkina Faso</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>35</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Burundi</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>36</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Cameroon</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>37</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Cambodia</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>39</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Cape Verde</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>40</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Cayman Islands</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>41</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Central African Republic</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>42</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Chad</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>43</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Chile</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>44</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>China</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>45</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Colombia</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>46</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Comoros</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>47</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Congo</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>48</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Cook Islands</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>49</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Costa Rica</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>50</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Cote d'Ivoire</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>51</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Croatia</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>52</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Cuba</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>53</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Cyprus</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>54</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Czech Republic</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>55</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Denmark</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>56</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Djibouti</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>57</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Dominica</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>58</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Dominican Republic</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>59</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Ecuador</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>60</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Egypt</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>61</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>El Salvador</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>62</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Equatorial Guinea</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>63</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Eritrea</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>64</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Estonia</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>65</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Ethiopia</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>66</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Falkland Islands</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>67</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Faroe Islands</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>68</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Federated States of Micronesia</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>69</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Fiji</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>70</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Finland</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>71</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>France</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>72</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>French Guiana</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>73</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>French Polynesia</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>74</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Gabon</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>75</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Georgia</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>76</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Germany</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>77</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Ghana</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>78</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Gibraltar</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>79</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Greece</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>80</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Greenland</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>81</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Grenada</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>82</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Guadeloupe</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>83</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>Guam</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>84</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>Guatemala</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>85</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Guinea</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>86</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Guinea-Bissau</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>87</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Guyana</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>88</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Haiti</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>89</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Honduras</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>90</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>Hong Kong</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>91</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>Hungary</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>92</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>Iceland</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>93</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>India</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>94</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>Indonesia</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>95</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>Iran</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>96</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Iraq</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>97</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>Ireland</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>98</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>Isle of Man</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>99</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>Israel</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>100</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>Italy</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>101</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>Jamaica</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>102</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>Japan</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>103</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>Jordan</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>104</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>Kazakhstan</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>105</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>Kenya</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>106</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>Kiribati</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>107</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>Korea (Peoples Republic of)</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>108</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>Korea (Republic of)</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>109</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>Kuwait</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>110</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>Kyrgyzstan</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>111</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>Laos</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>112</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>Latvia</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>113</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>Lebanon</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>114</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>Lesotho</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>115</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>Liberia</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>116</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>Libya</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>117</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>Liechtenstein</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>118</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>Lithuania</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>119</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>Luxembourg</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>120</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>Macau</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>121</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>Macedonia</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>122</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>Madagascar</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>123</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>Malawi</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>124</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>Malaysia</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>125</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>Maldives</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>126</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>Mali</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>127</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>Malta</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>128</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>Marshall Islands</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>129</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>Martinique</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>130</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>Mauritius</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>232</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>Mauritania</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>131</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>Mayotte</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>132</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>Mexico</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>133</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>Moldova</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>134</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>Monaco</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>135</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>Mongolia</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>136</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>Montenegro</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>137</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>Montserrat</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>138</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>Morocco</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>139</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>Mozambique</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>140</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>Myanmar</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>141</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>Namibia</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>142</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>Nauru</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>143</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>Nepal</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>144</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>Netherlands</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>145</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>Netherlands Antilles</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>146</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>New Caledonia</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>147</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>New Zealand</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>148</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>Nicaragua</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>149</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>Niger</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>150</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>Nigeria</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>151</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>Niue</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>152</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>Norfolk Island</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>153</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>Northern Mariana Islands</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>154</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>Norway</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>155</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>Oman</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>156</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>Pakistan</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>157</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>Palau</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>231</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>Palestinian Territory</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>158</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>Panama</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>159</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>Papua New Guinea</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>160</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>Paraguay</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>161</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>Peru</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>162</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>Philippines</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>163</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>Pitcairn</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>164</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>Poland</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>165</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>Portugal</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>166</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>Puerto Rico</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>167</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>Qatar</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>168</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>Reunion</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>169</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>Romania</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>170</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>Russia</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>171</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>Rwanda</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>172</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>Saint Vincent and the Grenadines</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>173</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>San Marino</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>174</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>Sao Tome and Principe</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>175</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>Saudi Arabia</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>176</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>Senegal</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>177</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>Serbia</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>178</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>Seychelles</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>179</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>Sierra Leone</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>180</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>Singapore</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>181</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>Slovakia</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>182</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>Slovenia</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>183</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>Solomon Islands</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>184</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>Somalia</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>185</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>South Africa</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>186</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>South Georgia</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>187</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>Spain</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>188</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>Sri Lanka</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>189</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>St. Kitts and Nevis</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>190</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>St. Lucia</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>191</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>St. Pierre and Miquelon</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>192</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>Sudan</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>193</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>Suriname</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>194</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>Swaziland</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>195</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>Sweden</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>196</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>Switzerland</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>197</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>Syrian Arab Republic</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>198</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>Taiwan</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>199</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>Tajikistan</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202">
+            <v>200</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>Tanzania</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203">
+            <v>201</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>Thailand</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204">
+            <v>202</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>Gambia</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205">
+            <v>203</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>Togo</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206">
+            <v>204</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>Tokelau</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207">
+            <v>205</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>Tonga</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208">
+            <v>206</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>Trinidad and Tobago</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209">
+            <v>207</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>Tunisia</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210">
+            <v>208</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>Turkey</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211">
+            <v>209</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>Turkmenistan</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212">
+            <v>210</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>Turks and Caicos Islands</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213">
+            <v>211</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>Tuvalu</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214">
+            <v>212</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>Uganda</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215">
+            <v>213</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>Ukraine</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216">
+            <v>214</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>United Arab Emirates</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217">
+            <v>215</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>United Kingdom</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218">
+            <v>216</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>Uruguay</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219">
+            <v>217</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>Uzbekistan</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220">
+            <v>218</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>Vanuatu</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221">
+            <v>219</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>Venezuela</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222">
+            <v>220</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>Vietnam</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223">
+            <v>221</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>Virgin Islands (U.K.)</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224">
+            <v>222</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>Virgin Islands (U.S.)</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225">
+            <v>223</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>Wallis and Futuna Islands</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226">
+            <v>224</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>Western Samoa</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227">
+            <v>225</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>Yemen</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228">
+            <v>227</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>Congo The Democratic Republic of the</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229">
+            <v>228</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>Zambia</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230">
+            <v>229</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>Zimbabwe</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231">
+            <v>230</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>Western Sahara</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232">
+            <v>13</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>Saint Helena</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233">
+            <v>234</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>Kosovo</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234">
+            <v>235</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>Curacao</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,21 +3409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -848,8 +3432,17 @@
       <c r="C1" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,8 +3452,17 @@
       <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -870,8 +3472,17 @@
       <c r="C3" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -881,8 +3492,17 @@
       <c r="C4" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -892,8 +3512,17 @@
       <c r="C5" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -903,8 +3532,17 @@
       <c r="C6" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -914,8 +3552,17 @@
       <c r="C7" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -925,8 +3572,17 @@
       <c r="C8" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -936,8 +3592,17 @@
       <c r="C9" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -947,8 +3612,17 @@
       <c r="C10" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -958,8 +3632,17 @@
       <c r="C11" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -969,8 +3652,17 @@
       <c r="C12" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -980,8 +3672,17 @@
       <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -991,8 +3692,17 @@
       <c r="C14" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1002,8 +3712,17 @@
       <c r="C15" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1013,8 +3732,17 @@
       <c r="C16" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1024,8 +3752,17 @@
       <c r="C17" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1035,8 +3772,17 @@
       <c r="C18" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1046,8 +3792,17 @@
       <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1057,8 +3812,17 @@
       <c r="C20" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1068,8 +3832,17 @@
       <c r="C21" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1079,8 +3852,17 @@
       <c r="C22" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -1090,8 +3872,17 @@
       <c r="C23" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1101,8 +3892,17 @@
       <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1112,8 +3912,17 @@
       <c r="C25" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -1123,8 +3932,17 @@
       <c r="C26" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -1134,8 +3952,17 @@
       <c r="C27" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -1145,8 +3972,17 @@
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1156,8 +3992,17 @@
       <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -1167,8 +4012,17 @@
       <c r="C30" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1178,8 +4032,17 @@
       <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -1189,8 +4052,17 @@
       <c r="C32" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
@@ -1200,8 +4072,17 @@
       <c r="C33" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -1211,8 +4092,17 @@
       <c r="C34" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -1222,8 +4112,17 @@
       <c r="C35" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -1233,8 +4132,17 @@
       <c r="C36" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -1244,8 +4152,17 @@
       <c r="C37" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1255,8 +4172,17 @@
       <c r="C38" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1266,8 +4192,17 @@
       <c r="C39" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -1275,8 +4210,15 @@
         <v>77</v>
       </c>
       <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="4"/>
+      <c r="E40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -1286,8 +4228,17 @@
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -1297,8 +4248,17 @@
       <c r="C42" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>81</v>
       </c>
@@ -1306,8 +4266,15 @@
         <v>82</v>
       </c>
       <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="4"/>
+      <c r="E43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>83</v>
       </c>
@@ -1315,8 +4282,15 @@
         <v>84</v>
       </c>
       <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="4"/>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>85</v>
       </c>
@@ -1324,8 +4298,15 @@
         <v>86</v>
       </c>
       <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="4"/>
+      <c r="E45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>87</v>
       </c>
@@ -1333,8 +4314,15 @@
         <v>88</v>
       </c>
       <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="4"/>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>89</v>
       </c>
@@ -1342,9 +4330,2448 @@
         <v>90</v>
       </c>
       <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B9A41-7302-4CB8-82D8-001DE2FFF816}">
+  <dimension ref="A1:J84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A65" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP($D2,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>226</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP($D3,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP($D4,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Australia</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP($D5,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Austria</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP($D6,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>144</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP($D7,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP($D8,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Armenia</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP($D9,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP($D10,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Armenia</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP($D11,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Algeria</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP($D12,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Armenia</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP($D13,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP($D14,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>94</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP($D15,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16">
+        <v>76</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP($D16,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Germany</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP($D17,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Hong Kong</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP($D18,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Hong Kong</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP($D19,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP($D20,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP($D21,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP($D22,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>China</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP($D23,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Latvia</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP($D24,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Australia</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP($D25,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP($D26,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" t="str">
+        <f>VLOOKUP($D27,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28" t="str">
+        <f>VLOOKUP($D28,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29" t="str">
+        <f>VLOOKUP($D29,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30" t="str">
+        <f>VLOOKUP($D30,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <f>VLOOKUP($D31,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32" t="str">
+        <f>VLOOKUP($D32,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Chile</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33" t="str">
+        <f>VLOOKUP($D33,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Chile</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34">
+        <v>43</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP($D34,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Chile</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <v>45</v>
+      </c>
+      <c r="E35" t="str">
+        <f>VLOOKUP($D35,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36">
+        <v>45</v>
+      </c>
+      <c r="E36" t="str">
+        <f>VLOOKUP($D36,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37">
+        <v>45</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP($D37,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38" t="str">
+        <f>VLOOKUP($D38,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39" t="str">
+        <f>VLOOKUP($D39,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP($D40,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP($D41,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP($D42,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Estonia</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43">
+        <v>76</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP($D43,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Germany</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44">
+        <v>94</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP($D44,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45">
+        <v>94</v>
+      </c>
+      <c r="E45" t="str">
+        <f>VLOOKUP($D45,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46">
+        <v>94</v>
+      </c>
+      <c r="E46" t="str">
+        <f>VLOOKUP($D46,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47">
+        <v>112</v>
+      </c>
+      <c r="E47" t="str">
+        <f>VLOOKUP($D47,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Latvia</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48">
+        <v>118</v>
+      </c>
+      <c r="E48" t="str">
+        <f>VLOOKUP($D48,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49">
+        <v>118</v>
+      </c>
+      <c r="E49" t="str">
+        <f>VLOOKUP($D49,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50">
+        <v>118</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP($D50,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51">
+        <v>124</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP($D51,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52">
+        <v>132</v>
+      </c>
+      <c r="E52" t="str">
+        <f>VLOOKUP($D52,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53">
+        <v>132</v>
+      </c>
+      <c r="E53" t="str">
+        <f>VLOOKUP($D53,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54">
+        <v>161</v>
+      </c>
+      <c r="E54" t="str">
+        <f>VLOOKUP($D54,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Peru</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55">
+        <v>162</v>
+      </c>
+      <c r="E55" t="str">
+        <f>VLOOKUP($D55,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Philippines</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56">
+        <v>164</v>
+      </c>
+      <c r="E56" t="str">
+        <f>VLOOKUP($D56,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57">
+        <v>164</v>
+      </c>
+      <c r="E57" t="str">
+        <f>VLOOKUP($D57,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58">
+        <v>170</v>
+      </c>
+      <c r="E58" t="str">
+        <f>VLOOKUP($D58,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59">
+        <v>170</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP($D59,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60">
+        <v>216</v>
+      </c>
+      <c r="E60" t="str">
+        <f>VLOOKUP($D60,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Uruguay</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61">
+        <v>220</v>
+      </c>
+      <c r="E61" t="str">
+        <f>VLOOKUP($D61,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62">
+        <v>220</v>
+      </c>
+      <c r="E62" t="str">
+        <f>VLOOKUP($D62,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63" t="str">
+        <f>VLOOKUP($D63,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Egypt</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64">
+        <v>44</v>
+      </c>
+      <c r="E64" t="str">
+        <f>VLOOKUP($D64,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>China</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65">
+        <v>124</v>
+      </c>
+      <c r="E65" t="str">
+        <f>VLOOKUP($D65,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ref="A66:A84" si="1">ROW()-1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66" t="str">
+        <f>VLOOKUP($D66,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Czech Republic</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="E67" t="str">
+        <f>VLOOKUP($D67,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Estonia</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68">
+        <v>94</v>
+      </c>
+      <c r="E68" t="str">
+        <f>VLOOKUP($D68,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69">
+        <v>112</v>
+      </c>
+      <c r="E69" t="str">
+        <f>VLOOKUP($D69,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Latvia</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70">
+        <v>118</v>
+      </c>
+      <c r="E70" t="str">
+        <f>VLOOKUP($D70,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71">
+        <v>118</v>
+      </c>
+      <c r="E71" t="str">
+        <f>VLOOKUP($D71,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72">
+        <v>181</v>
+      </c>
+      <c r="E72" t="str">
+        <f>VLOOKUP($D72,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Slovakia</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73">
+        <v>198</v>
+      </c>
+      <c r="E73" t="str">
+        <f>VLOOKUP($D73,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Taiwan</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74">
+        <v>215</v>
+      </c>
+      <c r="E74" t="str">
+        <f>VLOOKUP($D74,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United Kingdom</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75">
+        <v>220</v>
+      </c>
+      <c r="E75" t="str">
+        <f>VLOOKUP($D75,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>45</v>
+      </c>
+      <c r="E76" t="str">
+        <f>VLOOKUP($D76,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>132</v>
+      </c>
+      <c r="E77" t="str">
+        <f>VLOOKUP($D77,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>30</v>
+      </c>
+      <c r="E78" t="str">
+        <f>VLOOKUP($D78,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>132</v>
+      </c>
+      <c r="E79" t="str">
+        <f>VLOOKUP($D79,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>132</v>
+      </c>
+      <c r="E80" t="str">
+        <f>VLOOKUP($D80,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>164</v>
+      </c>
+      <c r="E81" t="str">
+        <f>VLOOKUP($D81,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>164</v>
+      </c>
+      <c r="E82" t="str">
+        <f>VLOOKUP($D82,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83">
+        <v>164</v>
+      </c>
+      <c r="E83" t="str">
+        <f>VLOOKUP($D83,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>164</v>
+      </c>
+      <c r="E84" t="str">
+        <f>VLOOKUP($D84,[1]Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C75">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>COUNTIF($P$3:$AC$3,B2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C75">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B75">
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:C76">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>COUNTIF($P$3:$AC$3,B76)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:C77">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>COUNTIF($P$3:$AC$3,B77)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:C83">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>COUNTIF($P$3:$AC$3,B78)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C83">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:B83">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:C84">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>COUNTIF($P$3:$AC$3,B84)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D65FBC-EBB9-4A03-86C7-42D8DF6D29FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49706B3-7531-4897-BABC-CBB0EA198CC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,11 +2032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(C2,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(C3,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(C4,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(C5,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(C6,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(C7,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(C8,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(C9,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <f>VLOOKUP(C10,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(C11,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(C12,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <f>VLOOKUP(C13,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <f>VLOOKUP(C14,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <f>VLOOKUP(C15,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <f>VLOOKUP(C16,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <f>VLOOKUP(C17,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <f>VLOOKUP(C18,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <f>VLOOKUP(C19,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <f>VLOOKUP(C20,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <f>VLOOKUP(C21,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <f>VLOOKUP(C22,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <f>VLOOKUP(C23,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <f>VLOOKUP(C24,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <f>VLOOKUP(C25,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <f>VLOOKUP(C26,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <f>VLOOKUP(C27,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <f>VLOOKUP(C28,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <f>VLOOKUP(C29,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <f>VLOOKUP(C30,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <f>VLOOKUP(C31,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <f>VLOOKUP(C32,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <f>VLOOKUP(C33,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <f>VLOOKUP(C34,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <f>VLOOKUP(C35,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <f>VLOOKUP(C36,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f>VLOOKUP(C37,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <f>VLOOKUP(C38,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <f>VLOOKUP(C39,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <f>VLOOKUP(C40,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="41" spans="1:9" ht="16.5" thickBot="1">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>VLOOKUP(C41,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>VLOOKUP(C42,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>VLOOKUP(C44,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <f>VLOOKUP(C45,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <f>VLOOKUP(C46,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <f>VLOOKUP(C47,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="48" spans="1:9" ht="15.75">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>45</v>
@@ -3485,6 +3485,7 @@
         <v>433</v>
       </c>
     </row>
+    <row r="53" ht="14.25" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G3:G48 H48:I48">
     <cfRule type="expression" dxfId="16" priority="1">

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49706B3-7531-4897-BABC-CBB0EA198CC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262F215-0468-4C9D-900C-4FD2C97391A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="448">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -1300,12 +1300,6 @@
     <t>tab_cvspharmacy</t>
   </si>
   <si>
-    <t>MegaPay</t>
-  </si>
-  <si>
-    <t>megapay</t>
-  </si>
-  <si>
     <t>eps</t>
   </si>
   <si>
@@ -1379,6 +1373,9 @@
   </si>
   <si>
     <t>Gateway-wAmex</t>
+  </si>
+  <si>
+    <t>BankTransferThailand</t>
   </si>
 </sst>
 </file>
@@ -2035,8 +2032,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2049,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" thickBot="1">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s">
         <v>214</v>
@@ -2121,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
@@ -2223,7 +2220,7 @@
         <v>208</v>
       </c>
       <c r="I6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1">
@@ -2241,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>141</v>
@@ -2430,7 +2427,7 @@
         <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I13" t="s">
         <v>392</v>
@@ -2460,7 +2457,7 @@
         <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I14" t="s">
         <v>393</v>
@@ -2490,7 +2487,7 @@
         <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I15" t="s">
         <v>394</v>
@@ -2520,7 +2517,7 @@
         <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I16" t="s">
         <v>395</v>
@@ -2550,7 +2547,7 @@
         <v>164</v>
       </c>
       <c r="H17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
         <v>396</v>
@@ -2754,7 +2751,7 @@
         <v>105</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2820,7 +2817,7 @@
         <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I26" t="s">
         <v>404</v>
@@ -2844,7 +2841,7 @@
         <v>119</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G27">
         <v>108</v>
@@ -3204,7 +3201,7 @@
         <v>112</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3218,7 +3215,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <f>VLOOKUP(C40,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3231,10 +3228,10 @@
         <v>77</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="G40">
         <v>201</v>
@@ -3258,13 +3255,13 @@
         <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3291,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>78</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>VLOOKUP(C43,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3321,10 +3318,10 @@
         <v>81</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3351,10 +3348,10 @@
         <v>83</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G44">
         <v>60</v>
@@ -3381,7 +3378,7 @@
         <v>85</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>84</v>
@@ -3411,10 +3408,10 @@
         <v>87</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3441,10 +3438,10 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3473,16 +3470,16 @@
         <v>291</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G48">
         <v>215</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1"/>
@@ -3681,7 +3678,7 @@
         <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3695,7 +3692,7 @@
         <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3709,7 +3706,7 @@
         <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3723,7 +3720,7 @@
         <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3737,7 +3734,7 @@
         <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3863,7 +3860,7 @@
         <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262F215-0468-4C9D-900C-4FD2C97391A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F5EAB-007C-404D-893A-8D95757B599C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="454">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -1376,6 +1376,24 @@
   </si>
   <si>
     <t>BankTransferThailand</t>
+  </si>
+  <si>
+    <t>bteu</t>
+  </si>
+  <si>
+    <t>FasterPay / Bank Transfer</t>
+  </si>
+  <si>
+    <t>FasterPay   Bank transfer</t>
+  </si>
+  <si>
+    <t>Uberweisung</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>tab_bteu</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1618,24 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2032,8 +2067,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3215,7 +3250,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <f>VLOOKUP(C40,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3482,15 +3517,52 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>288</v>
+      </c>
+      <c r="C49" t="s">
+        <v>448</v>
+      </c>
+      <c r="D49" t="s">
+        <v>449</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G49">
+        <v>76</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G3:G48 H48:I48">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>COUNTIF($Q$3:$AD$3,G3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G48 H48:I48">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:I49">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF($Q$3:$AD$3,G49)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:I49">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4180,59 +4252,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C74">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>COUNTIF($P$3:$AC$3,B2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>COUNTIF($P$3:$AC$3,B75)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>COUNTIF($P$3:$AC$3,B76)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:C82">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>COUNTIF($P$3:$AC$3,B77)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C82">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B82">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:C83">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>COUNTIF($P$3:$AC$3,B83)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C74">
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B74">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F5EAB-007C-404D-893A-8D95757B599C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D6CE1-D6CA-4FF5-9ECB-2AA34C35B0AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
@@ -1630,23 +1630,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1761,6 +1744,23 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2066,9 +2066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="49" spans="1:9" ht="15.75">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>288</v>
@@ -3557,12 +3557,12 @@
     <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>COUNTIF($Q$3:$AD$3,G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4252,59 +4252,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C74">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>COUNTIF($P$3:$AC$3,B2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>COUNTIF($P$3:$AC$3,B75)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>COUNTIF($P$3:$AC$3,B76)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:C82">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>COUNTIF($P$3:$AC$3,B77)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C82">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B82">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:C83">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>COUNTIF($P$3:$AC$3,B83)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C74">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B74">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4314,14 +4314,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44142A8A-AFDD-49DF-95F7-861634CDED16}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D6CE1-D6CA-4FF5-9ECB-2AA34C35B0AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62BEBB-C2C1-41EB-822E-E7909B37B327}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
     <sheet name="country" sheetId="2" r:id="rId2"/>
     <sheet name="shortcode" sheetId="3" r:id="rId3"/>
+    <sheet name="logoName" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">psname!$A$1:$J$49</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="514">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -1394,13 +1398,193 @@
   </si>
   <si>
     <t>tab_bteu</t>
+  </si>
+  <si>
+    <t>PS name</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Logo name</t>
+  </si>
+  <si>
+    <t>Zong</t>
+  </si>
+  <si>
+    <t>zong</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>Paymo</t>
+  </si>
+  <si>
+    <t>paymo</t>
+  </si>
+  <si>
+    <t>Credit card</t>
+  </si>
+  <si>
+    <t>socialgold</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Smscoin</t>
+  </si>
+  <si>
+    <t>smscoin</t>
+  </si>
+  <si>
+    <t>Allopass</t>
+  </si>
+  <si>
+    <t>allopass</t>
+  </si>
+  <si>
+    <t>MikroOdeme</t>
+  </si>
+  <si>
+    <t>mikroodeme</t>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
+  </si>
+  <si>
+    <t>webbilling</t>
+  </si>
+  <si>
+    <t>banktransfer</t>
+  </si>
+  <si>
+    <t>Directpay</t>
+  </si>
+  <si>
+    <t>directpay</t>
+  </si>
+  <si>
+    <t>Fortumo</t>
+  </si>
+  <si>
+    <t>fortumo</t>
+  </si>
+  <si>
+    <t>TrustPay</t>
+  </si>
+  <si>
+    <t>trustpay</t>
+  </si>
+  <si>
+    <t>Credit Cards Dotpay</t>
+  </si>
+  <si>
+    <t>dotpaycc</t>
+  </si>
+  <si>
+    <t>Landline Payments</t>
+  </si>
+  <si>
+    <t>landline</t>
+  </si>
+  <si>
+    <t>allopasscc</t>
+  </si>
+  <si>
+    <t>mobiamo</t>
+  </si>
+  <si>
+    <t>cceuro</t>
+  </si>
+  <si>
+    <t>Credit Cards</t>
+  </si>
+  <si>
+    <t>mercadopagocc</t>
+  </si>
+  <si>
+    <t>mercadopagohiper</t>
+  </si>
+  <si>
+    <t>hiper</t>
+  </si>
+  <si>
+    <t>Elo Card</t>
+  </si>
+  <si>
+    <t>mercadopagoelo</t>
+  </si>
+  <si>
+    <t>elo</t>
+  </si>
+  <si>
+    <t>Teleingreso</t>
+  </si>
+  <si>
+    <t>teleingreso</t>
+  </si>
+  <si>
+    <t>cc3</t>
+  </si>
+  <si>
+    <t>Webmoney Japan</t>
+  </si>
+  <si>
+    <t>webmoneyjapan</t>
+  </si>
+  <si>
+    <t>webmoneyjp</t>
+  </si>
+  <si>
+    <t>cceu</t>
+  </si>
+  <si>
+    <t>cc4</t>
+  </si>
+  <si>
+    <t>Transferência bancária</t>
+  </si>
+  <si>
+    <t>btbrazil</t>
+  </si>
+  <si>
+    <t>Belfius</t>
+  </si>
+  <si>
+    <t>ccbrazil_flag</t>
+  </si>
+  <si>
+    <t>Credit Cards Korea</t>
+  </si>
+  <si>
+    <t>allthegate_flag</t>
+  </si>
+  <si>
+    <t>Bank transfer Finland</t>
+  </si>
+  <si>
+    <t>Mybank</t>
+  </si>
+  <si>
+    <t>Boleto Bancário</t>
+  </si>
+  <si>
+    <t>Multibanco</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>logo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1649,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1480,7 +1669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1564,12 +1753,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1613,12 +1822,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="44">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1744,6 +1964,214 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2064,11 +2492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2077,9 +2505,11 @@
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" thickBot="1">
+    <row r="1" spans="1:10" ht="32.25" thickBot="1">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -2107,8 +2537,11 @@
       <c r="I1" s="7" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J1" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2137,8 +2570,12 @@
       <c r="I2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J2" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C2,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C2,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2167,8 +2604,12 @@
       <c r="I3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J3" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C3,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C3,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2197,8 +2638,12 @@
       <c r="I4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J4" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C4,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C4,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>boleto</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2227,8 +2672,12 @@
       <c r="I5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J5" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C5,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C5,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickBot="1">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2257,8 +2706,12 @@
       <c r="I6" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J6" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C6,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C6,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickBot="1">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2287,8 +2740,12 @@
       <c r="I7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J7" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C7,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C7,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>ccbrazil_flag</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickBot="1">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2317,8 +2774,12 @@
       <c r="I8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C8,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C8,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>hipercard</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickBot="1">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2347,8 +2808,12 @@
       <c r="I9" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J9" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C9,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C9,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2377,8 +2842,12 @@
       <c r="I10" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J10" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C10,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C10,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2407,8 +2876,12 @@
       <c r="I11" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J11" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C11,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C11,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2437,8 +2910,12 @@
       <c r="I12" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J12" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C12,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C12,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2467,8 +2944,12 @@
       <c r="I13" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J13" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C13,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C13,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2497,8 +2978,12 @@
       <c r="I14" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J14" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C14,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C14,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2527,8 +3012,12 @@
       <c r="I15" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J15" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C15,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C15,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2557,8 +3046,12 @@
       <c r="I16" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J16" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C16,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C16,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickBot="1">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2587,8 +3080,12 @@
       <c r="I17" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J17" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C17,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C17,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickBot="1">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2617,8 +3114,12 @@
       <c r="I18" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J18" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C18,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C18,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2647,8 +3148,12 @@
       <c r="I19" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J19" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C19,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C19,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2677,8 +3182,12 @@
       <c r="I20" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J20" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C20,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C20,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2707,8 +3216,12 @@
       <c r="I21" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J21" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C21,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C21,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2737,8 +3250,12 @@
       <c r="I22" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J22" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C22,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C22,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2767,8 +3284,12 @@
       <c r="I23" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J23" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C23,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C23,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>allthegate_flag</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2797,8 +3318,12 @@
       <c r="I24" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J24" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C24,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C24,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2827,8 +3352,12 @@
       <c r="I25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J25" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C25,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C25,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>idealpayments</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2857,8 +3386,12 @@
       <c r="I26" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J26" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C26,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C26,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickBot="1">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2887,8 +3420,12 @@
       <c r="I27" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J27" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C27,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C27,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2917,8 +3454,12 @@
       <c r="I28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J28" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C28,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C28,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickBot="1">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2947,8 +3488,12 @@
       <c r="I29" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J29" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C29,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C29,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickBot="1">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2977,8 +3522,12 @@
       <c r="I30" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J30" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C30,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C30,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>boleto</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3007,8 +3556,12 @@
       <c r="I31" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J31" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C31,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C31,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>ideal</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickBot="1">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3037,8 +3590,12 @@
       <c r="I32" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J32" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C32,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C32,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3067,8 +3624,12 @@
       <c r="I33" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J33" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C33,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C33,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" thickBot="1">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3097,8 +3658,12 @@
       <c r="I34" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J34" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C34,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C34,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" thickBot="1">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3127,8 +3692,12 @@
       <c r="I35" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J35" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C35,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C35,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickBot="1">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3157,8 +3726,12 @@
       <c r="I36" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J36" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C36,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C36,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" thickBot="1">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3187,8 +3760,12 @@
       <c r="I37" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J37" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C37,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C37,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" thickBot="1">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3217,8 +3794,12 @@
       <c r="I38" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J38" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C38,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C38,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3247,8 +3828,12 @@
       <c r="I39" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J39" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C39,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C39,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" thickBot="1">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3277,10 +3862,14 @@
       <c r="I40" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J40" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C40,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C40,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <f>VLOOKUP(C41,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3307,10 +3896,14 @@
       <c r="I41" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J41" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C41,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C41,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" thickBot="1">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <f>VLOOKUP(C42,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3337,8 +3930,12 @@
       <c r="I42" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J42" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C42,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C42,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" thickBot="1">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3367,8 +3964,12 @@
       <c r="I43" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J43" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C43,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C43,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>epspayments</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" thickBot="1">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3397,8 +3998,12 @@
       <c r="I44" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J44" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C44,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C44,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" thickBot="1">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3427,8 +4032,12 @@
       <c r="I45" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J45" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C45,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C45,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>multibanco</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" thickBot="1">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3457,8 +4066,12 @@
       <c r="I46" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J46" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C46,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C46,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>mint</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" thickBot="1">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3487,8 +4100,12 @@
       <c r="I47" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
+      <c r="J47" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C47,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C47,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" thickBot="1">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3516,53 +4133,66 @@
       <c r="I48" s="18" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75">
+      <c r="J48" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C48,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C48,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="21" customFormat="1" ht="16.5" thickBot="1">
       <c r="A49">
         <v>0</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="21">
         <v>288</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="21">
         <v>76</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="23" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1"/>
+      <c r="J49" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C49,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C49,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J49" xr:uid="{F4D50087-81CA-4121-AC19-488D7706F9F6}"/>
   <conditionalFormatting sqref="G3:G48 H48:I48">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>COUNTIF($Q$3:$AD$3,G3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G48 H48:I48">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>COUNTIF($Q$3:$AD$3,G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J49">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>#REF!=1</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4314,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44142A8A-AFDD-49DF-95F7-861634CDED16}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7234,4 +7864,507 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId136"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279EA41E-7727-4698-8E10-FD63D59C9993}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" thickBot="1">
+      <c r="A9" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" thickBot="1">
+      <c r="A10" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" thickBot="1">
+      <c r="A12" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A14" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" thickBot="1">
+      <c r="A15" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1">
+      <c r="A16" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" thickBot="1">
+      <c r="A17" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" thickBot="1">
+      <c r="A18" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" thickBot="1">
+      <c r="A19" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" thickBot="1">
+      <c r="A20" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" thickBot="1">
+      <c r="A21" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" thickBot="1">
+      <c r="A22" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" thickBot="1">
+      <c r="A23" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" thickBot="1">
+      <c r="A24" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A26" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A27" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A28" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A29" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A30" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A31" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27" thickBot="1">
+      <c r="A32" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.75" thickBot="1">
+      <c r="A33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" thickBot="1">
+      <c r="A34" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A36" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" thickBot="1">
+      <c r="A37" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27" thickBot="1">
+      <c r="A38" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" thickBot="1">
+      <c r="A39" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62BEBB-C2C1-41EB-822E-E7909B37B327}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8E138-349E-4C5B-B740-55F1884889B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1838,7 +1838,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1978,207 +1978,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2495,8 +2294,8 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,7 +2512,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(C7,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3257,7 +3056,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <f>VLOOKUP(C23,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3869,7 +3668,7 @@
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>VLOOKUP(C41,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -3903,7 +3702,7 @@
     </row>
     <row r="42" spans="1:10" ht="16.5" thickBot="1">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>VLOOKUP(C42,shortcode!$B$1:$C$200,2,FALSE)</f>
@@ -4174,20 +3973,20 @@
   </sheetData>
   <autoFilter ref="A1:J49" xr:uid="{F4D50087-81CA-4121-AC19-488D7706F9F6}"/>
   <conditionalFormatting sqref="G3:G48 H48:I48">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>COUNTIF($Q$3:$AD$3,G3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G48 H48:I48">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>COUNTIF($Q$3:$AD$3,G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J49">
     <cfRule type="expression" dxfId="15" priority="23">
@@ -7870,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279EA41E-7727-4698-8E10-FD63D59C9993}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8065,7 +7864,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="19" t="s">
         <v>305</v>
       </c>
@@ -8117,7 +7916,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="19" t="s">
         <v>491</v>
       </c>
@@ -8277,7 +8076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="39.75" thickBot="1">
+    <row r="33" spans="1:4" ht="27" thickBot="1">
       <c r="A33" s="19" t="s">
         <v>87</v>
       </c>

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DC3DD-E491-4770-BE92-E7EF873DC9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A288D-7A95-425C-8008-9C28634DBA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="psname" sheetId="1" r:id="rId1"/>
     <sheet name="country" sheetId="2" r:id="rId2"/>
     <sheet name="shortcode" sheetId="3" r:id="rId3"/>
-    <sheet name="logoName" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="ps_country" sheetId="6" r:id="rId4"/>
+    <sheet name="logoName" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">psname!$A$1:$J$49</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1234">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -3733,13 +3734,19 @@
   </si>
   <si>
     <t>CUW</t>
+  </si>
+  <si>
+    <t>nu_co</t>
+  </si>
+  <si>
+    <t>WeChat Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3814,6 +3821,12 @@
       <color rgb="FF172B4D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3963,7 +3976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4042,6 +4055,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4051,9 +4067,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4512,11 +4526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4566,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP(C2,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C2,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4601,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <f>VLOOKUP(C3,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C3,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4636,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <f>VLOOKUP(C4,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C4,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -4671,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(C5,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C5,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>191</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4706,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <f>VLOOKUP(C6,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C6,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>193</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4741,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <f>VLOOKUP(C7,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C7,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4776,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <f>VLOOKUP(C8,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C8,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4811,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <f>VLOOKUP(C9,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C9,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>221</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4846,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <f>VLOOKUP(C10,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C10,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>223</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4881,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <f>VLOOKUP(C11,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C11,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>224</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4916,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <f>VLOOKUP(C12,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C12,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>238</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4951,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <f>VLOOKUP(C13,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C13,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4986,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <f>VLOOKUP(C14,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C14,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -5021,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <f>VLOOKUP(C15,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C15,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -5056,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <f>VLOOKUP(C16,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C16,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -5091,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <f>VLOOKUP(C17,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C17,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>124</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -5126,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <f>VLOOKUP(C18,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C18,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -5161,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <f>VLOOKUP(C19,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C19,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -5196,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <f>VLOOKUP(C20,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C20,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -5231,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <f>VLOOKUP(C21,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C21,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -5266,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <f>VLOOKUP(C22,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C22,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>246</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -5301,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <f>VLOOKUP(C23,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C23,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -5336,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <f>VLOOKUP(C24,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C24,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -5371,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <f>VLOOKUP(C25,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C25,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -5406,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <f>VLOOKUP(C26,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C26,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -5441,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <f>VLOOKUP(C27,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C27,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>272</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -5476,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <f>VLOOKUP(C28,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C28,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>274</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -5511,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <f>VLOOKUP(C29,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C29,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>275</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -5546,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <f>VLOOKUP(C30,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C30,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>276</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -5581,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <f>VLOOKUP(C31,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C31,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>213</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -5616,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <f>VLOOKUP(C32,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C32,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>281</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -5651,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <f>VLOOKUP(C33,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C33,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>284</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -5686,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <f>VLOOKUP(C34,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C34,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>285</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -5721,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <f>VLOOKUP(C35,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C35,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>287</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -5756,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <f>VLOOKUP(C36,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C36,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>286</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -5791,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <f>VLOOKUP(C37,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C37,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>278</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -5826,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <f>VLOOKUP(C38,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C38,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>279</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -5861,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <f>VLOOKUP(C39,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C39,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>280</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -5896,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <f>VLOOKUP(C40,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C40,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>283</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -5931,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <f>VLOOKUP(C41,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C41,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>132</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -5966,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <f>VLOOKUP(C42,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C42,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>132</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -6001,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <f>VLOOKUP(C43,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C43,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -6036,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f>VLOOKUP(C44,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C44,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -6071,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <f>VLOOKUP(C45,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C45,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>176</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -6106,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <f>VLOOKUP(C46,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C46,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>145</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -6141,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <f>VLOOKUP(C47,shortcode!$B$1:$C$200,2,FALSE)</f>
+        <f>VLOOKUP(C47,shortcode!$C$1:$D$200,2,FALSE)</f>
         <v>208</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -6241,7 +6255,7 @@
     </row>
     <row r="50" spans="1:10" ht="16.5" thickBot="1">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="4">
         <v>6</v>
@@ -6262,7 +6276,7 @@
         <f>VLOOKUP(H50,country!$C$2:$D$235,2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="32" t="s">
         <v>515</v>
       </c>
       <c r="J50" s="3" t="str">
@@ -6272,7 +6286,7 @@
     </row>
     <row r="51" spans="1:10" ht="48" thickBot="1">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="4">
         <v>23</v>
@@ -6293,7 +6307,7 @@
         <f>VLOOKUP(H51,country!$C$2:$D$235,2,FALSE)</f>
         <v>108</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="32" t="s">
         <v>212</v>
       </c>
       <c r="J51" s="3" t="str">
@@ -6303,7 +6317,7 @@
     </row>
     <row r="52" spans="1:10" ht="16.5" thickBot="1">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="4">
         <v>54</v>
@@ -6324,7 +6338,7 @@
         <f>VLOOKUP(H52,country!$C$2:$D$235,2,FALSE)</f>
         <v>124</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="32" t="s">
         <v>518</v>
       </c>
       <c r="J52" s="3" t="str">
@@ -6334,7 +6348,7 @@
     </row>
     <row r="53" spans="1:10" ht="16.5" thickBot="1">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="4">
         <v>55</v>
@@ -6365,7 +6379,7 @@
     </row>
     <row r="54" spans="1:10" ht="32.25" thickBot="1">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="4">
         <v>107</v>
@@ -6386,7 +6400,7 @@
         <f>VLOOKUP(H54,country!$C$2:$D$235,2,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="32" t="s">
         <v>149</v>
       </c>
       <c r="J54" s="3" t="str">
@@ -6396,7 +6410,7 @@
     </row>
     <row r="55" spans="1:10" ht="16.5" thickBot="1">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="4">
         <v>115</v>
@@ -6417,7 +6431,7 @@
         <f>VLOOKUP(H55,country!$C$2:$D$235,2,FALSE)</f>
         <v>161</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="32" t="s">
         <v>520</v>
       </c>
       <c r="J55" s="3" t="str">
@@ -6427,7 +6441,7 @@
     </row>
     <row r="56" spans="1:10" ht="16.5" thickBot="1">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="4">
         <v>188</v>
@@ -6448,7 +6462,7 @@
         <f>VLOOKUP(H56,country!$C$2:$D$235,2,FALSE)</f>
         <v>132</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="32" t="s">
         <v>208</v>
       </c>
       <c r="J56" s="3" t="str">
@@ -6458,7 +6472,7 @@
     </row>
     <row r="57" spans="1:10" ht="32.25" thickBot="1">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="4">
         <v>248</v>
@@ -6479,7 +6493,7 @@
         <f>VLOOKUP(H57,country!$C$2:$D$235,2,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="H57" s="32" t="s">
         <v>521</v>
       </c>
       <c r="J57" s="3" t="str">
@@ -6489,7 +6503,7 @@
     </row>
     <row r="58" spans="1:10" ht="16.5" thickBot="1">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="4">
         <v>251</v>
@@ -6510,7 +6524,7 @@
         <f>VLOOKUP(H58,country!$C$2:$D$235,2,FALSE)</f>
         <v>164</v>
       </c>
-      <c r="H58" s="35" t="s">
+      <c r="H58" s="32" t="s">
         <v>426</v>
       </c>
       <c r="J58" s="3" t="str">
@@ -6520,7 +6534,7 @@
     </row>
     <row r="59" spans="1:10" ht="16.5" thickBot="1">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="4">
         <v>275</v>
@@ -6534,14 +6548,14 @@
       <c r="E59" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="32" t="s">
         <v>536</v>
       </c>
       <c r="G59">
         <f>VLOOKUP(H59,country!$C$2:$D$235,2,FALSE)</f>
         <v>44</v>
       </c>
-      <c r="H59" s="35" t="s">
+      <c r="H59" s="32" t="s">
         <v>382</v>
       </c>
       <c r="J59" s="3" t="str">
@@ -6551,7 +6565,7 @@
     </row>
     <row r="60" spans="1:10" ht="16.5" thickBot="1">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="4">
         <v>289</v>
@@ -6562,7 +6576,7 @@
       <c r="D60" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="32" t="s">
         <v>522</v>
       </c>
       <c r="F60" t="s">
@@ -6572,12 +6586,38 @@
         <f>VLOOKUP(H60,country!$C$2:$D$235,2,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="H60" s="35" t="s">
+      <c r="H60" s="32" t="s">
         <v>452</v>
       </c>
       <c r="J60" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C60,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C60,logoName!$B$2:$D$39,3,FALSE))</f>
         <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16.5">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="17">
+        <v>254</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G61">
+        <v>44</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -6612,8 +6652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B9A41-7302-4CB8-82D8-001DE2FFF816}">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17285,2924 +17325,3744 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44142A8A-AFDD-49DF-95F7-861634CDED16}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:EF138"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="14">
+        <v>91</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="14">
         <v>91</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="14">
+        <v>129</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="14">
+      <c r="D3" s="14">
         <v>129</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="12" t="s">
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="14">
+        <v>190</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="14">
+      <c r="D4" s="14">
         <v>190</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="14">
+        <v>189</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="14">
         <v>189</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="14">
+        <v>248</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="14">
         <v>248</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="14">
+        <v>188</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="14">
         <v>188</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="14">
+        <v>182</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="14">
+      <c r="D8" s="14">
         <v>182</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="14">
+        <v>239</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>239</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="14">
+        <v>238</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>238</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="14">
+        <v>193</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>193</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A12" s="14">
         <v>236</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="14">
         <v>236</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="14">
+        <v>237</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="14">
+      <c r="D13" s="14">
         <v>237</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A14" s="14">
+        <v>198</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="14">
         <v>198</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A15" s="14">
+        <v>199</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="14">
+      <c r="D15" s="14">
         <v>199</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A16" s="14">
+        <v>191</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D16" s="14">
         <v>191</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A17" s="14">
+        <v>183</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="14">
+      <c r="D17" s="14">
         <v>183</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A18" s="14">
+        <v>61</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="14">
         <v>61</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="12" t="s">
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A19" s="14">
+        <v>24</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="14">
+      <c r="D19" s="14">
         <v>24</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="12" t="s">
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A20" s="14">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="14">
+      <c r="D20" s="14">
         <v>17</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="14">
+        <v>167</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="14">
+      <c r="D21" s="14">
         <v>167</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="12" t="s">
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A22" s="14">
+        <v>272</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="14">
+      <c r="D22" s="14">
         <v>272</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A23" s="14">
+        <v>130</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="14">
+      <c r="D23" s="14">
         <v>130</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A24" s="14">
+        <v>160</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="14">
+      <c r="D24" s="14">
         <v>160</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A25" s="14">
+        <v>128</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="14">
+      <c r="D25" s="14">
         <v>128</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A26" s="14">
+        <v>139</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="14">
+      <c r="D26" s="14">
         <v>139</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="12" t="s">
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A27" s="14">
+        <v>242</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="14">
+      <c r="D27" s="14">
         <v>242</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A28" s="12" t="s">
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A28" s="14">
+        <v>241</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="14">
+      <c r="D28" s="14">
         <v>241</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A29" s="12" t="s">
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A29" s="14">
+        <v>243</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="14">
+      <c r="D29" s="14">
         <v>243</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A30" s="14">
+        <v>88</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="14">
+      <c r="D30" s="14">
         <v>88</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A31" s="14">
+        <v>120</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="14">
+      <c r="D31" s="14">
         <v>120</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" s="14">
+        <v>122</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="14">
+      <c r="D32" s="14">
         <v>122</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A33" s="14">
+        <v>123</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="14">
+      <c r="D33" s="14">
         <v>123</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A34" s="14">
+        <v>117</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="14">
+      <c r="D34" s="14">
         <v>117</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="15">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A35" s="14">
+        <v>121</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="14">
+      <c r="D35" s="14">
         <v>121</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="15">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="15">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A36" s="14">
+        <v>124</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="14">
+      <c r="D36" s="14">
         <v>124</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A37" s="14">
+        <v>55</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="14">
+      <c r="D37" s="14">
         <v>55</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="15">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A38" s="14">
+        <v>101</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="14">
+      <c r="D38" s="14">
         <v>101</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A39" s="14">
+        <v>200</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="14">
+      <c r="D39" s="14">
         <v>200</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F39" s="15">
-        <v>1</v>
-      </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A40" s="14">
+        <v>201</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="14">
+      <c r="D40" s="14">
         <v>201</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="15">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A41" s="14">
+        <v>224</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="14">
+      <c r="D41" s="14">
         <v>224</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="15">
-        <v>1</v>
-      </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A42" s="14">
+        <v>222</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C42" s="14">
+      <c r="D42" s="14">
         <v>222</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="15">
-        <v>1</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="15">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A43" s="14">
+        <v>223</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="14">
+      <c r="D43" s="14">
         <v>223</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="15">
-        <v>1</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="15">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A44" s="14">
+        <v>221</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="14">
+      <c r="D44" s="14">
         <v>221</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="15">
-        <v>1</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="15">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A45" s="14">
+        <v>166</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C45" s="14">
+      <c r="D45" s="14">
         <v>166</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="15">
-        <v>1</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A46" s="14">
+        <v>46</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="14">
+      <c r="D46" s="14">
         <v>46</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="15">
-        <v>1</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A47" s="14">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="14">
+      <c r="D47" s="14">
         <v>45</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="15">
-        <v>1</v>
-      </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A48" s="12" t="s">
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A48" s="14">
+        <v>157</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="14">
+      <c r="D48" s="14">
         <v>157</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F48" s="15">
-        <v>1</v>
-      </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="15">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A49" s="14">
+        <v>132</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="14">
+      <c r="D49" s="14">
         <v>132</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="15">
-        <v>1</v>
-      </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A50" s="12" t="s">
+      <c r="G49" s="15">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A50" s="14">
+        <v>98</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="14">
+      <c r="D50" s="14">
         <v>98</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="15">
-        <v>1</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="15">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A51" s="14">
+        <v>34</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="14">
+      <c r="D51" s="14">
         <v>34</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="15">
-        <v>1</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="15">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A52" s="14">
+        <v>219</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C52" s="14">
+      <c r="D52" s="14">
         <v>219</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="15">
-        <v>1</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="15">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A53" s="14">
+        <v>54</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="14">
+      <c r="D53" s="14">
         <v>54</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="15">
-        <v>1</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="15">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A54" s="14">
+        <v>57</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="14">
+      <c r="D54" s="14">
         <v>57</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="15">
-        <v>1</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A55" s="12" t="s">
+      <c r="G54" s="15">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A55" s="14">
+        <v>283</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="14">
+      <c r="D55" s="14">
         <v>283</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="15">
-        <v>1</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="15">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A56" s="14">
+        <v>48</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="14">
+      <c r="D56" s="14">
         <v>48</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="11"/>
+      <c r="F56" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="15">
-        <v>1</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="15">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A57" s="14">
+        <v>276</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="14">
+      <c r="D57" s="14">
         <v>276</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="15">
-        <v>1</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A58" s="14">
+        <v>145</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="14">
+      <c r="D58" s="14">
         <v>145</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="15">
-        <v>1</v>
-      </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A59" s="12" t="s">
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A59" s="14">
+        <v>144</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C59" s="14">
+      <c r="D59" s="14">
         <v>144</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F59" s="15">
-        <v>1</v>
-      </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A60" s="12" t="s">
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A60" s="14">
+        <v>178</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="14">
+      <c r="D60" s="14">
         <v>178</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="11"/>
+      <c r="F60" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A61" s="12" t="s">
+      <c r="G60" s="15">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A61" s="14">
+        <v>220</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="14">
+      <c r="D61" s="14">
         <v>220</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="15">
-        <v>1</v>
-      </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A62" s="12" t="s">
+      <c r="G61" s="15">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A62" s="14">
+        <v>213</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="14">
+      <c r="D62" s="14">
         <v>213</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F62" s="15">
-        <v>1</v>
-      </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="15">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A63" s="14">
+        <v>103</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="14">
+      <c r="D63" s="14">
         <v>103</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="15">
-        <v>1</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A64" s="12" t="s">
+      <c r="G63" s="15">
+        <v>1</v>
+      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A64" s="14">
+        <v>215</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="14">
+      <c r="D64" s="14">
         <v>215</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F64" s="15">
-        <v>1</v>
-      </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="15">
+        <v>1</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A65" s="14">
+        <v>84</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="14">
+      <c r="D65" s="14">
         <v>84</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F65" s="15">
-        <v>1</v>
-      </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="15">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A66" s="14">
+        <v>86</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="14">
+      <c r="D66" s="14">
         <v>86</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="15">
-        <v>1</v>
-      </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="15">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A67" s="14">
+        <v>83</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="14">
+      <c r="D67" s="14">
         <v>83</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F67" s="15">
-        <v>1</v>
-      </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="15">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A68" s="14">
+        <v>47</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="14">
+      <c r="D68" s="14">
         <v>47</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F68" s="15">
-        <v>1</v>
-      </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="15">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A69" s="14">
+        <v>170</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C69" s="14">
+      <c r="D69" s="14">
         <v>170</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F69" s="15">
-        <v>1</v>
-      </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="15">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A70" s="14">
+        <v>280</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="14">
+      <c r="D70" s="14">
         <v>280</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F70" s="15">
-        <v>1</v>
-      </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="15">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A71" s="14">
+        <v>208</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="14">
+      <c r="D71" s="14">
         <v>208</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F71" s="15">
-        <v>1</v>
-      </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="15">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A72" s="14">
+        <v>209</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="14">
+      <c r="D72" s="14">
         <v>209</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="11"/>
+      <c r="F72" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F72" s="15">
-        <v>1</v>
-      </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="15">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A73" s="14">
+        <v>279</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="14">
+      <c r="D73" s="14">
         <v>279</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F73" s="15">
-        <v>1</v>
-      </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="15">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A74" s="14">
+        <v>278</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="14">
+      <c r="D74" s="14">
         <v>278</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="11"/>
+      <c r="F74" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="15">
-        <v>1</v>
-      </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="15">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A75" s="14">
+        <v>93</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="14">
+      <c r="D75" s="14">
         <v>93</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F75" s="15">
-        <v>1</v>
-      </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="15">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A76" s="14">
+        <v>19</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="14">
+      <c r="D76" s="14">
         <v>19</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="11"/>
+      <c r="F76" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F76" s="15">
-        <v>1</v>
-      </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A77" s="12" t="s">
+      <c r="G76" s="15">
+        <v>1</v>
+      </c>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A77" s="14">
+        <v>56</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="14">
+      <c r="D77" s="14">
         <v>56</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="11"/>
+      <c r="F77" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F77" s="15">
-        <v>1</v>
-      </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A78" s="12" t="s">
+      <c r="G77" s="15">
+        <v>1</v>
+      </c>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A78" s="14">
+        <v>253</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C78" s="14">
+      <c r="D78" s="14">
         <v>253</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="11"/>
+      <c r="F78" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F78" s="15">
-        <v>1</v>
-      </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A79" s="12" t="s">
+      <c r="G78" s="15">
+        <v>1</v>
+      </c>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A79" s="14">
+        <v>246</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="14">
+      <c r="D79" s="14">
         <v>246</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F79" s="15">
-        <v>1</v>
-      </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A80" s="12" t="s">
+      <c r="G79" s="15">
+        <v>1</v>
+      </c>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A80" s="14">
+        <v>80</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="14">
+      <c r="D80" s="14">
         <v>80</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="11"/>
+      <c r="F80" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F80" s="15">
-        <v>1</v>
-      </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A81" s="12" t="s">
+      <c r="G80" s="15">
+        <v>1</v>
+      </c>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A81" s="14">
+        <v>36</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="14">
+      <c r="D81" s="14">
         <v>36</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F81" s="15">
-        <v>1</v>
-      </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A82" s="12" t="s">
+      <c r="G81" s="15">
+        <v>1</v>
+      </c>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A82" s="14">
+        <v>23</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C82" s="14">
+      <c r="D82" s="14">
         <v>23</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F82" s="15">
-        <v>1</v>
-      </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A83" s="12" t="s">
+      <c r="G82" s="15">
+        <v>1</v>
+      </c>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A83" s="14">
+        <v>78</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="14">
+      <c r="D83" s="14">
         <v>78</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F83" s="15">
-        <v>1</v>
-      </c>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A84" s="12" t="s">
+      <c r="G83" s="15">
+        <v>1</v>
+      </c>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A84" s="14">
+        <v>42</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C84" s="14">
+      <c r="D84" s="14">
         <v>42</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="11"/>
+      <c r="F84" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="15">
-        <v>1</v>
-      </c>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A85" s="12" t="s">
+      <c r="G84" s="15">
+        <v>1</v>
+      </c>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A85" s="14">
+        <v>41</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="14">
+      <c r="D85" s="14">
         <v>41</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F85" s="15">
-        <v>1</v>
-      </c>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A86" s="12" t="s">
+      <c r="G85" s="15">
+        <v>1</v>
+      </c>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A86" s="14">
+        <v>1</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="14">
-        <v>1</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="14">
+        <v>1</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F86" s="15">
-        <v>1</v>
-      </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="15">
+        <v>1</v>
+      </c>
+      <c r="H86" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A87" s="14">
+        <v>30</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C87" s="14">
+      <c r="D87" s="14">
         <v>30</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F87" s="15">
-        <v>1</v>
-      </c>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A88" s="12" t="s">
+      <c r="G87" s="15">
+        <v>1</v>
+      </c>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A88" s="14">
+        <v>228</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="14">
+      <c r="D88" s="14">
         <v>228</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="11"/>
+      <c r="F88" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F88" s="15">
-        <v>1</v>
-      </c>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A89" s="12" t="s">
+      <c r="G88" s="15">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A89" s="14">
+        <v>229</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="14">
+      <c r="D89" s="14">
         <v>229</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="11"/>
+      <c r="F89" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F89" s="15">
-        <v>1</v>
-      </c>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A90" s="12" t="s">
+      <c r="G89" s="15">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A90" s="14">
+        <v>231</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C90" s="14">
+      <c r="D90" s="14">
         <v>231</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="11"/>
+      <c r="F90" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F90" s="15">
-        <v>1</v>
-      </c>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A91" s="12" t="s">
+      <c r="G90" s="15">
+        <v>1</v>
+      </c>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A91" s="14">
+        <v>230</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="14">
+      <c r="D91" s="14">
         <v>230</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F91" s="15">
-        <v>1</v>
-      </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A92" s="12" t="s">
+      <c r="G91" s="15">
+        <v>1</v>
+      </c>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A92" s="14">
+        <v>234</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C92" s="14">
+      <c r="D92" s="14">
         <v>234</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="11"/>
+      <c r="F92" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F92" s="15">
-        <v>1</v>
-      </c>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A93" s="12" t="s">
+      <c r="G92" s="15">
+        <v>1</v>
+      </c>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A93" s="14">
+        <v>232</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="14">
+      <c r="D93" s="14">
         <v>232</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F93" s="15">
-        <v>1</v>
-      </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A94" s="12" t="s">
+      <c r="G93" s="15">
+        <v>1</v>
+      </c>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A94" s="14">
+        <v>233</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="14">
+      <c r="D94" s="14">
         <v>233</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F94" s="15">
-        <v>1</v>
-      </c>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A95" s="12" t="s">
+      <c r="G94" s="15">
+        <v>1</v>
+      </c>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A95" s="14">
+        <v>109</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="14">
+      <c r="D95" s="14">
         <v>109</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F95" s="15">
-        <v>1</v>
-      </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="15">
+        <v>1</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A96" s="14">
+        <v>107</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C96" s="14">
+      <c r="D96" s="14">
         <v>107</v>
       </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="11"/>
+      <c r="F96" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F96" s="15">
-        <v>1</v>
-      </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="15">
+        <v>1</v>
+      </c>
+      <c r="H96" s="11" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A97" s="14">
+        <v>115</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="C97" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="14">
+      <c r="D97" s="14">
         <v>115</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F97" s="15">
-        <v>1</v>
-      </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="15">
+        <v>1</v>
+      </c>
+      <c r="H97" s="11" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A98" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="14">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A98" s="14">
         <v>90</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
+      <c r="B98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14">
+        <v>90</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F98" s="15">
-        <v>1</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A99" s="12" t="s">
+      <c r="G98" s="15">
+        <v>1</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A99" s="14">
+        <v>111</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="C99" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C99" s="14">
+      <c r="D99" s="14">
         <v>111</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="11"/>
+      <c r="F99" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F99" s="15">
-        <v>1</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="G99" s="15">
+        <v>1</v>
+      </c>
+      <c r="H99" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A100" s="14">
+        <v>113</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="C100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="14">
+      <c r="D100" s="14">
         <v>113</v>
       </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F100" s="15">
-        <v>1</v>
-      </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="15">
+        <v>1</v>
+      </c>
+      <c r="H100" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A101" s="14">
+        <v>218</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="C101" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C101" s="14">
+      <c r="D101" s="14">
         <v>218</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="11"/>
+      <c r="F101" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F101" s="15">
-        <v>1</v>
-      </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+      <c r="H101" s="11" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A102" s="14">
+        <v>6</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="C102" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C102" s="14">
+      <c r="D102" s="14">
         <v>6</v>
       </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="11"/>
+      <c r="F102" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F102" s="15">
-        <v>1</v>
-      </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+      <c r="H102" s="11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A103" s="14">
+        <v>226</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="C103" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C103" s="14">
+      <c r="D103" s="14">
         <v>226</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F103" s="15">
-        <v>1</v>
-      </c>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A104" s="12" t="s">
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A104" s="14">
+        <v>5</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="C104" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="14">
+      <c r="D104" s="14">
         <v>5</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F104" s="15">
-        <v>1</v>
-      </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+      <c r="H104" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A105" s="14">
+        <v>137</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="C105" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="14">
+      <c r="D105" s="14">
         <v>137</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F105" s="15">
-        <v>1</v>
-      </c>
-      <c r="G105" s="11" t="s">
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+      <c r="H105" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A106" s="14">
+        <v>176</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="C106" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C106" s="14">
+      <c r="D106" s="14">
         <v>176</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="11"/>
+      <c r="F106" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F106" s="15">
-        <v>1</v>
-      </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="15">
+        <v>1</v>
+      </c>
+      <c r="H106" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A107" s="14">
+        <v>64</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C107" s="14">
+      <c r="D107" s="14">
         <v>64</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="11"/>
+      <c r="F107" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F107" s="15">
-        <v>1</v>
-      </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="15">
+        <v>1</v>
+      </c>
+      <c r="H107" s="11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A108" s="14">
+        <v>81</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="C108" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C108" s="14">
+      <c r="D108" s="14">
         <v>81</v>
       </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="11"/>
+      <c r="F108" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="15">
-        <v>1</v>
-      </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="15">
+        <v>1</v>
+      </c>
+      <c r="H108" s="11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A109" s="14">
+        <v>127</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="C109" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="14">
+      <c r="D109" s="14">
         <v>127</v>
       </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F109" s="15">
-        <v>1</v>
-      </c>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A110" s="12" t="s">
+      <c r="G109" s="15">
+        <v>1</v>
+      </c>
+      <c r="H109" s="11"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A110" s="14">
+        <v>216</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C110" s="14">
+      <c r="D110" s="14">
         <v>216</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F110" s="15">
-        <v>1</v>
-      </c>
-      <c r="G110" s="11"/>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A111" s="12" t="s">
+      <c r="G110" s="15">
+        <v>1</v>
+      </c>
+      <c r="H110" s="11"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A111" s="14">
+        <v>217</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="C111" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="14">
+      <c r="D111" s="14">
         <v>217</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F111" s="15">
-        <v>1</v>
-      </c>
-      <c r="G111" s="11"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A112" s="12" t="s">
+      <c r="G111" s="15">
+        <v>1</v>
+      </c>
+      <c r="H111" s="11"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A112" s="14">
+        <v>172</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="C112" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C112" s="14">
+      <c r="D112" s="14">
         <v>172</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F112" s="15">
-        <v>1</v>
-      </c>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A113" s="12" t="s">
+      <c r="G112" s="15">
+        <v>1</v>
+      </c>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A113" s="14">
+        <v>174</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="C113" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C113" s="14">
+      <c r="D113" s="14">
         <v>174</v>
       </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F113" s="15">
-        <v>1</v>
-      </c>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A114" s="12" t="s">
+      <c r="G113" s="15">
+        <v>1</v>
+      </c>
+      <c r="H113" s="11"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A114" s="14">
+        <v>274</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C114" s="14">
+      <c r="D114" s="14">
         <v>274</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F114" s="15">
-        <v>1</v>
-      </c>
-      <c r="G114" s="11" t="s">
+      <c r="G114" s="15">
+        <v>1</v>
+      </c>
+      <c r="H114" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A115" s="14">
+        <v>140</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="C115" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="14">
+      <c r="D115" s="14">
         <v>140</v>
       </c>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="15">
-        <v>1</v>
-      </c>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A116" s="12" t="s">
+      <c r="G115" s="15">
+        <v>1</v>
+      </c>
+      <c r="H115" s="11"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A116" s="14">
+        <v>97</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="C116" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="14">
+      <c r="D116" s="14">
         <v>97</v>
       </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F116" s="15">
-        <v>1</v>
-      </c>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="15">
+        <v>1</v>
+      </c>
+      <c r="H116" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A117" s="14">
+        <v>26</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="C117" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="14">
+      <c r="D117" s="14">
         <v>26</v>
       </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F117" s="15">
-        <v>1</v>
-      </c>
-      <c r="G117" s="11" t="s">
+      <c r="G117" s="15">
+        <v>1</v>
+      </c>
+      <c r="H117" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A118" s="14">
+        <v>277</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="C118" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C118" s="14">
+      <c r="D118" s="14">
         <v>277</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F118" s="15">
-        <v>1</v>
-      </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="15">
+        <v>1</v>
+      </c>
+      <c r="H118" s="11" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A119" s="14">
+        <v>251</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="C119" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C119" s="14">
+      <c r="D119" s="14">
         <v>251</v>
       </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="11"/>
+      <c r="F119" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F119" s="15">
-        <v>1</v>
-      </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="15">
+        <v>1</v>
+      </c>
+      <c r="H119" s="11" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A120" s="14">
+        <v>275</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="C120" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="14">
+      <c r="D120" s="14">
         <v>275</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="11"/>
+      <c r="F120" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F120" s="15">
-        <v>1</v>
-      </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="15">
+        <v>1</v>
+      </c>
+      <c r="H120" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A121" s="14">
+        <v>141</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="C121" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="14">
+      <c r="D121" s="14">
         <v>141</v>
       </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="11"/>
+      <c r="F121" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F121" s="15">
-        <v>1</v>
-      </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="15">
+        <v>1</v>
+      </c>
+      <c r="H121" s="11" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A122" s="14">
+        <v>180</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C122" s="14">
+      <c r="D122" s="14">
         <v>180</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="11"/>
+      <c r="F122" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F122" s="15">
-        <v>1</v>
-      </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="15">
+        <v>1</v>
+      </c>
+      <c r="H122" s="11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A123" s="14">
+        <v>203</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="C123" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C123" s="14">
+      <c r="D123" s="14">
         <v>203</v>
       </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="11"/>
+      <c r="F123" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F123" s="15">
-        <v>1</v>
-      </c>
-      <c r="G123" s="11" t="s">
+      <c r="G123" s="15">
+        <v>1</v>
+      </c>
+      <c r="H123" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A124" s="14">
+        <v>169</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="C124" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="14">
+      <c r="D124" s="14">
         <v>169</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F124" s="15">
-        <v>1</v>
-      </c>
-      <c r="G124" s="11" t="s">
+      <c r="G124" s="15">
+        <v>1</v>
+      </c>
+      <c r="H124" s="11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A125" s="14">
+        <v>38</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="C125" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="14">
+      <c r="D125" s="14">
         <v>38</v>
       </c>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="11"/>
+      <c r="F125" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F125" s="15">
-        <v>1</v>
-      </c>
-      <c r="G125" s="11"/>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A126" s="12" t="s">
+      <c r="G125" s="15">
+        <v>1</v>
+      </c>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A126" s="14">
+        <v>22</v>
+      </c>
+      <c r="B126" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="C126" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C126" s="14">
+      <c r="D126" s="14">
         <v>22</v>
       </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="11"/>
+      <c r="F126" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F126" s="15">
-        <v>1</v>
-      </c>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A127" s="12" t="s">
+      <c r="G126" s="15">
+        <v>1</v>
+      </c>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A127" s="14">
+        <v>15</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="C127" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C127" s="14">
+      <c r="D127" s="14">
         <v>15</v>
       </c>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="11"/>
+      <c r="F127" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F127" s="15">
-        <v>1</v>
-      </c>
-      <c r="G127" s="11" t="s">
+      <c r="G127" s="15">
+        <v>1</v>
+      </c>
+      <c r="H127" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A128" s="14">
+        <v>254</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="C128" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="14">
+      <c r="D128" s="14">
         <v>254</v>
       </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="11"/>
+      <c r="F128" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F128" s="15">
-        <v>1</v>
-      </c>
-      <c r="G128" s="11"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A129" s="12" t="s">
+      <c r="G128" s="15">
+        <v>1</v>
+      </c>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A129" s="14">
+        <v>82</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="C129" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="14">
+      <c r="D129" s="14">
         <v>82</v>
       </c>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F129" s="15">
-        <v>1</v>
-      </c>
-      <c r="G129" s="11" t="s">
+      <c r="G129" s="15">
+        <v>1</v>
+      </c>
+      <c r="H129" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A130" s="14">
+        <v>285</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="C130" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C130" s="14">
+      <c r="D130" s="14">
         <v>285</v>
       </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="11"/>
+      <c r="F130" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F130" s="15">
-        <v>1</v>
-      </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="15">
+        <v>1</v>
+      </c>
+      <c r="H130" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A131" s="14">
+        <v>286</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="C131" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C131" s="14">
+      <c r="D131" s="14">
         <v>286</v>
       </c>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="11"/>
+      <c r="F131" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F131" s="15">
-        <v>1</v>
-      </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="15">
+        <v>1</v>
+      </c>
+      <c r="H131" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A132" s="14">
+        <v>284</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="C132" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C132" s="14">
+      <c r="D132" s="14">
         <v>284</v>
       </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F132" s="15">
-        <v>1</v>
-      </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="15">
+        <v>1</v>
+      </c>
+      <c r="H132" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A133" s="14">
+        <v>287</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="C133" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C133" s="14">
+      <c r="D133" s="14">
         <v>287</v>
       </c>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="11"/>
+      <c r="F133" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F133" s="15">
-        <v>1</v>
-      </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="15">
+        <v>1</v>
+      </c>
+      <c r="H133" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A134" s="14">
+        <v>281</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="C134" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C134" s="14">
+      <c r="D134" s="14">
         <v>281</v>
       </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="11"/>
+      <c r="F134" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F134" s="15">
-        <v>1</v>
-      </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="15">
+        <v>1</v>
+      </c>
+      <c r="H134" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A135" s="14">
+        <v>40</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="C135" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C135" s="14">
+      <c r="D135" s="14">
         <v>40</v>
       </c>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="11"/>
+      <c r="F135" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F135" s="15">
-        <v>1</v>
-      </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="15">
+        <v>1</v>
+      </c>
+      <c r="H135" s="11" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A136" s="16" t="s">
+    <row r="136" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A136" s="14">
+        <v>165</v>
+      </c>
+      <c r="B136" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="C136" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="14">
+      <c r="D136" s="14">
         <v>165</v>
       </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F136" s="15">
-        <v>1</v>
-      </c>
-      <c r="G136" s="11"/>
+      <c r="G136" s="15">
+        <v>1</v>
+      </c>
+      <c r="H136" s="11"/>
+    </row>
+    <row r="137" spans="1:136" ht="15.75" thickBot="1"/>
+    <row r="138" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A138" s="14">
+        <v>190</v>
+      </c>
+      <c r="B138" s="14">
+        <v>91</v>
+      </c>
+      <c r="C138" s="14">
+        <v>129</v>
+      </c>
+      <c r="D138" s="14">
+        <v>190</v>
+      </c>
+      <c r="E138" s="14">
+        <v>189</v>
+      </c>
+      <c r="F138" s="14">
+        <v>248</v>
+      </c>
+      <c r="G138" s="14">
+        <v>188</v>
+      </c>
+      <c r="H138" s="14">
+        <v>182</v>
+      </c>
+      <c r="I138" s="14">
+        <v>239</v>
+      </c>
+      <c r="J138" s="14">
+        <v>238</v>
+      </c>
+      <c r="K138" s="14">
+        <v>193</v>
+      </c>
+      <c r="L138" s="14">
+        <v>236</v>
+      </c>
+      <c r="M138" s="14">
+        <v>237</v>
+      </c>
+      <c r="N138" s="14">
+        <v>198</v>
+      </c>
+      <c r="O138" s="14">
+        <v>199</v>
+      </c>
+      <c r="P138" s="14">
+        <v>191</v>
+      </c>
+      <c r="Q138" s="14">
+        <v>183</v>
+      </c>
+      <c r="R138" s="14">
+        <v>61</v>
+      </c>
+      <c r="S138" s="14">
+        <v>24</v>
+      </c>
+      <c r="T138" s="14">
+        <v>17</v>
+      </c>
+      <c r="U138" s="14">
+        <v>167</v>
+      </c>
+      <c r="V138" s="14">
+        <v>272</v>
+      </c>
+      <c r="W138" s="14">
+        <v>130</v>
+      </c>
+      <c r="X138" s="14">
+        <v>160</v>
+      </c>
+      <c r="Y138" s="14">
+        <v>128</v>
+      </c>
+      <c r="Z138" s="14">
+        <v>139</v>
+      </c>
+      <c r="AA138" s="14">
+        <v>242</v>
+      </c>
+      <c r="AB138" s="14">
+        <v>241</v>
+      </c>
+      <c r="AC138" s="14">
+        <v>243</v>
+      </c>
+      <c r="AD138" s="14">
+        <v>88</v>
+      </c>
+      <c r="AE138" s="14">
+        <v>120</v>
+      </c>
+      <c r="AF138" s="14">
+        <v>122</v>
+      </c>
+      <c r="AG138" s="14">
+        <v>123</v>
+      </c>
+      <c r="AH138" s="14">
+        <v>117</v>
+      </c>
+      <c r="AI138" s="14">
+        <v>121</v>
+      </c>
+      <c r="AJ138" s="14">
+        <v>124</v>
+      </c>
+      <c r="AK138" s="14">
+        <v>55</v>
+      </c>
+      <c r="AL138" s="14">
+        <v>101</v>
+      </c>
+      <c r="AM138" s="14">
+        <v>200</v>
+      </c>
+      <c r="AN138" s="14">
+        <v>201</v>
+      </c>
+      <c r="AO138" s="14">
+        <v>224</v>
+      </c>
+      <c r="AP138" s="14">
+        <v>222</v>
+      </c>
+      <c r="AQ138" s="14">
+        <v>223</v>
+      </c>
+      <c r="AR138" s="14">
+        <v>221</v>
+      </c>
+      <c r="AS138" s="14">
+        <v>166</v>
+      </c>
+      <c r="AT138" s="14">
+        <v>46</v>
+      </c>
+      <c r="AU138" s="14">
+        <v>45</v>
+      </c>
+      <c r="AV138" s="14">
+        <v>157</v>
+      </c>
+      <c r="AW138" s="14">
+        <v>132</v>
+      </c>
+      <c r="AX138" s="14">
+        <v>98</v>
+      </c>
+      <c r="AY138" s="14">
+        <v>34</v>
+      </c>
+      <c r="AZ138" s="14">
+        <v>219</v>
+      </c>
+      <c r="BA138" s="14">
+        <v>54</v>
+      </c>
+      <c r="BB138" s="14">
+        <v>57</v>
+      </c>
+      <c r="BC138" s="14">
+        <v>283</v>
+      </c>
+      <c r="BD138" s="14">
+        <v>48</v>
+      </c>
+      <c r="BE138" s="14">
+        <v>276</v>
+      </c>
+      <c r="BF138" s="14">
+        <v>145</v>
+      </c>
+      <c r="BG138" s="14">
+        <v>144</v>
+      </c>
+      <c r="BH138" s="14">
+        <v>178</v>
+      </c>
+      <c r="BI138" s="14">
+        <v>220</v>
+      </c>
+      <c r="BJ138" s="14">
+        <v>213</v>
+      </c>
+      <c r="BK138" s="14">
+        <v>103</v>
+      </c>
+      <c r="BL138" s="14">
+        <v>215</v>
+      </c>
+      <c r="BM138" s="14">
+        <v>84</v>
+      </c>
+      <c r="BN138" s="14">
+        <v>86</v>
+      </c>
+      <c r="BO138" s="14">
+        <v>83</v>
+      </c>
+      <c r="BP138" s="14">
+        <v>47</v>
+      </c>
+      <c r="BQ138" s="14">
+        <v>170</v>
+      </c>
+      <c r="BR138" s="14">
+        <v>280</v>
+      </c>
+      <c r="BS138" s="14">
+        <v>208</v>
+      </c>
+      <c r="BT138" s="14">
+        <v>209</v>
+      </c>
+      <c r="BU138" s="14">
+        <v>279</v>
+      </c>
+      <c r="BV138" s="14">
+        <v>278</v>
+      </c>
+      <c r="BW138" s="14">
+        <v>93</v>
+      </c>
+      <c r="BX138" s="14">
+        <v>19</v>
+      </c>
+      <c r="BY138" s="14">
+        <v>56</v>
+      </c>
+      <c r="BZ138" s="14">
+        <v>253</v>
+      </c>
+      <c r="CA138" s="14">
+        <v>246</v>
+      </c>
+      <c r="CB138" s="14">
+        <v>80</v>
+      </c>
+      <c r="CC138" s="14">
+        <v>36</v>
+      </c>
+      <c r="CD138" s="14">
+        <v>23</v>
+      </c>
+      <c r="CE138" s="14">
+        <v>78</v>
+      </c>
+      <c r="CF138" s="14">
+        <v>42</v>
+      </c>
+      <c r="CG138" s="14">
+        <v>41</v>
+      </c>
+      <c r="CH138" s="14">
+        <v>1</v>
+      </c>
+      <c r="CI138" s="14">
+        <v>30</v>
+      </c>
+      <c r="CJ138" s="14">
+        <v>228</v>
+      </c>
+      <c r="CK138" s="14">
+        <v>229</v>
+      </c>
+      <c r="CL138" s="14">
+        <v>231</v>
+      </c>
+      <c r="CM138" s="14">
+        <v>230</v>
+      </c>
+      <c r="CN138" s="14">
+        <v>234</v>
+      </c>
+      <c r="CO138" s="14">
+        <v>232</v>
+      </c>
+      <c r="CP138" s="14">
+        <v>233</v>
+      </c>
+      <c r="CQ138" s="14">
+        <v>109</v>
+      </c>
+      <c r="CR138" s="14">
+        <v>107</v>
+      </c>
+      <c r="CS138" s="14">
+        <v>115</v>
+      </c>
+      <c r="CT138" s="14">
+        <v>90</v>
+      </c>
+      <c r="CU138" s="14">
+        <v>111</v>
+      </c>
+      <c r="CV138" s="14">
+        <v>113</v>
+      </c>
+      <c r="CW138" s="14">
+        <v>218</v>
+      </c>
+      <c r="CX138" s="14">
+        <v>6</v>
+      </c>
+      <c r="CY138" s="14">
+        <v>226</v>
+      </c>
+      <c r="CZ138" s="14">
+        <v>5</v>
+      </c>
+      <c r="DA138" s="14">
+        <v>137</v>
+      </c>
+      <c r="DB138" s="14">
+        <v>176</v>
+      </c>
+      <c r="DC138" s="14">
+        <v>64</v>
+      </c>
+      <c r="DD138" s="14">
+        <v>81</v>
+      </c>
+      <c r="DE138" s="14">
+        <v>127</v>
+      </c>
+      <c r="DF138" s="14">
+        <v>216</v>
+      </c>
+      <c r="DG138" s="14">
+        <v>217</v>
+      </c>
+      <c r="DH138" s="14">
+        <v>172</v>
+      </c>
+      <c r="DI138" s="14">
+        <v>174</v>
+      </c>
+      <c r="DJ138" s="14">
+        <v>274</v>
+      </c>
+      <c r="DK138" s="14">
+        <v>140</v>
+      </c>
+      <c r="DL138" s="14">
+        <v>97</v>
+      </c>
+      <c r="DM138" s="14">
+        <v>26</v>
+      </c>
+      <c r="DN138" s="14">
+        <v>277</v>
+      </c>
+      <c r="DO138" s="14">
+        <v>251</v>
+      </c>
+      <c r="DP138" s="14">
+        <v>275</v>
+      </c>
+      <c r="DQ138" s="14">
+        <v>141</v>
+      </c>
+      <c r="DR138" s="14">
+        <v>180</v>
+      </c>
+      <c r="DS138" s="14">
+        <v>203</v>
+      </c>
+      <c r="DT138" s="14">
+        <v>169</v>
+      </c>
+      <c r="DU138" s="14">
+        <v>38</v>
+      </c>
+      <c r="DV138" s="14">
+        <v>22</v>
+      </c>
+      <c r="DW138" s="14">
+        <v>15</v>
+      </c>
+      <c r="DX138" s="14">
+        <v>254</v>
+      </c>
+      <c r="DY138" s="14">
+        <v>82</v>
+      </c>
+      <c r="DZ138" s="14">
+        <v>285</v>
+      </c>
+      <c r="EA138" s="14">
+        <v>286</v>
+      </c>
+      <c r="EB138" s="14">
+        <v>284</v>
+      </c>
+      <c r="EC138" s="14">
+        <v>287</v>
+      </c>
+      <c r="ED138" s="14">
+        <v>281</v>
+      </c>
+      <c r="EE138" s="14">
+        <v>40</v>
+      </c>
+      <c r="EF138" s="14">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://api.paymentwall.com/admin/payment-systems?sort%5bfield%5d=ps_name&amp;sort%5border%5d=asc&amp;search%5Bps_active%5D=1" xr:uid="{45E28F9B-5E8C-44ED-B754-3AF5CBF0C6C8}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=91" xr:uid="{6ECB3A7B-E405-4137-BD12-040559B7D468}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=129" xr:uid="{B2BDADDA-A5E5-4BB4-84FE-107EA62E204C}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=190" xr:uid="{68764566-3039-4B21-9328-2822A9E8BF20}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=189" xr:uid="{AF6AD04A-2F8E-4072-B24F-72DDB922954C}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=248" xr:uid="{9AA43FA7-F7DE-423F-8171-24A2E35C7A4F}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=188" xr:uid="{72CF93BF-BABA-46DD-88BB-06ABA05027CA}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=182" xr:uid="{A33BD944-6EAD-4B2A-9A43-076F8AF2CB16}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=239" xr:uid="{79E0AB33-2153-44E6-BB00-3D81CA1A5B4E}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=238" xr:uid="{B5B0CE0A-CBE2-4335-AB2C-567F366FB465}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=193" xr:uid="{C421ADBB-3BB8-4612-9319-9226E38A1E51}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=236" xr:uid="{711E554D-B379-4BE3-AF2A-15E6629BE460}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=237" xr:uid="{37BF85BF-AD50-486C-BC6D-2E47A67CA6DD}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=198" xr:uid="{62E1DBCB-41E2-4B1F-84D1-F66A09D27094}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=199" xr:uid="{900BDA53-412C-49C4-90D1-F9FE5212A888}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=191" xr:uid="{BDD61A98-F315-40FE-B669-FD3501598776}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=183" xr:uid="{FAD3FC8A-D185-412B-B9E1-C2B42C58B76F}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=61" xr:uid="{0EFB2760-A35B-4A81-AED6-6EF14E9EC5FE}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=24" xr:uid="{E8D93416-17F2-4115-AC38-8699D53DA08F}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=17" xr:uid="{1325C865-3FD6-42F3-9FE7-0F22FF77C8E5}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=167" xr:uid="{CBC52B30-AC59-4A8C-8019-2734FD45F092}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=272" xr:uid="{13C5C3E9-E31C-4679-9CED-C43597455E68}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=130" xr:uid="{A46FCC6D-EEAC-4221-A4BF-2C8219987CAD}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=160" xr:uid="{CC4DE78C-62EE-4AD0-A189-0EFE3FB70F1F}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=128" xr:uid="{408F1E8F-EE75-4B8E-86EE-D0DEF764B922}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=139" xr:uid="{22F3347C-B066-459C-B63A-F4961A08F564}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=242" xr:uid="{687A8407-E2C5-427E-9795-3916ED078B71}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=241" xr:uid="{D8F6EEDB-88E4-4EEC-88DA-A1FE31E3459E}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=243" xr:uid="{A8930122-6578-4B0E-8602-5EDA8237777B}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=88" xr:uid="{1591B36A-9211-4CFA-B435-841FBBC19FBC}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=120" xr:uid="{FB500DBC-4CA3-44BF-8BB6-8F408803B0B0}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=122" xr:uid="{B8EF8FB5-03DD-4B73-B0CA-A320A7DB98E8}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=123" xr:uid="{2C5D1ED6-2E82-4DE6-97D7-20B4A94EDBD8}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=117" xr:uid="{B5CC91C5-C1E9-4E4E-9791-9CFD5440D6D2}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=121" xr:uid="{ABED8A4B-0ECF-42C8-89BC-9E33932C3230}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=124" xr:uid="{FE86FBC0-3EDF-4D8D-8B1E-C4A3C8334C1A}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=55" xr:uid="{4AEC3AA7-491C-4D6A-B881-045DFCAE5FF3}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=101" xr:uid="{0B873056-5322-4D23-9B3A-ECC010A3A8EB}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=200" xr:uid="{0E8B097E-9AC6-4FA1-9663-086B203BE2E8}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=201" xr:uid="{D4EF7F2C-E24F-4E61-8174-D8B4C6843263}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=224" xr:uid="{4866E243-E0BB-4AC2-A711-22891E343CC1}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=222" xr:uid="{4C7BA722-19CA-41D8-AACF-78CB194B33AC}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=223" xr:uid="{195DD86D-50F0-4F47-B6A6-0106E7FDB386}"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=221" xr:uid="{EB46EB63-8CF7-4207-98FB-49AD45854E3A}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=166" xr:uid="{6420A4CD-F189-4E64-91AC-DB06F0654414}"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=46" xr:uid="{9D837543-D6BB-4CE9-A2F5-CA536063CD67}"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=45" xr:uid="{39653E11-9DC9-4662-89AC-4323E5F408A9}"/>
-    <hyperlink ref="A48" r:id="rId48" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=157" xr:uid="{4B2C306C-FACF-4B9E-8B31-7F08B46025D2}"/>
-    <hyperlink ref="A49" r:id="rId49" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=132" xr:uid="{6B6A2306-DAC1-4A2E-8B0A-2BC0467E1AB8}"/>
-    <hyperlink ref="A50" r:id="rId50" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=98" xr:uid="{692B58A9-E854-4251-A65C-388B7F31C47E}"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=34" xr:uid="{106D5695-8206-4397-B54A-2A1F0C18F22B}"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=219" xr:uid="{4B759696-BBF5-4C37-95C3-90120883E28D}"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=54" xr:uid="{E12663FC-28AF-4D4D-9116-F8BBAF6E1C8B}"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=57" xr:uid="{C2CD1AB0-D65F-4E8F-8F00-7BA4E18FA4E2}"/>
-    <hyperlink ref="A55" r:id="rId55" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=283" xr:uid="{294D96A6-A77F-4E7F-85F4-74B4A352E8C0}"/>
-    <hyperlink ref="A56" r:id="rId56" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=48" xr:uid="{1C2769F3-60F0-4BF9-BFF4-8A76A2DC0105}"/>
-    <hyperlink ref="A57" r:id="rId57" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=276" xr:uid="{87DDD414-7758-4DB1-A827-87DB358E9922}"/>
-    <hyperlink ref="A58" r:id="rId58" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=145" xr:uid="{876203AA-608F-41DA-9F73-3B569D6A359A}"/>
-    <hyperlink ref="A59" r:id="rId59" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=144" xr:uid="{17684E14-FB2B-4E6A-BC11-3879FBF2E40A}"/>
-    <hyperlink ref="A60" r:id="rId60" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=178" xr:uid="{F1A51EE9-2F3F-4931-9F79-691899476A3E}"/>
-    <hyperlink ref="A61" r:id="rId61" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=220" xr:uid="{837648CC-C13E-4255-8EEC-BAF3029FAD1C}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=213" xr:uid="{CDEBBD67-26D6-424F-83F8-4DBBAD7DF7F4}"/>
-    <hyperlink ref="A63" r:id="rId63" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=103" xr:uid="{EAFC981C-56E6-4274-94DF-97495EE6255D}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=215" xr:uid="{16403111-46D4-4478-B3C4-A6213A0CC055}"/>
-    <hyperlink ref="A65" r:id="rId65" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=84" xr:uid="{6DEF660C-39F8-4745-852F-298C4B40E1A3}"/>
-    <hyperlink ref="A66" r:id="rId66" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=86" xr:uid="{1320DD81-77A5-4695-B62F-F21C05A396E1}"/>
-    <hyperlink ref="A67" r:id="rId67" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=83" xr:uid="{DA65C9F8-3E1F-4C60-AA85-F0F574C18F9E}"/>
-    <hyperlink ref="A68" r:id="rId68" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=47" xr:uid="{3611CD94-71C8-436D-88FA-A180E88FA208}"/>
-    <hyperlink ref="A69" r:id="rId69" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=170" xr:uid="{DFF984B6-D6B1-40DB-9EAF-0B00463D36BA}"/>
-    <hyperlink ref="A70" r:id="rId70" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=280" xr:uid="{17C341FE-5170-4D4A-8B91-7942EDEA8160}"/>
-    <hyperlink ref="A71" r:id="rId71" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=208" xr:uid="{406C5A00-BC9E-4508-872E-81042BA66628}"/>
-    <hyperlink ref="A72" r:id="rId72" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=209" xr:uid="{D5C48F30-BDAF-418C-9B8B-BAAC1D711DFD}"/>
-    <hyperlink ref="A73" r:id="rId73" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=279" xr:uid="{6E79017A-62FB-41D9-AE7B-EB609F32FDBE}"/>
-    <hyperlink ref="A74" r:id="rId74" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=278" xr:uid="{2D378033-DAEF-47D9-BF75-A1263CB9C665}"/>
-    <hyperlink ref="A75" r:id="rId75" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=93" xr:uid="{10560EF1-0F64-43E7-BCFF-B6A52CFA2D1E}"/>
-    <hyperlink ref="A76" r:id="rId76" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=19" xr:uid="{4125E488-0711-4CF7-AB70-FBBD653C2C57}"/>
-    <hyperlink ref="A77" r:id="rId77" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=56" xr:uid="{D7C8BBD7-3B18-48AD-B493-C6E4E1C435C2}"/>
-    <hyperlink ref="A78" r:id="rId78" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=253" xr:uid="{62E70424-A4C0-48F0-9B55-6EB0C533FE9F}"/>
-    <hyperlink ref="A79" r:id="rId79" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=246" xr:uid="{8AA54861-548A-4004-AE62-394F56747D76}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=80" xr:uid="{2867C760-715B-4805-BCA7-968154BFECD6}"/>
-    <hyperlink ref="A81" r:id="rId81" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=36" xr:uid="{4B0F88F2-A6B8-4CA7-9746-553530A230FA}"/>
-    <hyperlink ref="A82" r:id="rId82" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=23" xr:uid="{1F84C084-14E4-47FE-8635-CAC2E223C332}"/>
-    <hyperlink ref="A83" r:id="rId83" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=78" xr:uid="{5DBEC47E-418B-4FC8-86F0-287074941FF1}"/>
-    <hyperlink ref="A84" r:id="rId84" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=42" xr:uid="{22EEE03E-1FEF-4C0D-AA21-5E90760118EE}"/>
-    <hyperlink ref="A85" r:id="rId85" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=41" xr:uid="{4DD05E0D-4A98-4D36-935E-717E8E284A0B}"/>
-    <hyperlink ref="A86" r:id="rId86" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=1" xr:uid="{7CA4E7E1-6338-41A2-932F-39842D4F7681}"/>
-    <hyperlink ref="A87" r:id="rId87" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=30" xr:uid="{B71A10D9-591E-4D32-8BF5-091397583122}"/>
-    <hyperlink ref="A88" r:id="rId88" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=228" xr:uid="{9C767FDF-DBA8-4230-BBD0-DECB08EF61AB}"/>
-    <hyperlink ref="A89" r:id="rId89" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=229" xr:uid="{CC561237-03C0-43B0-B702-C86A501004E4}"/>
-    <hyperlink ref="A90" r:id="rId90" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=231" xr:uid="{4A158920-2B59-4D8F-B10C-7E171A483DFE}"/>
-    <hyperlink ref="A91" r:id="rId91" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=230" xr:uid="{09BBD3F6-22DC-45B2-8596-D3843BDC3517}"/>
-    <hyperlink ref="A92" r:id="rId92" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=234" xr:uid="{6B15E3D1-72E6-4DA2-9599-C0D9858B1DA2}"/>
-    <hyperlink ref="A93" r:id="rId93" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=232" xr:uid="{883FD584-857A-491C-90B5-0EF58D0E9246}"/>
-    <hyperlink ref="A94" r:id="rId94" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=233" xr:uid="{BE330760-C5C0-462D-9500-DE38641506B8}"/>
-    <hyperlink ref="A95" r:id="rId95" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=109" xr:uid="{76B3CCF3-B9EE-4F00-AA69-CC3CC53C70BF}"/>
-    <hyperlink ref="A96" r:id="rId96" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=107" xr:uid="{3C099DF2-FB30-4940-A0BF-0AE76A9C48D4}"/>
-    <hyperlink ref="A97" r:id="rId97" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=115" xr:uid="{47DF3EFB-CDD1-444D-ACAF-793DB3A25903}"/>
-    <hyperlink ref="A98" r:id="rId98" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=90" xr:uid="{E1AD6CC6-E9B1-4B68-9336-9B899581C967}"/>
-    <hyperlink ref="A99" r:id="rId99" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=111" xr:uid="{72E497AC-8C97-469A-B755-DB80A47EFC0D}"/>
-    <hyperlink ref="A100" r:id="rId100" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=113" xr:uid="{A76E0659-01CD-4964-8FA3-9240E809326F}"/>
-    <hyperlink ref="A101" r:id="rId101" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=218" xr:uid="{4795141D-157E-40BB-B7D3-6AD2F940063D}"/>
-    <hyperlink ref="A102" r:id="rId102" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=6" xr:uid="{867C8C9D-46DD-42D5-A5BA-F6E8CE623CE6}"/>
-    <hyperlink ref="A103" r:id="rId103" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=226" xr:uid="{1A6DE6A2-10E9-49FE-9B3B-C4EE44A46867}"/>
-    <hyperlink ref="A104" r:id="rId104" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=5" xr:uid="{E66D9034-B22C-42C0-8B2A-4EF8E216F925}"/>
-    <hyperlink ref="A105" r:id="rId105" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=137" xr:uid="{E0886736-58B2-4EAE-B4A9-08A385CEB216}"/>
-    <hyperlink ref="A106" r:id="rId106" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=176" xr:uid="{3B6556BF-F8D8-4107-A070-EE2A799E7783}"/>
-    <hyperlink ref="A107" r:id="rId107" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=64" xr:uid="{76F2A0C4-E64B-4FF4-ACAD-E41CE56F3110}"/>
-    <hyperlink ref="A108" r:id="rId108" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=81" xr:uid="{C16F94A4-B71F-4DA2-92A3-7A1F5122D047}"/>
-    <hyperlink ref="A109" r:id="rId109" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=127" xr:uid="{D3C970F8-DF30-41A3-B719-D405E1F75A69}"/>
-    <hyperlink ref="A110" r:id="rId110" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=216" xr:uid="{0043BF47-AB9E-45EE-9AF4-387CE02F2A38}"/>
-    <hyperlink ref="A111" r:id="rId111" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=217" xr:uid="{B9A5FDD5-FD80-4681-8598-2C61F2045024}"/>
-    <hyperlink ref="A112" r:id="rId112" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=172" xr:uid="{34CC4645-A425-489C-8DBB-C05374BB17CA}"/>
-    <hyperlink ref="A113" r:id="rId113" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=174" xr:uid="{8203805D-250B-46D5-86D4-C148B4AABFD1}"/>
-    <hyperlink ref="A114" r:id="rId114" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=274" xr:uid="{DAA8D018-0E5F-4CA2-87DE-4977005A1708}"/>
-    <hyperlink ref="A115" r:id="rId115" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=140" xr:uid="{54923D6A-6B15-43F3-A3AD-A10E1639FE14}"/>
-    <hyperlink ref="A116" r:id="rId116" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=97" xr:uid="{79B35782-BE61-475E-8C03-9033D4DDB94A}"/>
-    <hyperlink ref="A117" r:id="rId117" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=26" xr:uid="{A67E457D-A4AF-4D6F-A40A-226A44D15130}"/>
-    <hyperlink ref="A118" r:id="rId118" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=277" xr:uid="{7480BD90-8542-4C3B-8293-C453AFAFEA0E}"/>
-    <hyperlink ref="A119" r:id="rId119" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=251" xr:uid="{E1D998F2-6180-4A8D-9008-264DBBD25417}"/>
-    <hyperlink ref="A120" r:id="rId120" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=275" xr:uid="{2F982178-8F0C-40F3-A1E1-CA93E6E181AA}"/>
-    <hyperlink ref="A121" r:id="rId121" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=141" xr:uid="{9480C944-EA8A-4CAE-8719-FAE13BED329F}"/>
-    <hyperlink ref="A122" r:id="rId122" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=180" xr:uid="{967FAD85-C2F3-4BB0-8E92-D2F44EBDBB0F}"/>
-    <hyperlink ref="A123" r:id="rId123" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=203" xr:uid="{394F97E0-5F99-4BDD-B455-985B36FAD9A1}"/>
-    <hyperlink ref="A124" r:id="rId124" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=169" xr:uid="{6A1F84C8-F3F8-430C-95B1-3C38B906E262}"/>
-    <hyperlink ref="A125" r:id="rId125" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=38" xr:uid="{C1DCA7FD-DF5E-4570-875E-DAC053ECB1BE}"/>
-    <hyperlink ref="A126" r:id="rId126" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=22" xr:uid="{69E6D1D7-EC65-482F-B71D-FA8277E1FC7A}"/>
-    <hyperlink ref="A127" r:id="rId127" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=15" xr:uid="{7FACD714-ACA4-461C-B1C5-2644DC1559A4}"/>
-    <hyperlink ref="A128" r:id="rId128" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=254" xr:uid="{B3717409-C9A0-4E17-AFDE-E2B067174A7D}"/>
-    <hyperlink ref="A129" r:id="rId129" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=82" xr:uid="{4D82A62C-7838-4127-9678-4DA0BF7F7749}"/>
-    <hyperlink ref="A130" r:id="rId130" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=285" xr:uid="{31D6E0EC-8D24-41E7-93B1-4D5C693FF9C6}"/>
-    <hyperlink ref="A131" r:id="rId131" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=286" xr:uid="{488862BE-A6D7-4BBA-A22E-8D65BC1068CE}"/>
-    <hyperlink ref="A132" r:id="rId132" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=284" xr:uid="{65FB7C71-28A0-44C6-930F-6C969ACA2B0D}"/>
-    <hyperlink ref="A133" r:id="rId133" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=287" xr:uid="{4097874A-17E4-49A8-9693-1074BAB1728B}"/>
-    <hyperlink ref="A134" r:id="rId134" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=281" xr:uid="{2F08FE93-EA71-4FC4-A5A6-7076B308BD8A}"/>
-    <hyperlink ref="A135" r:id="rId135" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=40" xr:uid="{85958547-BF9F-4A39-B34F-43E0C561D8AA}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://api.paymentwall.com/admin/payment-systems?sort%5bfield%5d=ps_name&amp;sort%5border%5d=asc&amp;search%5Bps_active%5D=1" xr:uid="{45E28F9B-5E8C-44ED-B754-3AF5CBF0C6C8}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=91" xr:uid="{6ECB3A7B-E405-4137-BD12-040559B7D468}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=129" xr:uid="{B2BDADDA-A5E5-4BB4-84FE-107EA62E204C}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=190" xr:uid="{68764566-3039-4B21-9328-2822A9E8BF20}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=189" xr:uid="{AF6AD04A-2F8E-4072-B24F-72DDB922954C}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=248" xr:uid="{9AA43FA7-F7DE-423F-8171-24A2E35C7A4F}"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=188" xr:uid="{72CF93BF-BABA-46DD-88BB-06ABA05027CA}"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=182" xr:uid="{A33BD944-6EAD-4B2A-9A43-076F8AF2CB16}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=239" xr:uid="{79E0AB33-2153-44E6-BB00-3D81CA1A5B4E}"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=238" xr:uid="{B5B0CE0A-CBE2-4335-AB2C-567F366FB465}"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=193" xr:uid="{C421ADBB-3BB8-4612-9319-9226E38A1E51}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=236" xr:uid="{711E554D-B379-4BE3-AF2A-15E6629BE460}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=237" xr:uid="{37BF85BF-AD50-486C-BC6D-2E47A67CA6DD}"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=198" xr:uid="{62E1DBCB-41E2-4B1F-84D1-F66A09D27094}"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=199" xr:uid="{900BDA53-412C-49C4-90D1-F9FE5212A888}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=191" xr:uid="{BDD61A98-F315-40FE-B669-FD3501598776}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=183" xr:uid="{FAD3FC8A-D185-412B-B9E1-C2B42C58B76F}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=61" xr:uid="{0EFB2760-A35B-4A81-AED6-6EF14E9EC5FE}"/>
+    <hyperlink ref="B19" r:id="rId19" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=24" xr:uid="{E8D93416-17F2-4115-AC38-8699D53DA08F}"/>
+    <hyperlink ref="B20" r:id="rId20" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=17" xr:uid="{1325C865-3FD6-42F3-9FE7-0F22FF77C8E5}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=167" xr:uid="{CBC52B30-AC59-4A8C-8019-2734FD45F092}"/>
+    <hyperlink ref="B22" r:id="rId22" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=272" xr:uid="{13C5C3E9-E31C-4679-9CED-C43597455E68}"/>
+    <hyperlink ref="B23" r:id="rId23" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=130" xr:uid="{A46FCC6D-EEAC-4221-A4BF-2C8219987CAD}"/>
+    <hyperlink ref="B24" r:id="rId24" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=160" xr:uid="{CC4DE78C-62EE-4AD0-A189-0EFE3FB70F1F}"/>
+    <hyperlink ref="B25" r:id="rId25" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=128" xr:uid="{408F1E8F-EE75-4B8E-86EE-D0DEF764B922}"/>
+    <hyperlink ref="B26" r:id="rId26" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=139" xr:uid="{22F3347C-B066-459C-B63A-F4961A08F564}"/>
+    <hyperlink ref="B27" r:id="rId27" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=242" xr:uid="{687A8407-E2C5-427E-9795-3916ED078B71}"/>
+    <hyperlink ref="B28" r:id="rId28" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=241" xr:uid="{D8F6EEDB-88E4-4EEC-88DA-A1FE31E3459E}"/>
+    <hyperlink ref="B29" r:id="rId29" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=243" xr:uid="{A8930122-6578-4B0E-8602-5EDA8237777B}"/>
+    <hyperlink ref="B30" r:id="rId30" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=88" xr:uid="{1591B36A-9211-4CFA-B435-841FBBC19FBC}"/>
+    <hyperlink ref="B31" r:id="rId31" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=120" xr:uid="{FB500DBC-4CA3-44BF-8BB6-8F408803B0B0}"/>
+    <hyperlink ref="B32" r:id="rId32" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=122" xr:uid="{B8EF8FB5-03DD-4B73-B0CA-A320A7DB98E8}"/>
+    <hyperlink ref="B33" r:id="rId33" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=123" xr:uid="{2C5D1ED6-2E82-4DE6-97D7-20B4A94EDBD8}"/>
+    <hyperlink ref="B34" r:id="rId34" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=117" xr:uid="{B5CC91C5-C1E9-4E4E-9791-9CFD5440D6D2}"/>
+    <hyperlink ref="B35" r:id="rId35" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=121" xr:uid="{ABED8A4B-0ECF-42C8-89BC-9E33932C3230}"/>
+    <hyperlink ref="B36" r:id="rId36" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=124" xr:uid="{FE86FBC0-3EDF-4D8D-8B1E-C4A3C8334C1A}"/>
+    <hyperlink ref="B37" r:id="rId37" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=55" xr:uid="{4AEC3AA7-491C-4D6A-B881-045DFCAE5FF3}"/>
+    <hyperlink ref="B38" r:id="rId38" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=101" xr:uid="{0B873056-5322-4D23-9B3A-ECC010A3A8EB}"/>
+    <hyperlink ref="B39" r:id="rId39" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=200" xr:uid="{0E8B097E-9AC6-4FA1-9663-086B203BE2E8}"/>
+    <hyperlink ref="B40" r:id="rId40" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=201" xr:uid="{D4EF7F2C-E24F-4E61-8174-D8B4C6843263}"/>
+    <hyperlink ref="B41" r:id="rId41" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=224" xr:uid="{4866E243-E0BB-4AC2-A711-22891E343CC1}"/>
+    <hyperlink ref="B42" r:id="rId42" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=222" xr:uid="{4C7BA722-19CA-41D8-AACF-78CB194B33AC}"/>
+    <hyperlink ref="B43" r:id="rId43" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=223" xr:uid="{195DD86D-50F0-4F47-B6A6-0106E7FDB386}"/>
+    <hyperlink ref="B44" r:id="rId44" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=221" xr:uid="{EB46EB63-8CF7-4207-98FB-49AD45854E3A}"/>
+    <hyperlink ref="B45" r:id="rId45" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=166" xr:uid="{6420A4CD-F189-4E64-91AC-DB06F0654414}"/>
+    <hyperlink ref="B46" r:id="rId46" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=46" xr:uid="{9D837543-D6BB-4CE9-A2F5-CA536063CD67}"/>
+    <hyperlink ref="B47" r:id="rId47" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=45" xr:uid="{39653E11-9DC9-4662-89AC-4323E5F408A9}"/>
+    <hyperlink ref="B48" r:id="rId48" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=157" xr:uid="{4B2C306C-FACF-4B9E-8B31-7F08B46025D2}"/>
+    <hyperlink ref="B49" r:id="rId49" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=132" xr:uid="{6B6A2306-DAC1-4A2E-8B0A-2BC0467E1AB8}"/>
+    <hyperlink ref="B50" r:id="rId50" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=98" xr:uid="{692B58A9-E854-4251-A65C-388B7F31C47E}"/>
+    <hyperlink ref="B51" r:id="rId51" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=34" xr:uid="{106D5695-8206-4397-B54A-2A1F0C18F22B}"/>
+    <hyperlink ref="B52" r:id="rId52" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=219" xr:uid="{4B759696-BBF5-4C37-95C3-90120883E28D}"/>
+    <hyperlink ref="B53" r:id="rId53" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=54" xr:uid="{E12663FC-28AF-4D4D-9116-F8BBAF6E1C8B}"/>
+    <hyperlink ref="B54" r:id="rId54" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=57" xr:uid="{C2CD1AB0-D65F-4E8F-8F00-7BA4E18FA4E2}"/>
+    <hyperlink ref="B55" r:id="rId55" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=283" xr:uid="{294D96A6-A77F-4E7F-85F4-74B4A352E8C0}"/>
+    <hyperlink ref="B56" r:id="rId56" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=48" xr:uid="{1C2769F3-60F0-4BF9-BFF4-8A76A2DC0105}"/>
+    <hyperlink ref="B57" r:id="rId57" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=276" xr:uid="{87DDD414-7758-4DB1-A827-87DB358E9922}"/>
+    <hyperlink ref="B58" r:id="rId58" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=145" xr:uid="{876203AA-608F-41DA-9F73-3B569D6A359A}"/>
+    <hyperlink ref="B59" r:id="rId59" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=144" xr:uid="{17684E14-FB2B-4E6A-BC11-3879FBF2E40A}"/>
+    <hyperlink ref="B60" r:id="rId60" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=178" xr:uid="{F1A51EE9-2F3F-4931-9F79-691899476A3E}"/>
+    <hyperlink ref="B61" r:id="rId61" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=220" xr:uid="{837648CC-C13E-4255-8EEC-BAF3029FAD1C}"/>
+    <hyperlink ref="B62" r:id="rId62" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=213" xr:uid="{CDEBBD67-26D6-424F-83F8-4DBBAD7DF7F4}"/>
+    <hyperlink ref="B63" r:id="rId63" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=103" xr:uid="{EAFC981C-56E6-4274-94DF-97495EE6255D}"/>
+    <hyperlink ref="B64" r:id="rId64" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=215" xr:uid="{16403111-46D4-4478-B3C4-A6213A0CC055}"/>
+    <hyperlink ref="B65" r:id="rId65" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=84" xr:uid="{6DEF660C-39F8-4745-852F-298C4B40E1A3}"/>
+    <hyperlink ref="B66" r:id="rId66" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=86" xr:uid="{1320DD81-77A5-4695-B62F-F21C05A396E1}"/>
+    <hyperlink ref="B67" r:id="rId67" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=83" xr:uid="{DA65C9F8-3E1F-4C60-AA85-F0F574C18F9E}"/>
+    <hyperlink ref="B68" r:id="rId68" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=47" xr:uid="{3611CD94-71C8-436D-88FA-A180E88FA208}"/>
+    <hyperlink ref="B69" r:id="rId69" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=170" xr:uid="{DFF984B6-D6B1-40DB-9EAF-0B00463D36BA}"/>
+    <hyperlink ref="B70" r:id="rId70" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=280" xr:uid="{17C341FE-5170-4D4A-8B91-7942EDEA8160}"/>
+    <hyperlink ref="B71" r:id="rId71" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=208" xr:uid="{406C5A00-BC9E-4508-872E-81042BA66628}"/>
+    <hyperlink ref="B72" r:id="rId72" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=209" xr:uid="{D5C48F30-BDAF-418C-9B8B-BAAC1D711DFD}"/>
+    <hyperlink ref="B73" r:id="rId73" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=279" xr:uid="{6E79017A-62FB-41D9-AE7B-EB609F32FDBE}"/>
+    <hyperlink ref="B74" r:id="rId74" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=278" xr:uid="{2D378033-DAEF-47D9-BF75-A1263CB9C665}"/>
+    <hyperlink ref="B75" r:id="rId75" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=93" xr:uid="{10560EF1-0F64-43E7-BCFF-B6A52CFA2D1E}"/>
+    <hyperlink ref="B76" r:id="rId76" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=19" xr:uid="{4125E488-0711-4CF7-AB70-FBBD653C2C57}"/>
+    <hyperlink ref="B77" r:id="rId77" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=56" xr:uid="{D7C8BBD7-3B18-48AD-B493-C6E4E1C435C2}"/>
+    <hyperlink ref="B78" r:id="rId78" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=253" xr:uid="{62E70424-A4C0-48F0-9B55-6EB0C533FE9F}"/>
+    <hyperlink ref="B79" r:id="rId79" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=246" xr:uid="{8AA54861-548A-4004-AE62-394F56747D76}"/>
+    <hyperlink ref="B80" r:id="rId80" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=80" xr:uid="{2867C760-715B-4805-BCA7-968154BFECD6}"/>
+    <hyperlink ref="B81" r:id="rId81" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=36" xr:uid="{4B0F88F2-A6B8-4CA7-9746-553530A230FA}"/>
+    <hyperlink ref="B82" r:id="rId82" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=23" xr:uid="{1F84C084-14E4-47FE-8635-CAC2E223C332}"/>
+    <hyperlink ref="B83" r:id="rId83" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=78" xr:uid="{5DBEC47E-418B-4FC8-86F0-287074941FF1}"/>
+    <hyperlink ref="B84" r:id="rId84" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=42" xr:uid="{22EEE03E-1FEF-4C0D-AA21-5E90760118EE}"/>
+    <hyperlink ref="B85" r:id="rId85" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=41" xr:uid="{4DD05E0D-4A98-4D36-935E-717E8E284A0B}"/>
+    <hyperlink ref="B86" r:id="rId86" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=1" xr:uid="{7CA4E7E1-6338-41A2-932F-39842D4F7681}"/>
+    <hyperlink ref="B87" r:id="rId87" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=30" xr:uid="{B71A10D9-591E-4D32-8BF5-091397583122}"/>
+    <hyperlink ref="B88" r:id="rId88" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=228" xr:uid="{9C767FDF-DBA8-4230-BBD0-DECB08EF61AB}"/>
+    <hyperlink ref="B89" r:id="rId89" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=229" xr:uid="{CC561237-03C0-43B0-B702-C86A501004E4}"/>
+    <hyperlink ref="B90" r:id="rId90" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=231" xr:uid="{4A158920-2B59-4D8F-B10C-7E171A483DFE}"/>
+    <hyperlink ref="B91" r:id="rId91" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=230" xr:uid="{09BBD3F6-22DC-45B2-8596-D3843BDC3517}"/>
+    <hyperlink ref="B92" r:id="rId92" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=234" xr:uid="{6B15E3D1-72E6-4DA2-9599-C0D9858B1DA2}"/>
+    <hyperlink ref="B93" r:id="rId93" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=232" xr:uid="{883FD584-857A-491C-90B5-0EF58D0E9246}"/>
+    <hyperlink ref="B94" r:id="rId94" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=233" xr:uid="{BE330760-C5C0-462D-9500-DE38641506B8}"/>
+    <hyperlink ref="B95" r:id="rId95" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=109" xr:uid="{76B3CCF3-B9EE-4F00-AA69-CC3CC53C70BF}"/>
+    <hyperlink ref="B96" r:id="rId96" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=107" xr:uid="{3C099DF2-FB30-4940-A0BF-0AE76A9C48D4}"/>
+    <hyperlink ref="B97" r:id="rId97" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=115" xr:uid="{47DF3EFB-CDD1-444D-ACAF-793DB3A25903}"/>
+    <hyperlink ref="B98" r:id="rId98" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=90" xr:uid="{E1AD6CC6-E9B1-4B68-9336-9B899581C967}"/>
+    <hyperlink ref="B99" r:id="rId99" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=111" xr:uid="{72E497AC-8C97-469A-B755-DB80A47EFC0D}"/>
+    <hyperlink ref="B100" r:id="rId100" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=113" xr:uid="{A76E0659-01CD-4964-8FA3-9240E809326F}"/>
+    <hyperlink ref="B101" r:id="rId101" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=218" xr:uid="{4795141D-157E-40BB-B7D3-6AD2F940063D}"/>
+    <hyperlink ref="B102" r:id="rId102" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=6" xr:uid="{867C8C9D-46DD-42D5-A5BA-F6E8CE623CE6}"/>
+    <hyperlink ref="B103" r:id="rId103" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=226" xr:uid="{1A6DE6A2-10E9-49FE-9B3B-C4EE44A46867}"/>
+    <hyperlink ref="B104" r:id="rId104" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=5" xr:uid="{E66D9034-B22C-42C0-8B2A-4EF8E216F925}"/>
+    <hyperlink ref="B105" r:id="rId105" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=137" xr:uid="{E0886736-58B2-4EAE-B4A9-08A385CEB216}"/>
+    <hyperlink ref="B106" r:id="rId106" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=176" xr:uid="{3B6556BF-F8D8-4107-A070-EE2A799E7783}"/>
+    <hyperlink ref="B107" r:id="rId107" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=64" xr:uid="{76F2A0C4-E64B-4FF4-ACAD-E41CE56F3110}"/>
+    <hyperlink ref="B108" r:id="rId108" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=81" xr:uid="{C16F94A4-B71F-4DA2-92A3-7A1F5122D047}"/>
+    <hyperlink ref="B109" r:id="rId109" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=127" xr:uid="{D3C970F8-DF30-41A3-B719-D405E1F75A69}"/>
+    <hyperlink ref="B110" r:id="rId110" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=216" xr:uid="{0043BF47-AB9E-45EE-9AF4-387CE02F2A38}"/>
+    <hyperlink ref="B111" r:id="rId111" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=217" xr:uid="{B9A5FDD5-FD80-4681-8598-2C61F2045024}"/>
+    <hyperlink ref="B112" r:id="rId112" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=172" xr:uid="{34CC4645-A425-489C-8DBB-C05374BB17CA}"/>
+    <hyperlink ref="B113" r:id="rId113" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=174" xr:uid="{8203805D-250B-46D5-86D4-C148B4AABFD1}"/>
+    <hyperlink ref="B114" r:id="rId114" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=274" xr:uid="{DAA8D018-0E5F-4CA2-87DE-4977005A1708}"/>
+    <hyperlink ref="B115" r:id="rId115" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=140" xr:uid="{54923D6A-6B15-43F3-A3AD-A10E1639FE14}"/>
+    <hyperlink ref="B116" r:id="rId116" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=97" xr:uid="{79B35782-BE61-475E-8C03-9033D4DDB94A}"/>
+    <hyperlink ref="B117" r:id="rId117" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=26" xr:uid="{A67E457D-A4AF-4D6F-A40A-226A44D15130}"/>
+    <hyperlink ref="B118" r:id="rId118" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=277" xr:uid="{7480BD90-8542-4C3B-8293-C453AFAFEA0E}"/>
+    <hyperlink ref="B119" r:id="rId119" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=251" xr:uid="{E1D998F2-6180-4A8D-9008-264DBBD25417}"/>
+    <hyperlink ref="B120" r:id="rId120" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=275" xr:uid="{2F982178-8F0C-40F3-A1E1-CA93E6E181AA}"/>
+    <hyperlink ref="B121" r:id="rId121" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=141" xr:uid="{9480C944-EA8A-4CAE-8719-FAE13BED329F}"/>
+    <hyperlink ref="B122" r:id="rId122" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=180" xr:uid="{967FAD85-C2F3-4BB0-8E92-D2F44EBDBB0F}"/>
+    <hyperlink ref="B123" r:id="rId123" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=203" xr:uid="{394F97E0-5F99-4BDD-B455-985B36FAD9A1}"/>
+    <hyperlink ref="B124" r:id="rId124" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=169" xr:uid="{6A1F84C8-F3F8-430C-95B1-3C38B906E262}"/>
+    <hyperlink ref="B125" r:id="rId125" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=38" xr:uid="{C1DCA7FD-DF5E-4570-875E-DAC053ECB1BE}"/>
+    <hyperlink ref="B126" r:id="rId126" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=22" xr:uid="{69E6D1D7-EC65-482F-B71D-FA8277E1FC7A}"/>
+    <hyperlink ref="B127" r:id="rId127" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=15" xr:uid="{7FACD714-ACA4-461C-B1C5-2644DC1559A4}"/>
+    <hyperlink ref="B128" r:id="rId128" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=254" xr:uid="{B3717409-C9A0-4E17-AFDE-E2B067174A7D}"/>
+    <hyperlink ref="B129" r:id="rId129" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=82" xr:uid="{4D82A62C-7838-4127-9678-4DA0BF7F7749}"/>
+    <hyperlink ref="B130" r:id="rId130" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=285" xr:uid="{31D6E0EC-8D24-41E7-93B1-4D5C693FF9C6}"/>
+    <hyperlink ref="B131" r:id="rId131" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=286" xr:uid="{488862BE-A6D7-4BBA-A22E-8D65BC1068CE}"/>
+    <hyperlink ref="B132" r:id="rId132" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=284" xr:uid="{65FB7C71-28A0-44C6-930F-6C969ACA2B0D}"/>
+    <hyperlink ref="B133" r:id="rId133" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=287" xr:uid="{4097874A-17E4-49A8-9693-1074BAB1728B}"/>
+    <hyperlink ref="B134" r:id="rId134" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=281" xr:uid="{2F08FE93-EA71-4FC4-A5A6-7076B308BD8A}"/>
+    <hyperlink ref="B135" r:id="rId135" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=40" xr:uid="{85958547-BF9F-4A39-B34F-43E0C561D8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId136"/>
@@ -20210,6 +21070,3104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04813E92-A1C4-473D-AE5F-5BD033A73BA1}">
+  <dimension ref="A1:F134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(B2,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Transferencia bancaria</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(A2,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>transferenciabancaria</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(B3,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(A3,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PagSeguro</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(A3,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>pagseguro</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>221</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(B4,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(A4,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx/Banco Itau</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(A4,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>itaubrazil</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>222</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(B5,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(A5,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx/Banco Bradesco</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(A5,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>bradescobrazil</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Gateway</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(A6,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>gateway</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>223</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(A7,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx/Banco do Brazil</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(A7,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>bancobrazil</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>224</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(A8,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx/Banco Banrisul</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(A8,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banrisulbrazil</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(B9,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(A9,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(A9,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>boletobancario</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>182</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(B10,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(A10,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Boleto</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(A10,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>boleto</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(B11,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(A11,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Test Method</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(A11,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dummy</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>166</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(B12,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(A12,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx/Bank Transfer</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(A12,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>ebanxtransfer</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>276</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(B13,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(A13,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>MercadoPago/Boleto</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(A13,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>boletobr</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(B14,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(A14,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>MercadoPago</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(A14,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>mercadopago</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>172</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(B15,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(A15,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Safetypay</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(A15,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>safetypay</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(B16,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(A16,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx CC</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(A16,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>ccbrazil</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>201</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(B17,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(A17,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx CC Hipercard</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(A17,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>ccbrazilhipercard</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>145</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(B18,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP(A18,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>MINT</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(A18,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>epinpaymentsystem</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>167</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(B19,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(A19,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Coinbase</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(A19,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>coinbasebitcoin</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>101</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(B20,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(A20,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>E-Prepag</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(A20,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>eprepag</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(B21,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP(A21,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Mobiamo</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(A21,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>mobilegateway</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(B22,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Brazil</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(A22,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PayPal</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(A22,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>paypal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>279</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(B23,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(A23,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Openbucks/MoneyGram</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(A23,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>moneygram</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(B24,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(A24,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PPRO/Multibanco</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(A24,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>multibanco</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>278</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(B25,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP(A25,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Openbucks/Walmart</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(A25,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>walmart</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(B26,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP(A26,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PPRO/EPS</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(A26,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>epspayments</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(B27,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E27" t="str">
+        <f>VLOOKUP(A27,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/Eggmoney</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(A27,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>eggmoney</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(B28,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E28" t="str">
+        <f>VLOOKUP(A28,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PPRO/Bank Transfer Finland</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(A28,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btfinland</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(B29,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E29" t="str">
+        <f>VLOOKUP(A29,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/Book Gift Voucher</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(A29,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>bookculture</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(B30,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E30" t="str">
+        <f>VLOOKUP(A30,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Paysafecard</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(A30,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>paysafecard</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>208</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(B31,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E31" t="str">
+        <f>VLOOKUP(A31,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Openbucks/CVS Pharmacy</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(A31,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>cvspharmacy</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>209</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(B32,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E32" t="str">
+        <f>VLOOKUP(A32,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Openbucks/Dollar General</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(A32,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dollargeneral</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>78</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(B33,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E33" t="str">
+        <f>VLOOKUP(A33,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/OnCash</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(A33,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>oncash</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>170</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(B34,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP(A34,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Openbucks</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(A34,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>openbucks</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>132</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(B35,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E35" t="str">
+        <f>VLOOKUP(A35,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>ToditoCash</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(A35,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>todito</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>174</v>
+      </c>
+      <c r="B36">
+        <v>132</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(B36,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E36" t="str">
+        <f>VLOOKUP(A36,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Safetypay/Efectivo</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(A36,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>safetypaycash</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>188</v>
+      </c>
+      <c r="B37">
+        <v>132</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(B37,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP(A37,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Bank Transfer Mexico</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(A37,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banktransfermexico</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>132</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(B38,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E38" t="str">
+        <f>VLOOKUP(A38,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ebanx/OXXO</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(A38,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>oxxomexico</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>189</v>
+      </c>
+      <c r="B39">
+        <v>132</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(B39,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E39" t="str">
+        <f>VLOOKUP(A39,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Bancomer Mexico</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(A39,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>bancomermexico</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>193</v>
+      </c>
+      <c r="B40">
+        <v>132</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(B40,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP(A40,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/OXXO</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(A40,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>oxxo</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>190</v>
+      </c>
+      <c r="B41">
+        <v>132</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(B41,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP(A41,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Banamex Mexico</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(A41,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banamexmexico</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>191</v>
+      </c>
+      <c r="B42">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(B42,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP(A42,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Santander Mexico</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(A42,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>santandermexico</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>129</v>
+      </c>
+      <c r="B43">
+        <v>132</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(B43,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP(A43,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Allopass Landline</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(A43,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>allopasslandline</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>280</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(B44,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP(A44,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Openbucks/Canada Post</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(A44,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>canadapost</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(B45,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="E45" t="e">
+        <f>VLOOKUP(A45,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" t="e">
+        <f>VLOOKUP(A45,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>97</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(B46,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="E46" t="str">
+        <f>VLOOKUP(A46,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Ticket Surf</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(A46,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>ticketsurf</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>83</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>17</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(B47,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="E47" t="str">
+        <f>VLOOKUP(A47,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>NeoSurf</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(A47,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>neosurf</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(B48,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Canada</v>
+      </c>
+      <c r="E48" t="str">
+        <f>VLOOKUP(A48,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Interac</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(A48,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>interac</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>120</v>
+      </c>
+      <c r="B49">
+        <v>164</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(B49,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E49" t="str">
+        <f>VLOOKUP(A49,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay/Bank Zachodni WBK</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(A49,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpaybzwbk</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>121</v>
+      </c>
+      <c r="B50">
+        <v>164</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(B50,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP(A50,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay/Pekao24 Przelew</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(A50,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpaypekao</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>122</v>
+      </c>
+      <c r="B51">
+        <v>164</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(B51,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP(A51,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay/ING Bank Slaski</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(A51,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpayingb</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>123</v>
+      </c>
+      <c r="B52">
+        <v>164</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(B52,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E52" t="str">
+        <f>VLOOKUP(A52,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay/Inteligo</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(A52,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpayinteligo</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>124</v>
+      </c>
+      <c r="B53">
+        <v>164</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(B53,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E53" t="str">
+        <f>VLOOKUP(A53,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay/Place z ING Bank Slaski</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(A53,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpayingbacc</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>81</v>
+      </c>
+      <c r="B54">
+        <v>164</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(B54,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E54" t="str">
+        <f>VLOOKUP(A54,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Przelewy24</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(A54,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>przelewy24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>88</v>
+      </c>
+      <c r="B55">
+        <v>164</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(B55,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E55" t="str">
+        <f>VLOOKUP(A55,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(A55,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpay</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>251</v>
+      </c>
+      <c r="B56">
+        <v>164</v>
+      </c>
+      <c r="C56">
+        <v>17</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(B56,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E56" t="str">
+        <f>VLOOKUP(A56,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Transferuj</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(A56,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btpoland</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>117</v>
+      </c>
+      <c r="B57">
+        <v>164</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(B57,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Poland</v>
+      </c>
+      <c r="E57" t="str">
+        <f>VLOOKUP(A57,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Dotpay/mTransfer</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP(A57,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dotpaymt</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>216</v>
+      </c>
+      <c r="B58">
+        <v>170</v>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(B58,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E58" t="str">
+        <f>VLOOKUP(A58,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Rapida/Evroset</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP(A58,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>evroset</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>217</v>
+      </c>
+      <c r="B59">
+        <v>170</v>
+      </c>
+      <c r="C59">
+        <v>17</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(B59,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP(A59,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Rapida/Svyasnoi</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(A59,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>svyasnoi</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>82</v>
+      </c>
+      <c r="B60">
+        <v>170</v>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(B60,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E60" t="str">
+        <f>VLOOKUP(A60,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Yandex Money</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(A60,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>yamoney</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>127</v>
+      </c>
+      <c r="B61">
+        <v>170</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(B61,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E61" t="str">
+        <f>VLOOKUP(A61,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Qiwi Wallet</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(A61,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>qiwiwallet</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>281</v>
+      </c>
+      <c r="B62">
+        <v>170</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(B62,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E62" t="str">
+        <f>VLOOKUP(A62,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Yandex/Yandex Money</v>
+      </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP(A62,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>yandexmoney</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>170</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(B63,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E63" t="str">
+        <f>VLOOKUP(A63,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>WebMoney</v>
+      </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP(A63,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>webmoney</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>284</v>
+      </c>
+      <c r="B64">
+        <v>170</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(B64,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E64" t="str">
+        <f>VLOOKUP(A64,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Yandex/Sberbank Online</v>
+      </c>
+      <c r="F64" t="str">
+        <f>VLOOKUP(A64,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>sberbankonline</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>285</v>
+      </c>
+      <c r="B65">
+        <v>170</v>
+      </c>
+      <c r="C65">
+        <v>17</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(B65,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E65" t="str">
+        <f>VLOOKUP(A65,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Yandex/Alfa Click</v>
+      </c>
+      <c r="F65" t="str">
+        <f>VLOOKUP(A65,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>alfaclickya</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>286</v>
+      </c>
+      <c r="B66">
+        <v>170</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(B66,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E66" t="str">
+        <f>VLOOKUP(A66,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Yandex/Cash</v>
+      </c>
+      <c r="F66" t="str">
+        <f>VLOOKUP(A66,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>yacash</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>287</v>
+      </c>
+      <c r="B67">
+        <v>170</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(B67,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Russia</v>
+      </c>
+      <c r="E67" t="str">
+        <f>VLOOKUP(A67,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Yandex/Tinkoff</v>
+      </c>
+      <c r="F67" t="str">
+        <f>VLOOKUP(A67,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>tinkoff</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>215</v>
+      </c>
+      <c r="B68">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(B68,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="E68" t="str">
+        <f>VLOOKUP(A68,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Mollie/Mistercash</v>
+      </c>
+      <c r="F68" t="str">
+        <f>VLOOKUP(A68,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>bancontact</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>289</v>
+      </c>
+      <c r="B69">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(B69,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="E69" t="e">
+        <f>VLOOKUP(A69,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" t="e">
+        <f>VLOOKUP(A69,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>220</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(B70,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="E70" t="str">
+        <f>VLOOKUP(A70,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Mollie/CBC</v>
+      </c>
+      <c r="F70" t="str">
+        <f>VLOOKUP(A70,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>cbc</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(B71,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="E71" t="str">
+        <f>VLOOKUP(A71,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PPRO/Mybank</v>
+      </c>
+      <c r="F71" t="str">
+        <f>VLOOKUP(A71,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>mybank</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>178</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(B72,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="E72" t="str">
+        <f>VLOOKUP(A72,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Mollie/Belfius</v>
+      </c>
+      <c r="F72" t="str">
+        <f>VLOOKUP(A72,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>belfius</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>103</v>
+      </c>
+      <c r="B73">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(B73,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="E73" t="str">
+        <f>VLOOKUP(A73,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Mollie/KBC</v>
+      </c>
+      <c r="F73" t="str">
+        <f>VLOOKUP(A73,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>kbc</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>239</v>
+      </c>
+      <c r="B74">
+        <v>45</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(B74,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E74" t="str">
+        <f>VLOOKUP(A74,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Davivienda</v>
+      </c>
+      <c r="F74" t="str">
+        <f>VLOOKUP(A74,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>davivienda</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>238</v>
+      </c>
+      <c r="B75">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(B75,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E75" t="str">
+        <f>VLOOKUP(A75,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Efecty</v>
+      </c>
+      <c r="F75" t="str">
+        <f>VLOOKUP(A75,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>efecty</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>45</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(B76,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E76" t="str">
+        <f>VLOOKUP(A76,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payvalida/Efecty</v>
+      </c>
+      <c r="F76" t="str">
+        <f>VLOOKUP(A76,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>efectycolombia</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>107</v>
+      </c>
+      <c r="B77">
+        <v>45</v>
+      </c>
+      <c r="C77">
+        <v>15</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(B77,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E77" t="str">
+        <f>VLOOKUP(A77,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payvalida/Bank Transfer Colombia</v>
+      </c>
+      <c r="F77" t="str">
+        <f>VLOOKUP(A77,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btcolombia</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>109</v>
+      </c>
+      <c r="B78">
+        <v>45</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(B78,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E78" t="str">
+        <f>VLOOKUP(A78,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payvalida/Baloto</v>
+      </c>
+      <c r="F78" t="str">
+        <f>VLOOKUP(A78,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>baloto</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>45</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(B79,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E79" t="str">
+        <f>VLOOKUP(A79,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payvalida/Gana</v>
+      </c>
+      <c r="F79" t="str">
+        <f>VLOOKUP(A79,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>gana</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>113</v>
+      </c>
+      <c r="B80">
+        <v>45</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(B80,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Colombia</v>
+      </c>
+      <c r="E80" t="str">
+        <f>VLOOKUP(A80,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payvalida/PSE</v>
+      </c>
+      <c r="F80" t="str">
+        <f>VLOOKUP(A80,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>pse</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>34</v>
+      </c>
+      <c r="B81">
+        <v>94</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(B81,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E81" t="str">
+        <f>VLOOKUP(A81,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>GudangVoucher</v>
+      </c>
+      <c r="F81" t="str">
+        <f>VLOOKUP(A81,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>gudangvoucher</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>38</v>
+      </c>
+      <c r="B82">
+        <v>94</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(B82,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E82" t="str">
+        <f>VLOOKUP(A82,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>WaveGame</v>
+      </c>
+      <c r="F82" t="str">
+        <f>VLOOKUP(A82,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>wavegame</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(B83,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E83" t="str">
+        <f>VLOOKUP(A83,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>zGold-MOLPoints</v>
+      </c>
+      <c r="F83" t="str">
+        <f>VLOOKUP(A83,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>mol</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>157</v>
+      </c>
+      <c r="B84">
+        <v>94</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(B84,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E84" t="str">
+        <f>VLOOKUP(A84,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Game-ON</v>
+      </c>
+      <c r="F84" t="str">
+        <f>VLOOKUP(A84,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>gameon</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>203</v>
+      </c>
+      <c r="B85">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(B85,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E85" t="str">
+        <f>VLOOKUP(A85,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Unipin Wallet</v>
+      </c>
+      <c r="F85" t="str">
+        <f>VLOOKUP(A85,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>unipinwallet</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>242</v>
+      </c>
+      <c r="B86">
+        <v>94</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(B86,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E86" t="str">
+        <f>VLOOKUP(A86,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Doku/ATM</v>
+      </c>
+      <c r="F86" t="str">
+        <f>VLOOKUP(A86,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>atmtransfer</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>94</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(B87,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E87" t="str">
+        <f>VLOOKUP(A87,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>CherryCredits</v>
+      </c>
+      <c r="F87" t="str">
+        <f>VLOOKUP(A87,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>cherrycredits</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>241</v>
+      </c>
+      <c r="B88">
+        <v>94</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(B88,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E88" t="str">
+        <f>VLOOKUP(A88,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Doku/Minimart</v>
+      </c>
+      <c r="F88" t="str">
+        <f>VLOOKUP(A88,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>minimart</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>243</v>
+      </c>
+      <c r="B89">
+        <v>94</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(B89,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E89" t="str">
+        <f>VLOOKUP(A89,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Doku/Wallet</v>
+      </c>
+      <c r="F89" t="str">
+        <f>VLOOKUP(A89,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dokuwallet</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>180</v>
+      </c>
+      <c r="B90">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(B90,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="E90" t="str">
+        <f>VLOOKUP(A90,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Unipin Express</v>
+      </c>
+      <c r="F90" t="str">
+        <f>VLOOKUP(A90,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>unipinexpress</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>226</v>
+      </c>
+      <c r="B91">
+        <v>76</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(B91,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Germany</v>
+      </c>
+      <c r="E91" t="str">
+        <f>VLOOKUP(A91,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PPRO/Direct Debit</v>
+      </c>
+      <c r="F91" t="str">
+        <f>VLOOKUP(A91,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>sepadirectdebit</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>76</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(B92,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Germany</v>
+      </c>
+      <c r="E92" t="str">
+        <f>VLOOKUP(A92,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Giropay</v>
+      </c>
+      <c r="F92" t="str">
+        <f>VLOOKUP(A92,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>giropay</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>288</v>
+      </c>
+      <c r="B93">
+        <v>76</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(B93,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Germany</v>
+      </c>
+      <c r="E93" t="e">
+        <f>VLOOKUP(A93,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
+        <f>VLOOKUP(A93,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>108</v>
+      </c>
+      <c r="C94">
+        <v>14</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(B94,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E94" t="str">
+        <f>VLOOKUP(A94,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/Happy Voucher</v>
+      </c>
+      <c r="F94" t="str">
+        <f>VLOOKUP(A94,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>happyvoucher</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>272</v>
+      </c>
+      <c r="B95">
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(B95,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E95" t="str">
+        <f>VLOOKUP(A95,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Culture Voucher</v>
+      </c>
+      <c r="F95" t="str">
+        <f>VLOOKUP(A95,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>culturevoucherkr</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>42</v>
+      </c>
+      <c r="B96">
+        <v>108</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(B96,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E96" t="str">
+        <f>VLOOKUP(A96,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/T-money</v>
+      </c>
+      <c r="F96" t="str">
+        <f>VLOOKUP(A96,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>tmoney</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>246</v>
+      </c>
+      <c r="B97">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97" t="str">
+        <f>VLOOKUP(B97,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E97" t="str">
+        <f>VLOOKUP(A97,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/Culture Voucher</v>
+      </c>
+      <c r="F97" t="str">
+        <f>VLOOKUP(A97,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>culturevoucher</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>274</v>
+      </c>
+      <c r="B98">
+        <v>108</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98" t="str">
+        <f>VLOOKUP(B98,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E98" t="str">
+        <f>VLOOKUP(A98,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Teencash</v>
+      </c>
+      <c r="F98" t="str">
+        <f>VLOOKUP(A98,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>teencashkr</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>108</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99" t="str">
+        <f>VLOOKUP(B99,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E99" t="str">
+        <f>VLOOKUP(A99,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/AllTheGate CC</v>
+      </c>
+      <c r="F99" t="str">
+        <f>VLOOKUP(A99,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>allthegate</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>23</v>
+      </c>
+      <c r="B100">
+        <v>108</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+      <c r="D100" t="str">
+        <f>VLOOKUP(B100,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E100" t="str">
+        <f>VLOOKUP(A100,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/KFTC Internet Banking</v>
+      </c>
+      <c r="F100" t="str">
+        <f>VLOOKUP(A100,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>kftc</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>41</v>
+      </c>
+      <c r="B101">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+      <c r="D101" t="str">
+        <f>VLOOKUP(B101,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Korea (Republic of)</v>
+      </c>
+      <c r="E101" t="str">
+        <f>VLOOKUP(A101,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payletter/TeenCash</v>
+      </c>
+      <c r="F101" t="str">
+        <f>VLOOKUP(A101,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>teencash</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>290</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>13</v>
+      </c>
+      <c r="D102" t="str">
+        <f>VLOOKUP(B102,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Austria</v>
+      </c>
+      <c r="E102" t="e">
+        <f>VLOOKUP(A102,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" t="e">
+        <f>VLOOKUP(A102,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>213</v>
+      </c>
+      <c r="B103">
+        <v>144</v>
+      </c>
+      <c r="C103">
+        <v>13</v>
+      </c>
+      <c r="D103" t="str">
+        <f>VLOOKUP(B103,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="E103" t="str">
+        <f>VLOOKUP(A103,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Mollie/Ideal</v>
+      </c>
+      <c r="F103" t="str">
+        <f>VLOOKUP(A103,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>idealnl</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>137</v>
+      </c>
+      <c r="B104">
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+      <c r="D104" t="str">
+        <f>VLOOKUP(B104,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Netherlands</v>
+      </c>
+      <c r="E104" t="str">
+        <f>VLOOKUP(A104,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>PPRO/iDeal</v>
+      </c>
+      <c r="F104" t="str">
+        <f>VLOOKUP(A104,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>idealpayments</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>124</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105" t="str">
+        <f>VLOOKUP(B105,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="E105" t="str">
+        <f>VLOOKUP(A105,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Webcash</v>
+      </c>
+      <c r="F105" t="str">
+        <f>VLOOKUP(A105,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>webcash</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>54</v>
+      </c>
+      <c r="B106">
+        <v>124</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106" t="str">
+        <f>VLOOKUP(B106,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="E106" t="str">
+        <f>VLOOKUP(A106,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>iPay88</v>
+      </c>
+      <c r="F106" t="str">
+        <f>VLOOKUP(A106,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>ipay88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>84</v>
+      </c>
+      <c r="B107">
+        <v>124</v>
+      </c>
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107" t="str">
+        <f>VLOOKUP(B107,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="E107" t="str">
+        <f>VLOOKUP(A107,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>myCard Card</v>
+      </c>
+      <c r="F107" t="str">
+        <f>VLOOKUP(A107,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>mycardcard</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>86</v>
+      </c>
+      <c r="B108">
+        <v>124</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108" t="str">
+        <f>VLOOKUP(B108,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="E108" t="str">
+        <f>VLOOKUP(A108,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>myCard Member Wallet</v>
+      </c>
+      <c r="F108" t="str">
+        <f>VLOOKUP(A108,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>mycardwallet</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>91</v>
+      </c>
+      <c r="B109">
+        <v>90</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109" t="str">
+        <f>VLOOKUP(B109,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Hong Kong</v>
+      </c>
+      <c r="E109" t="str">
+        <f>VLOOKUP(A109,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Alipay</v>
+      </c>
+      <c r="F109" t="str">
+        <f>VLOOKUP(A109,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>alipay</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>141</v>
+      </c>
+      <c r="B110">
+        <v>90</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110" t="str">
+        <f>VLOOKUP(B110,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Hong Kong</v>
+      </c>
+      <c r="E110" t="str">
+        <f>VLOOKUP(A110,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>UnionPay</v>
+      </c>
+      <c r="F110" t="str">
+        <f>VLOOKUP(A110,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>unionpay</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>231</v>
+      </c>
+      <c r="B111">
+        <v>118</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="D111" t="str">
+        <f>VLOOKUP(B111,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="E111" t="str">
+        <f>VLOOKUP(A111,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Paysera/Bank Transfer Lithuania</v>
+      </c>
+      <c r="F111" t="str">
+        <f>VLOOKUP(A111,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btlithuania</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>234</v>
+      </c>
+      <c r="B112">
+        <v>118</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112" t="str">
+        <f>VLOOKUP(B112,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Lithuania</v>
+      </c>
+      <c r="E112" t="str">
+        <f>VLOOKUP(A112,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Paysera/Narvesen</v>
+      </c>
+      <c r="F112" t="str">
+        <f>VLOOKUP(A112,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>narvesen</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>161</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113" t="str">
+        <f>VLOOKUP(B113,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Peru</v>
+      </c>
+      <c r="E113" t="str">
+        <f>VLOOKUP(A113,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Payvalida/Bank Transfer Peru</v>
+      </c>
+      <c r="F113" t="str">
+        <f>VLOOKUP(A113,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btperu</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>248</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="str">
+        <f>VLOOKUP(B114,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Argentina</v>
+      </c>
+      <c r="E114" t="str">
+        <f>VLOOKUP(A114,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Bank Transfer Argentina</v>
+      </c>
+      <c r="F114" t="str">
+        <f>VLOOKUP(A114,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banktransferargentina</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>237</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115" t="str">
+        <f>VLOOKUP(B115,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Argentina</v>
+      </c>
+      <c r="E115" t="str">
+        <f>VLOOKUP(A115,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/RapiPago</v>
+      </c>
+      <c r="F115" t="str">
+        <f>VLOOKUP(A115,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>rapipago</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>236</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116" t="str">
+        <f>VLOOKUP(B116,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Argentina</v>
+      </c>
+      <c r="E116" t="str">
+        <f>VLOOKUP(A116,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/PagoFacil</v>
+      </c>
+      <c r="F116" t="str">
+        <f>VLOOKUP(A116,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>pagofacil</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>254</v>
+      </c>
+      <c r="B117">
+        <v>44</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="str">
+        <f>VLOOKUP(B117,country!$A$2:$C$234,3,FALSE)</f>
+        <v>China</v>
+      </c>
+      <c r="E117" t="str">
+        <f>VLOOKUP(A117,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Wechat Pay</v>
+      </c>
+      <c r="F117" t="str">
+        <f>VLOOKUP(A117,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>wechatpayments</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>275</v>
+      </c>
+      <c r="B118">
+        <v>44</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118" t="str">
+        <f>VLOOKUP(B118,country!$A$2:$C$234,3,FALSE)</f>
+        <v>China</v>
+      </c>
+      <c r="E118" t="str">
+        <f>VLOOKUP(A118,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Umpay bank transfer</v>
+      </c>
+      <c r="F118" t="str">
+        <f>VLOOKUP(A118,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banktransfercn</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>160</v>
+      </c>
+      <c r="B119">
+        <v>102</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP(B119,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Japan</v>
+      </c>
+      <c r="E119" t="str">
+        <f>VLOOKUP(A119,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Degica/BitCash</v>
+      </c>
+      <c r="F119" t="str">
+        <f>VLOOKUP(A119,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>bitcash</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>130</v>
+      </c>
+      <c r="B120">
+        <v>102</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120" t="str">
+        <f>VLOOKUP(B120,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Japan</v>
+      </c>
+      <c r="E120" t="str">
+        <f>VLOOKUP(A120,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Degica/Bank Transfer Japan</v>
+      </c>
+      <c r="F120" t="str">
+        <f>VLOOKUP(A120,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banktransferjapan</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>128</v>
+      </c>
+      <c r="B121">
+        <v>102</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121" t="str">
+        <f>VLOOKUP(B121,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Japan</v>
+      </c>
+      <c r="E121" t="str">
+        <f>VLOOKUP(A121,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Degica/Konbini</v>
+      </c>
+      <c r="F121" t="str">
+        <f>VLOOKUP(A121,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>konbini</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>139</v>
+      </c>
+      <c r="B122">
+        <v>102</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122" t="str">
+        <f>VLOOKUP(B122,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Japan</v>
+      </c>
+      <c r="E122" t="str">
+        <f>VLOOKUP(A122,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Degica/PayEasy</v>
+      </c>
+      <c r="F122" t="str">
+        <f>VLOOKUP(A122,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>payeasy</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>229</v>
+      </c>
+      <c r="B123">
+        <v>112</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" t="str">
+        <f>VLOOKUP(B123,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Latvia</v>
+      </c>
+      <c r="E123" t="str">
+        <f>VLOOKUP(A123,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Paysera/Bank Transfer Latvia</v>
+      </c>
+      <c r="F123" t="str">
+        <f>VLOOKUP(A123,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btlatvia</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>45</v>
+      </c>
+      <c r="B124">
+        <v>215</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124" t="str">
+        <f>VLOOKUP(B124,country!$A$2:$C$234,3,FALSE)</f>
+        <v>United Kingdom</v>
+      </c>
+      <c r="E124" t="str">
+        <f>VLOOKUP(A124,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>FasterPay</v>
+      </c>
+      <c r="F124" t="str">
+        <f>VLOOKUP(A124,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>fasterpay</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>228</v>
+      </c>
+      <c r="B125">
+        <v>64</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="D125" t="str">
+        <f>VLOOKUP(B125,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Estonia</v>
+      </c>
+      <c r="E125" t="str">
+        <f>VLOOKUP(A125,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Paysera/Bank Transfer Estonia</v>
+      </c>
+      <c r="F125" t="str">
+        <f>VLOOKUP(A125,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>btestonia</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>282</v>
+      </c>
+      <c r="B126">
+        <v>93</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126" t="str">
+        <f>VLOOKUP(B126,country!$A$2:$C$234,3,FALSE)</f>
+        <v>India</v>
+      </c>
+      <c r="E126" t="e">
+        <f>VLOOKUP(A126,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F126" t="e">
+        <f>VLOOKUP(A126,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>47</v>
+      </c>
+      <c r="B127">
+        <v>138</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="D127" t="str">
+        <f>VLOOKUP(B127,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Morocco</v>
+      </c>
+      <c r="E127" t="str">
+        <f>VLOOKUP(A127,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Onecard</v>
+      </c>
+      <c r="F127" t="str">
+        <f>VLOOKUP(A127,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>onecard</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>283</v>
+      </c>
+      <c r="B128">
+        <v>201</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128" t="str">
+        <f>VLOOKUP(B128,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Thailand</v>
+      </c>
+      <c r="E128" t="str">
+        <f>VLOOKUP(A128,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Megapay / Bank transfer Thailand</v>
+      </c>
+      <c r="F128" t="str">
+        <f>VLOOKUP(A128,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>banktransferth</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>218</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129" t="str">
+        <f>VLOOKUP(B129,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Australia</v>
+      </c>
+      <c r="E129" t="str">
+        <f>VLOOKUP(A129,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Poli</v>
+      </c>
+      <c r="F129" t="str">
+        <f>VLOOKUP(A129,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>polipayments</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>198</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130" t="str">
+        <f>VLOOKUP(B130,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Chile</v>
+      </c>
+      <c r="E130" t="str">
+        <f>VLOOKUP(A130,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Redcompra</v>
+      </c>
+      <c r="F130" t="str">
+        <f>VLOOKUP(A130,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>redcompra</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>55</v>
+      </c>
+      <c r="B131">
+        <v>162</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131" t="str">
+        <f>VLOOKUP(B131,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Philippines</v>
+      </c>
+      <c r="E131" t="str">
+        <f>VLOOKUP(A131,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>DragonPay</v>
+      </c>
+      <c r="F131" t="str">
+        <f>VLOOKUP(A131,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>dragonpay</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>114</v>
+      </c>
+      <c r="B132">
+        <v>208</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132" t="str">
+        <f>VLOOKUP(B132,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Turkey</v>
+      </c>
+      <c r="E132" t="e">
+        <f>VLOOKUP(A132,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F132" t="e">
+        <f>VLOOKUP(A132,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>199</v>
+      </c>
+      <c r="B133">
+        <v>216</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133" t="str">
+        <f>VLOOKUP(B133,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Uruguay</v>
+      </c>
+      <c r="E133" t="str">
+        <f>VLOOKUP(A133,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>Astropay/Redpagos</v>
+      </c>
+      <c r="F133" t="str">
+        <f>VLOOKUP(A133,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>redpagos</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>169</v>
+      </c>
+      <c r="B134">
+        <v>220</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+      <c r="D134" t="str">
+        <f>VLOOKUP(B134,country!$A$2:$C$234,3,FALSE)</f>
+        <v>Vietnam</v>
+      </c>
+      <c r="E134" t="str">
+        <f>VLOOKUP(A134,shortcode!$A$2:$C$136,2,FALSE)</f>
+        <v>VTCPay</v>
+      </c>
+      <c r="F134" t="str">
+        <f>VLOOKUP(A134,shortcode!$A$2:$C$136,3,FALSE)</f>
+        <v>vtc</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279EA41E-7727-4698-8E10-FD63D59C9993}">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -20712,7 +24670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54868055-2891-4D8C-982C-E7BAC9788C35}">
   <dimension ref="A1:S12"/>
   <sheetViews>
@@ -20770,7 +24728,7 @@
       <c r="F2" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -20805,7 +24763,7 @@
       <c r="F3" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -20840,7 +24798,7 @@
       <c r="F4" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -20875,7 +24833,7 @@
       <c r="F5" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -20910,7 +24868,7 @@
       <c r="F6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -20945,7 +24903,7 @@
       <c r="F7" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -20980,7 +24938,7 @@
       <c r="F8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -21015,7 +24973,7 @@
       <c r="F9" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -21050,7 +25008,7 @@
       <c r="F10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -21085,7 +25043,7 @@
       <c r="F11" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FB345B-AA18-415C-B75E-889847AA63D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3845D789-91DB-4523-AB31-CBA336DAC835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1243">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -4009,7 +4009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4096,6 +4096,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4105,18 +4114,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4249,13 +4259,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4583,11 +4586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4620,10 +4623,10 @@
       <c r="F1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>1235</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1241</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -4659,10 +4662,10 @@
       <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="37">
         <v>99894</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>86844</v>
       </c>
       <c r="I2">
@@ -4700,10 +4703,10 @@
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="37">
         <v>99894</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>86844</v>
       </c>
       <c r="I3">
@@ -4741,10 +4744,10 @@
       <c r="F4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="37">
         <v>99894</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="37">
         <v>86844</v>
       </c>
       <c r="I4">
@@ -4782,10 +4785,10 @@
       <c r="F5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="37">
         <v>99894</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="37">
         <v>86844</v>
       </c>
       <c r="I5">
@@ -4823,10 +4826,10 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="37">
         <v>99894</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="37">
         <v>86844</v>
       </c>
       <c r="I6">
@@ -4864,10 +4867,10 @@
       <c r="F7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="37">
         <v>99894</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="37">
         <v>86844</v>
       </c>
       <c r="I7">
@@ -4905,10 +4908,10 @@
       <c r="F8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="37">
         <v>99894</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="37">
         <v>86844</v>
       </c>
       <c r="I8">
@@ -4946,10 +4949,10 @@
       <c r="F9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="37">
         <v>99894</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="37">
         <v>86844</v>
       </c>
       <c r="I9">
@@ -4987,10 +4990,10 @@
       <c r="F10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="37">
         <v>99894</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="37">
         <v>86844</v>
       </c>
       <c r="I10">
@@ -5028,10 +5031,10 @@
       <c r="F11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="37">
         <v>99894</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="37">
         <v>86844</v>
       </c>
       <c r="I11">
@@ -5069,10 +5072,10 @@
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="37">
         <v>99894</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="37">
         <v>86844</v>
       </c>
       <c r="I12">
@@ -5110,10 +5113,10 @@
       <c r="F13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="37">
         <v>99894</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="37">
         <v>86844</v>
       </c>
       <c r="I13">
@@ -5151,10 +5154,10 @@
       <c r="F14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="37">
         <v>99894</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="37">
         <v>86844</v>
       </c>
       <c r="I14">
@@ -5192,10 +5195,10 @@
       <c r="F15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="37">
         <v>99894</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="37">
         <v>86844</v>
       </c>
       <c r="I15">
@@ -5233,10 +5236,10 @@
       <c r="F16" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="37">
         <v>99894</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="37">
         <v>86844</v>
       </c>
       <c r="I16">
@@ -5274,10 +5277,10 @@
       <c r="F17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="37">
         <v>99894</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="37">
         <v>86844</v>
       </c>
       <c r="I17">
@@ -5315,10 +5318,10 @@
       <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="37">
         <v>99894</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="37">
         <v>86844</v>
       </c>
       <c r="I18">
@@ -5356,10 +5359,10 @@
       <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="37">
         <v>99894</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="37">
         <v>86844</v>
       </c>
       <c r="I19">
@@ -5397,10 +5400,10 @@
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="37">
         <v>99894</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="37">
         <v>86844</v>
       </c>
       <c r="I20">
@@ -5438,10 +5441,10 @@
       <c r="F21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="37">
         <v>99894</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="37">
         <v>86844</v>
       </c>
       <c r="I21">
@@ -5479,10 +5482,10 @@
       <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="37">
         <v>99894</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="37">
         <v>86844</v>
       </c>
       <c r="I22">
@@ -5520,10 +5523,10 @@
       <c r="F23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="37">
         <v>99894</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="37">
         <v>86844</v>
       </c>
       <c r="I23">
@@ -5561,10 +5564,10 @@
       <c r="F24" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="37">
         <v>99894</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="37">
         <v>86844</v>
       </c>
       <c r="I24">
@@ -5602,10 +5605,10 @@
       <c r="F25" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="37">
         <v>99894</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="37">
         <v>86844</v>
       </c>
       <c r="I25">
@@ -5643,10 +5646,10 @@
       <c r="F26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="37">
         <v>99894</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="37">
         <v>86844</v>
       </c>
       <c r="I26">
@@ -5684,10 +5687,10 @@
       <c r="F27" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="37">
         <v>99894</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="37">
         <v>86844</v>
       </c>
       <c r="I27">
@@ -5725,10 +5728,10 @@
       <c r="F28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="37">
         <v>99894</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="37">
         <v>86844</v>
       </c>
       <c r="I28">
@@ -5766,10 +5769,10 @@
       <c r="F29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="37">
         <v>99894</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="37">
         <v>86844</v>
       </c>
       <c r="I29">
@@ -5807,10 +5810,10 @@
       <c r="F30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="37">
         <v>99894</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="37">
         <v>86844</v>
       </c>
       <c r="I30">
@@ -5848,10 +5851,10 @@
       <c r="F31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="37">
         <v>99894</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="37">
         <v>86844</v>
       </c>
       <c r="I31">
@@ -5889,10 +5892,10 @@
       <c r="F32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="37">
         <v>99894</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="37">
         <v>86844</v>
       </c>
       <c r="I32">
@@ -5930,10 +5933,10 @@
       <c r="F33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="37">
         <v>99894</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="37">
         <v>86844</v>
       </c>
       <c r="I33">
@@ -5971,10 +5974,10 @@
       <c r="F34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="37">
         <v>99894</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="37">
         <v>86844</v>
       </c>
       <c r="I34">
@@ -6012,10 +6015,10 @@
       <c r="F35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="37">
         <v>99894</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="37">
         <v>86844</v>
       </c>
       <c r="I35">
@@ -6053,10 +6056,10 @@
       <c r="F36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="37">
         <v>99894</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="37">
         <v>86844</v>
       </c>
       <c r="I36">
@@ -6094,10 +6097,10 @@
       <c r="F37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="37">
         <v>99894</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="37">
         <v>86844</v>
       </c>
       <c r="I37">
@@ -6135,10 +6138,10 @@
       <c r="F38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="37">
         <v>99894</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="37">
         <v>86844</v>
       </c>
       <c r="I38">
@@ -6176,10 +6179,10 @@
       <c r="F39" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="37">
         <v>99894</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="37">
         <v>86844</v>
       </c>
       <c r="I39">
@@ -6217,10 +6220,10 @@
       <c r="F40" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="37">
         <v>99894</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="37">
         <v>86844</v>
       </c>
       <c r="I40">
@@ -6258,10 +6261,10 @@
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="37">
         <v>101696</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="37">
         <v>87983</v>
       </c>
       <c r="I41">
@@ -6299,10 +6302,10 @@
       <c r="F42" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="37">
         <v>101706</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="37">
         <v>87991</v>
       </c>
       <c r="I42">
@@ -6321,7 +6324,7 @@
     </row>
     <row r="43" spans="1:12" ht="16.5" thickBot="1">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>VLOOKUP(C43,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6339,10 +6342,10 @@
       <c r="F43" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="37">
         <v>101705</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="37">
         <v>87988</v>
       </c>
       <c r="I43">
@@ -6361,7 +6364,7 @@
     </row>
     <row r="44" spans="1:12" ht="32.25" thickBot="1">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>VLOOKUP(C44,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6379,10 +6382,10 @@
       <c r="F44" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="37">
         <v>99720</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="37">
         <v>86919</v>
       </c>
       <c r="I44">
@@ -6419,10 +6422,10 @@
       <c r="F45" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="37">
         <v>99894</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="37">
         <v>86844</v>
       </c>
       <c r="I45">
@@ -6460,10 +6463,10 @@
       <c r="F46" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="37">
         <v>99894</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="37">
         <v>86844</v>
       </c>
       <c r="I46">
@@ -6501,10 +6504,10 @@
       <c r="F47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="37">
         <v>99894</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="37">
         <v>86844</v>
       </c>
       <c r="I47">
@@ -6542,10 +6545,10 @@
       <c r="F48" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="37">
         <v>99894</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="37">
         <v>86844</v>
       </c>
       <c r="I48">
@@ -6583,10 +6586,10 @@
       <c r="F49" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="G49" s="40">
+      <c r="G49" s="37">
         <v>99894</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="37">
         <v>86844</v>
       </c>
       <c r="I49">
@@ -6623,10 +6626,10 @@
       <c r="F50" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="37">
         <v>99894</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="37">
         <v>86844</v>
       </c>
       <c r="I50">
@@ -6663,10 +6666,10 @@
       <c r="F51" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="37">
         <v>99894</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="37">
         <v>86844</v>
       </c>
       <c r="I51">
@@ -6703,10 +6706,10 @@
       <c r="F52" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="G52" s="40">
+      <c r="G52" s="37">
         <v>99894</v>
       </c>
-      <c r="H52" s="40">
+      <c r="H52" s="37">
         <v>86844</v>
       </c>
       <c r="I52">
@@ -6740,10 +6743,10 @@
       <c r="F53" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="37">
         <v>99894</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="37">
         <v>86844</v>
       </c>
       <c r="I53">
@@ -6777,10 +6780,10 @@
       <c r="F54" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="G54" s="40">
+      <c r="G54" s="37">
         <v>99894</v>
       </c>
-      <c r="H54" s="40">
+      <c r="H54" s="37">
         <v>86844</v>
       </c>
       <c r="I54">
@@ -6814,10 +6817,10 @@
       <c r="F55" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="G55" s="40">
+      <c r="G55" s="37">
         <v>99894</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="37">
         <v>86844</v>
       </c>
       <c r="I55">
@@ -6851,10 +6854,10 @@
       <c r="F56" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="37">
         <v>99894</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="37">
         <v>86844</v>
       </c>
       <c r="I56">
@@ -6888,10 +6891,10 @@
       <c r="F57" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="37">
         <v>99894</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="37">
         <v>86844</v>
       </c>
       <c r="I57">
@@ -6925,10 +6928,10 @@
       <c r="F58" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="G58" s="40">
+      <c r="G58" s="37">
         <v>99894</v>
       </c>
-      <c r="H58" s="40">
+      <c r="H58" s="37">
         <v>86844</v>
       </c>
       <c r="I58">
@@ -6962,10 +6965,10 @@
       <c r="F59" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="37">
         <v>99894</v>
       </c>
-      <c r="H59" s="40">
+      <c r="H59" s="37">
         <v>86844</v>
       </c>
       <c r="I59">
@@ -6999,10 +7002,10 @@
       <c r="F60" t="s">
         <v>367</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="37">
         <v>99894</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="37">
         <v>86844</v>
       </c>
       <c r="I60">
@@ -7036,10 +7039,10 @@
       <c r="F61" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G61" s="37">
         <v>99894</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H61" s="37">
         <v>86844</v>
       </c>
       <c r="I61">
@@ -7073,10 +7076,10 @@
       <c r="F62" t="s">
         <v>521</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G62" s="37">
         <v>99894</v>
       </c>
-      <c r="H62" s="40">
+      <c r="H62" s="37">
         <v>86844</v>
       </c>
       <c r="I62">
@@ -7086,12 +7089,12 @@
       <c r="J62" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="L62" s="3" t="str">
+      <c r="L62" s="38" t="str">
         <f>IF(ISNA(VLOOKUP(C62,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C62,logoName!$B$2:$D$39,3,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="16.5">
+    <row r="63" spans="1:12" ht="17.25" thickBot="1">
       <c r="A63">
         <v>0</v>
       </c>
@@ -7110,10 +7113,10 @@
       <c r="F63" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="G63" s="40">
+      <c r="G63" s="37">
         <v>99894</v>
       </c>
-      <c r="H63" s="40">
+      <c r="H63" s="37">
         <v>86844</v>
       </c>
       <c r="I63">
@@ -7122,8 +7125,12 @@
       <c r="J63" s="32" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="16.5">
+      <c r="L63" s="38" t="str">
+        <f>IF(ISNA(VLOOKUP(C63,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C63,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.25" thickBot="1">
       <c r="A64">
         <v>0</v>
       </c>
@@ -7142,10 +7149,10 @@
       <c r="F64" t="s">
         <v>223</v>
       </c>
-      <c r="G64" s="40">
+      <c r="G64" s="37">
         <v>99894</v>
       </c>
-      <c r="H64" s="40">
+      <c r="H64" s="37">
         <v>86844</v>
       </c>
       <c r="I64">
@@ -7154,8 +7161,45 @@
       <c r="J64" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="L64" t="s">
-        <v>482</v>
+      <c r="L64" s="38" t="str">
+        <f>IF(ISNA(VLOOKUP(C64,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C64,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v>landline</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" s="17">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="32">
+        <v>99894</v>
+      </c>
+      <c r="H65" s="32">
+        <v>86844</v>
+      </c>
+      <c r="I65">
+        <v>170</v>
+      </c>
+      <c r="J65" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="L65" s="38" t="str">
+        <f>IF(ISNA(VLOOKUP(C65,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C65,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7176,18 +7220,18 @@
   <conditionalFormatting sqref="J51:K51 J52:J53">
     <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L41 L45:L62">
-    <cfRule type="expression" dxfId="17" priority="26">
+  <conditionalFormatting sqref="L2:L41 L45:L65">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17813,59 +17857,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C74">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>COUNTIF($Q$3:$AD$3,B2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>COUNTIF($Q$3:$AD$3,B75)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>COUNTIF($Q$3:$AD$3,B76)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:C82">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>COUNTIF($Q$3:$AD$3,B77)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C82">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B82">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:C83">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>COUNTIF($Q$3:$AD$3,B83)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C74">
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B74">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17876,8 +17920,8 @@
   <dimension ref="A1:EF138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18269,7 +18313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <v>183</v>
       </c>
@@ -18293,7 +18337,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <v>61</v>
       </c>
@@ -18315,7 +18359,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <v>24</v>
       </c>
@@ -18337,7 +18381,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -18361,7 +18405,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>167</v>
       </c>
@@ -18382,8 +18426,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>272</v>
       </c>
@@ -18407,7 +18454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>130</v>
       </c>
@@ -18431,7 +18478,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>160</v>
       </c>
@@ -18455,7 +18502,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>128</v>
       </c>
@@ -18479,7 +18526,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>139</v>
       </c>
@@ -18501,7 +18548,7 @@
       </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1">
       <c r="A27" s="14">
         <v>242</v>
       </c>
@@ -18523,7 +18570,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="14">
         <v>241</v>
       </c>
@@ -18545,7 +18592,7 @@
       </c>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="14">
         <v>243</v>
       </c>
@@ -18569,7 +18616,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
       <c r="A30" s="14">
         <v>88</v>
       </c>
@@ -18593,7 +18640,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" s="14">
         <v>120</v>
       </c>
@@ -18617,7 +18664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="14">
         <v>122</v>
       </c>
@@ -21065,414 +21112,142 @@
     </row>
     <row r="137" spans="1:136" ht="15.75" thickBot="1"/>
     <row r="138" spans="1:136" ht="15.75" thickBot="1">
-      <c r="A138" s="14">
-        <v>190</v>
-      </c>
-      <c r="B138" s="14">
-        <v>91</v>
-      </c>
-      <c r="C138" s="14">
-        <v>129</v>
-      </c>
-      <c r="D138" s="14">
-        <v>190</v>
-      </c>
-      <c r="E138" s="14">
-        <v>189</v>
-      </c>
-      <c r="F138" s="14">
-        <v>248</v>
-      </c>
-      <c r="G138" s="14">
-        <v>188</v>
-      </c>
-      <c r="H138" s="14">
-        <v>182</v>
-      </c>
-      <c r="I138" s="14">
-        <v>239</v>
-      </c>
-      <c r="J138" s="14">
-        <v>238</v>
-      </c>
-      <c r="K138" s="14">
-        <v>193</v>
-      </c>
-      <c r="L138" s="14">
-        <v>236</v>
-      </c>
-      <c r="M138" s="14">
-        <v>237</v>
-      </c>
-      <c r="N138" s="14">
-        <v>198</v>
-      </c>
-      <c r="O138" s="14">
-        <v>199</v>
-      </c>
-      <c r="P138" s="14">
-        <v>191</v>
-      </c>
-      <c r="Q138" s="14">
-        <v>183</v>
-      </c>
-      <c r="R138" s="14">
-        <v>61</v>
-      </c>
-      <c r="S138" s="14">
-        <v>24</v>
-      </c>
-      <c r="T138" s="14">
-        <v>17</v>
-      </c>
-      <c r="U138" s="14">
-        <v>167</v>
-      </c>
-      <c r="V138" s="14">
-        <v>272</v>
-      </c>
-      <c r="W138" s="14">
-        <v>130</v>
-      </c>
-      <c r="X138" s="14">
-        <v>160</v>
-      </c>
-      <c r="Y138" s="14">
-        <v>128</v>
-      </c>
-      <c r="Z138" s="14">
-        <v>139</v>
-      </c>
-      <c r="AA138" s="14">
-        <v>242</v>
-      </c>
-      <c r="AB138" s="14">
-        <v>241</v>
-      </c>
-      <c r="AC138" s="14">
-        <v>243</v>
-      </c>
-      <c r="AD138" s="14">
-        <v>88</v>
-      </c>
-      <c r="AE138" s="14">
-        <v>120</v>
-      </c>
-      <c r="AF138" s="14">
-        <v>122</v>
-      </c>
-      <c r="AG138" s="14">
-        <v>123</v>
-      </c>
-      <c r="AH138" s="14">
-        <v>117</v>
-      </c>
-      <c r="AI138" s="14">
-        <v>121</v>
-      </c>
-      <c r="AJ138" s="14">
-        <v>124</v>
-      </c>
-      <c r="AK138" s="14">
-        <v>55</v>
-      </c>
-      <c r="AL138" s="14">
-        <v>101</v>
-      </c>
-      <c r="AM138" s="14">
-        <v>200</v>
-      </c>
-      <c r="AN138" s="14">
-        <v>201</v>
-      </c>
-      <c r="AO138" s="14">
-        <v>224</v>
-      </c>
-      <c r="AP138" s="14">
-        <v>222</v>
-      </c>
-      <c r="AQ138" s="14">
-        <v>223</v>
-      </c>
-      <c r="AR138" s="14">
-        <v>221</v>
-      </c>
-      <c r="AS138" s="14">
-        <v>166</v>
-      </c>
-      <c r="AT138" s="14">
-        <v>46</v>
-      </c>
-      <c r="AU138" s="14">
-        <v>45</v>
-      </c>
-      <c r="AV138" s="14">
-        <v>157</v>
-      </c>
-      <c r="AW138" s="14">
-        <v>132</v>
-      </c>
-      <c r="AX138" s="14">
-        <v>98</v>
-      </c>
-      <c r="AY138" s="14">
-        <v>34</v>
-      </c>
-      <c r="AZ138" s="14">
-        <v>219</v>
-      </c>
-      <c r="BA138" s="14">
-        <v>54</v>
-      </c>
-      <c r="BB138" s="14">
-        <v>57</v>
-      </c>
-      <c r="BC138" s="14">
-        <v>283</v>
-      </c>
-      <c r="BD138" s="14">
-        <v>48</v>
-      </c>
-      <c r="BE138" s="14">
-        <v>276</v>
-      </c>
-      <c r="BF138" s="14">
-        <v>145</v>
-      </c>
-      <c r="BG138" s="14">
-        <v>144</v>
-      </c>
-      <c r="BH138" s="14">
-        <v>178</v>
-      </c>
-      <c r="BI138" s="14">
-        <v>220</v>
-      </c>
-      <c r="BJ138" s="14">
-        <v>213</v>
-      </c>
-      <c r="BK138" s="14">
-        <v>103</v>
-      </c>
-      <c r="BL138" s="14">
-        <v>215</v>
-      </c>
-      <c r="BM138" s="14">
-        <v>84</v>
-      </c>
-      <c r="BN138" s="14">
-        <v>86</v>
-      </c>
-      <c r="BO138" s="14">
-        <v>83</v>
-      </c>
-      <c r="BP138" s="14">
-        <v>47</v>
-      </c>
-      <c r="BQ138" s="14">
-        <v>170</v>
-      </c>
-      <c r="BR138" s="14">
-        <v>280</v>
-      </c>
-      <c r="BS138" s="14">
-        <v>208</v>
-      </c>
-      <c r="BT138" s="14">
-        <v>209</v>
-      </c>
-      <c r="BU138" s="14">
-        <v>279</v>
-      </c>
-      <c r="BV138" s="14">
-        <v>278</v>
-      </c>
-      <c r="BW138" s="14">
-        <v>93</v>
-      </c>
-      <c r="BX138" s="14">
-        <v>19</v>
-      </c>
-      <c r="BY138" s="14">
-        <v>56</v>
-      </c>
-      <c r="BZ138" s="14">
-        <v>253</v>
-      </c>
-      <c r="CA138" s="14">
-        <v>246</v>
-      </c>
-      <c r="CB138" s="14">
-        <v>80</v>
-      </c>
-      <c r="CC138" s="14">
-        <v>36</v>
-      </c>
-      <c r="CD138" s="14">
-        <v>23</v>
-      </c>
-      <c r="CE138" s="14">
-        <v>78</v>
-      </c>
-      <c r="CF138" s="14">
-        <v>42</v>
-      </c>
-      <c r="CG138" s="14">
-        <v>41</v>
-      </c>
-      <c r="CH138" s="14">
-        <v>1</v>
-      </c>
-      <c r="CI138" s="14">
-        <v>30</v>
-      </c>
-      <c r="CJ138" s="14">
-        <v>228</v>
-      </c>
-      <c r="CK138" s="14">
-        <v>229</v>
-      </c>
-      <c r="CL138" s="14">
-        <v>231</v>
-      </c>
-      <c r="CM138" s="14">
-        <v>230</v>
-      </c>
-      <c r="CN138" s="14">
-        <v>234</v>
-      </c>
-      <c r="CO138" s="14">
-        <v>232</v>
-      </c>
-      <c r="CP138" s="14">
-        <v>233</v>
-      </c>
-      <c r="CQ138" s="14">
-        <v>109</v>
-      </c>
-      <c r="CR138" s="14">
-        <v>107</v>
-      </c>
-      <c r="CS138" s="14">
-        <v>115</v>
-      </c>
-      <c r="CT138" s="14">
-        <v>90</v>
-      </c>
-      <c r="CU138" s="14">
-        <v>111</v>
-      </c>
-      <c r="CV138" s="14">
-        <v>113</v>
-      </c>
-      <c r="CW138" s="14">
-        <v>218</v>
-      </c>
-      <c r="CX138" s="14">
-        <v>6</v>
-      </c>
-      <c r="CY138" s="14">
-        <v>226</v>
-      </c>
-      <c r="CZ138" s="14">
-        <v>5</v>
-      </c>
-      <c r="DA138" s="14">
-        <v>137</v>
-      </c>
-      <c r="DB138" s="14">
-        <v>176</v>
-      </c>
-      <c r="DC138" s="14">
-        <v>64</v>
-      </c>
-      <c r="DD138" s="14">
-        <v>81</v>
-      </c>
-      <c r="DE138" s="14">
-        <v>127</v>
-      </c>
-      <c r="DF138" s="14">
-        <v>216</v>
-      </c>
-      <c r="DG138" s="14">
-        <v>217</v>
-      </c>
-      <c r="DH138" s="14">
-        <v>172</v>
-      </c>
-      <c r="DI138" s="14">
-        <v>174</v>
-      </c>
-      <c r="DJ138" s="14">
-        <v>274</v>
-      </c>
-      <c r="DK138" s="14">
-        <v>140</v>
-      </c>
-      <c r="DL138" s="14">
-        <v>97</v>
-      </c>
-      <c r="DM138" s="14">
-        <v>26</v>
-      </c>
-      <c r="DN138" s="14">
-        <v>277</v>
-      </c>
-      <c r="DO138" s="14">
-        <v>251</v>
-      </c>
-      <c r="DP138" s="14">
-        <v>275</v>
-      </c>
-      <c r="DQ138" s="14">
-        <v>141</v>
-      </c>
-      <c r="DR138" s="14">
-        <v>180</v>
-      </c>
-      <c r="DS138" s="14">
-        <v>203</v>
-      </c>
-      <c r="DT138" s="14">
-        <v>169</v>
-      </c>
-      <c r="DU138" s="14">
-        <v>38</v>
-      </c>
-      <c r="DV138" s="14">
-        <v>22</v>
-      </c>
-      <c r="DW138" s="14">
-        <v>15</v>
-      </c>
-      <c r="DX138" s="14">
-        <v>254</v>
-      </c>
-      <c r="DY138" s="14">
-        <v>82</v>
-      </c>
-      <c r="DZ138" s="14">
-        <v>285</v>
-      </c>
-      <c r="EA138" s="14">
-        <v>286</v>
-      </c>
-      <c r="EB138" s="14">
-        <v>284</v>
-      </c>
-      <c r="EC138" s="14">
-        <v>287</v>
-      </c>
-      <c r="ED138" s="14">
-        <v>281</v>
-      </c>
-      <c r="EE138" s="14">
-        <v>40</v>
-      </c>
-      <c r="EF138" s="14">
-        <v>165</v>
-      </c>
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="14"/>
+      <c r="S138" s="14"/>
+      <c r="T138" s="14"/>
+      <c r="U138" s="14"/>
+      <c r="V138" s="14"/>
+      <c r="W138" s="14"/>
+      <c r="X138" s="14"/>
+      <c r="Y138" s="14"/>
+      <c r="Z138" s="14"/>
+      <c r="AA138" s="14"/>
+      <c r="AB138" s="14"/>
+      <c r="AC138" s="14"/>
+      <c r="AD138" s="14"/>
+      <c r="AE138" s="14"/>
+      <c r="AF138" s="14"/>
+      <c r="AG138" s="14"/>
+      <c r="AH138" s="14"/>
+      <c r="AI138" s="14"/>
+      <c r="AJ138" s="14"/>
+      <c r="AK138" s="14"/>
+      <c r="AL138" s="14"/>
+      <c r="AM138" s="14"/>
+      <c r="AN138" s="14"/>
+      <c r="AO138" s="14"/>
+      <c r="AP138" s="14"/>
+      <c r="AQ138" s="14"/>
+      <c r="AR138" s="14"/>
+      <c r="AS138" s="14"/>
+      <c r="AT138" s="14"/>
+      <c r="AU138" s="14"/>
+      <c r="AV138" s="14"/>
+      <c r="AW138" s="14"/>
+      <c r="AX138" s="14"/>
+      <c r="AY138" s="14"/>
+      <c r="AZ138" s="14"/>
+      <c r="BA138" s="14"/>
+      <c r="BB138" s="14"/>
+      <c r="BC138" s="14"/>
+      <c r="BD138" s="14"/>
+      <c r="BE138" s="14"/>
+      <c r="BF138" s="14"/>
+      <c r="BG138" s="14"/>
+      <c r="BH138" s="14"/>
+      <c r="BI138" s="14"/>
+      <c r="BJ138" s="14"/>
+      <c r="BK138" s="14"/>
+      <c r="BL138" s="14"/>
+      <c r="BM138" s="14"/>
+      <c r="BN138" s="14"/>
+      <c r="BO138" s="14"/>
+      <c r="BP138" s="14"/>
+      <c r="BQ138" s="14"/>
+      <c r="BR138" s="14"/>
+      <c r="BS138" s="14"/>
+      <c r="BT138" s="14"/>
+      <c r="BU138" s="14"/>
+      <c r="BV138" s="14"/>
+      <c r="BW138" s="14"/>
+      <c r="BX138" s="14"/>
+      <c r="BY138" s="14"/>
+      <c r="BZ138" s="14"/>
+      <c r="CA138" s="14"/>
+      <c r="CB138" s="14"/>
+      <c r="CC138" s="14"/>
+      <c r="CD138" s="14"/>
+      <c r="CE138" s="14"/>
+      <c r="CF138" s="14"/>
+      <c r="CG138" s="14"/>
+      <c r="CH138" s="14"/>
+      <c r="CI138" s="14"/>
+      <c r="CJ138" s="14"/>
+      <c r="CK138" s="14"/>
+      <c r="CL138" s="14"/>
+      <c r="CM138" s="14"/>
+      <c r="CN138" s="14"/>
+      <c r="CO138" s="14"/>
+      <c r="CP138" s="14"/>
+      <c r="CQ138" s="14"/>
+      <c r="CR138" s="14"/>
+      <c r="CS138" s="14"/>
+      <c r="CT138" s="14"/>
+      <c r="CU138" s="14"/>
+      <c r="CV138" s="14"/>
+      <c r="CW138" s="14"/>
+      <c r="CX138" s="14"/>
+      <c r="CY138" s="14"/>
+      <c r="CZ138" s="14"/>
+      <c r="DA138" s="14"/>
+      <c r="DB138" s="14"/>
+      <c r="DC138" s="14"/>
+      <c r="DD138" s="14"/>
+      <c r="DE138" s="14"/>
+      <c r="DF138" s="14"/>
+      <c r="DG138" s="14"/>
+      <c r="DH138" s="14"/>
+      <c r="DI138" s="14"/>
+      <c r="DJ138" s="14"/>
+      <c r="DK138" s="14"/>
+      <c r="DL138" s="14"/>
+      <c r="DM138" s="14"/>
+      <c r="DN138" s="14"/>
+      <c r="DO138" s="14"/>
+      <c r="DP138" s="14"/>
+      <c r="DQ138" s="14"/>
+      <c r="DR138" s="14"/>
+      <c r="DS138" s="14"/>
+      <c r="DT138" s="14"/>
+      <c r="DU138" s="14"/>
+      <c r="DV138" s="14"/>
+      <c r="DW138" s="14"/>
+      <c r="DX138" s="14"/>
+      <c r="DY138" s="14"/>
+      <c r="DZ138" s="14"/>
+      <c r="EA138" s="14"/>
+      <c r="EB138" s="14"/>
+      <c r="EC138" s="14"/>
+      <c r="ED138" s="14"/>
+      <c r="EE138" s="14"/>
+      <c r="EF138" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25276,7 +25051,7 @@
       <c r="F2" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -25311,7 +25086,7 @@
       <c r="F3" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -25346,7 +25121,7 @@
       <c r="F4" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -25381,7 +25156,7 @@
       <c r="F5" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -25416,7 +25191,7 @@
       <c r="F6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -25451,7 +25226,7 @@
       <c r="F7" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -25486,7 +25261,7 @@
       <c r="F8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -25521,7 +25296,7 @@
       <c r="F9" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -25556,7 +25331,7 @@
       <c r="F10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -25591,7 +25366,7 @@
       <c r="F11" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -25641,10 +25416,10 @@
       <c r="S12" s="28"/>
     </row>
     <row r="15" spans="1:19" ht="15.75">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3845D789-91DB-4523-AB31-CBA336DAC835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A106482-62B5-4576-AAFB-E23868918C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1283">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -3766,14 +3766,160 @@
     <t>d_id</t>
   </si>
   <si>
-    <t>gateway_amex_discover</t>
+    <t>We're sorry, but service is unavailable at this time</t>
+  </si>
+  <si>
+    <t>ACCOUNT CONNECTION</t>
+  </si>
+  <si>
+    <t>Need test account</t>
+  </si>
+  <si>
+    <t>Blank redirect page</t>
+  </si>
+  <si>
+    <t>staging.doku.com took too long to respond.</t>
+  </si>
+  <si>
+    <t>Transaction wasn't completed!</t>
+  </si>
+  <si>
+    <t>This CPF number seems not to be recorded in the Federal Revenue. Please verify or digitized number and try again</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>The requested URL /ws/directtefredirect/paymentwall.com was not found on this server.</t>
+  </si>
+  <si>
+    <t>Invalid requested parameters</t>
+  </si>
+  <si>
+    <r>
+      <t>exception:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> SOAP-ERROR: Parsing WSDL: Couldn't load from 'http://202.93.20.250:8001/Service.asmx?wsdl' : failed to load external entity "http://202.93.20.250:8001/Service.asmx?wsdl"</t>
+    </r>
+  </si>
+  <si>
+    <t>System error. Please try again in a few minutes or proceed with another payment option.</t>
+  </si>
+  <si>
+    <t>This project needs to be submitted for review.</t>
+  </si>
+  <si>
+    <t>Select your bank empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+One of the parts you are trying to pay with is a trial part.</t>
+  </si>
+  <si>
+    <t>You can't use test e-Pin to complete this purchase</t>
+  </si>
+  <si>
+    <t>pay.mollie.nl is currently unable to handle this request.</t>
+  </si>
+  <si>
+    <t>Sorry, a temporary card processing error has occurred. Please try again in a few minutes. Your gift card has NOT been charged.</t>
+  </si>
+  <si>
+    <t>test code is not working for develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The cache path /home/bamboo/www/wallapi/builds/develop/public/../tmp/browscap is invalid. Are you sure that it exists and that you have permission to access it?
+</t>
+  </si>
+  <si>
+    <t>Cannot perform encrypting</t>
+  </si>
+  <si>
+    <t>ps missing</t>
+  </si>
+  <si>
+    <t>error 500</t>
+  </si>
+  <si>
+    <t>paypal?</t>
+  </si>
+  <si>
+    <t>System error. Please try again in a few minutes or select another payment option to pay.</t>
+  </si>
+  <si>
+    <t>Request has been received from the URL address which is not assigned to the project!</t>
+  </si>
+  <si>
+    <r>
+      <t>testpayvalidaapp.payvalida.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>’s server IP address could not be found.</t>
+    </r>
+  </si>
+  <si>
+    <t>ps not display</t>
+  </si>
+  <si>
+    <t>Need test account (old test account not working)</t>
+  </si>
+  <si>
+    <t>need test account</t>
+  </si>
+  <si>
+    <t>Shortname parameter is missing or incorrect. Shortname must be string, max. 32 characters length and correspond to existing payment system.</t>
+  </si>
+  <si>
+    <t>General error. Don't re-try</t>
+  </si>
+  <si>
+    <t>empty redirect page</t>
+  </si>
+  <si>
+    <t>https://cashiermd.95516.com This site can’t be reached</t>
+  </si>
+  <si>
+    <t>return error with empty message</t>
+  </si>
+  <si>
+    <t>System Error, Please try again</t>
+  </si>
+  <si>
+    <t>Invalid hash key given.</t>
+  </si>
+  <si>
+    <t>Did not work out This seems to be a technical error. Try to pay again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General error. Don't re-try
+</t>
+  </si>
+  <si>
+    <t>Parameter {HeartBeat} submitted by merchant is invalid.</t>
+  </si>
+  <si>
+    <t>Payment failed, check payments details provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3858,6 +4004,81 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -4009,7 +4230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4105,6 +4326,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4114,12 +4341,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -4259,6 +4496,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4589,8 +4833,8 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6362,9 +6606,9 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="32.25" thickBot="1">
+    <row r="44" spans="1:12" ht="16.5" thickBot="1">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <f>VLOOKUP(C44,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6398,8 +6642,8 @@
       <c r="K44" t="s">
         <v>152</v>
       </c>
-      <c r="L44" s="34" t="s">
-        <v>1242</v>
+      <c r="L44" s="39" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" thickBot="1">
@@ -7168,7 +7412,7 @@
     </row>
     <row r="65" spans="1:12" ht="16.5" thickBot="1">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="17">
         <v>286</v>
@@ -7205,33 +7449,33 @@
   </sheetData>
   <autoFilter ref="A1:L51" xr:uid="{F4D50087-81CA-4121-AC19-488D7706F9F6}"/>
   <conditionalFormatting sqref="J50:K50 J52:J53">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>COUNTIF($S$3:$AF$3,J50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:K50">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:K51">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>COUNTIF($S$3:$AF$3,J51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:K51 J52:J53">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L41 L45:L65">
-    <cfRule type="expression" dxfId="0" priority="26">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17917,11 +18161,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44142A8A-AFDD-49DF-95F7-861634CDED16}">
-  <dimension ref="A1:EF138"/>
+  <dimension ref="A1:EH138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17929,9 +18173,11 @@
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>214</v>
       </c>
@@ -17954,8 +18200,18 @@
       <c r="H1" s="10" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I1" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="40" t="str">
+        <f>ROUND(COUNTIF(K2:K137,"done")/COUNTA(K2:K137),2)*100&amp;"%"</f>
+        <v>15%</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="14">
         <v>91</v>
       </c>
@@ -17978,8 +18234,17 @@
       <c r="H2" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I2" s="54">
+        <v>44</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="14">
         <v>129</v>
       </c>
@@ -18000,8 +18265,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I3" s="54">
+        <v>144</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="14">
         <v>190</v>
       </c>
@@ -18024,8 +18298,17 @@
       <c r="H4" s="11" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I4" s="54">
+        <v>132</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="14">
         <v>189</v>
       </c>
@@ -18048,8 +18331,13 @@
       <c r="H5" s="11" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>248</v>
       </c>
@@ -18072,8 +18360,13 @@
       <c r="H6" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>188</v>
       </c>
@@ -18096,8 +18389,13 @@
       <c r="H7" s="11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <v>182</v>
       </c>
@@ -18120,8 +18418,13 @@
       <c r="H8" s="11" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <v>239</v>
       </c>
@@ -18144,8 +18447,13 @@
       <c r="H9" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <v>238</v>
       </c>
@@ -18168,8 +18476,13 @@
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>193</v>
       </c>
@@ -18192,8 +18505,13 @@
       <c r="H11" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <v>236</v>
       </c>
@@ -18216,8 +18534,13 @@
       <c r="H12" s="11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <v>237</v>
       </c>
@@ -18240,8 +18563,13 @@
       <c r="H13" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>198</v>
       </c>
@@ -18264,8 +18592,13 @@
       <c r="H14" s="11" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <v>199</v>
       </c>
@@ -18288,8 +18621,13 @@
       <c r="H15" s="11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <v>191</v>
       </c>
@@ -18312,8 +18650,13 @@
       <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <v>183</v>
       </c>
@@ -18336,8 +18679,13 @@
       <c r="H17" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <v>61</v>
       </c>
@@ -18358,8 +18706,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="42" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <v>24</v>
       </c>
@@ -18380,8 +18733,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="42" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -18404,8 +18762,13 @@
       <c r="H20" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="40" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>167</v>
       </c>
@@ -18426,11 +18789,16 @@
         <v>1</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>272</v>
       </c>
@@ -18453,8 +18821,13 @@
       <c r="H22" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>130</v>
       </c>
@@ -18477,8 +18850,13 @@
       <c r="H23" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="41" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>160</v>
       </c>
@@ -18501,8 +18879,13 @@
       <c r="H24" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="41" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>128</v>
       </c>
@@ -18525,8 +18908,13 @@
       <c r="H25" s="11" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="41" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>139</v>
       </c>
@@ -18547,8 +18935,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="41" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="14">
         <v>242</v>
       </c>
@@ -18569,8 +18962,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="41" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="A28" s="14">
         <v>241</v>
       </c>
@@ -18591,8 +18989,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="41" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1">
       <c r="A29" s="14">
         <v>243</v>
       </c>
@@ -18615,8 +19018,13 @@
       <c r="H29" s="11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="41" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="14">
         <v>88</v>
       </c>
@@ -18639,8 +19047,13 @@
       <c r="H30" s="11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1">
       <c r="A31" s="14">
         <v>120</v>
       </c>
@@ -18663,8 +19076,13 @@
       <c r="H31" s="11" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1">
       <c r="A32" s="14">
         <v>122</v>
       </c>
@@ -18687,8 +19105,13 @@
       <c r="H32" s="11" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="A33" s="14">
         <v>123</v>
       </c>
@@ -18711,8 +19134,13 @@
       <c r="H33" s="11" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="A34" s="14">
         <v>117</v>
       </c>
@@ -18735,8 +19163,13 @@
       <c r="H34" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1">
       <c r="A35" s="14">
         <v>121</v>
       </c>
@@ -18759,8 +19192,13 @@
       <c r="H35" s="11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="14">
         <v>124</v>
       </c>
@@ -18783,8 +19221,13 @@
       <c r="H36" s="11" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="41" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1">
       <c r="A37" s="14">
         <v>55</v>
       </c>
@@ -18807,8 +19250,13 @@
       <c r="H37" s="11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="40" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="A38" s="14">
         <v>101</v>
       </c>
@@ -18831,8 +19279,13 @@
       <c r="H38" s="11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="40" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="14">
         <v>200</v>
       </c>
@@ -18855,8 +19308,13 @@
       <c r="H39" s="11" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1">
       <c r="A40" s="14">
         <v>201</v>
       </c>
@@ -18879,8 +19337,13 @@
       <c r="H40" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="14">
         <v>224</v>
       </c>
@@ -18903,8 +19366,13 @@
       <c r="H41" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1">
       <c r="A42" s="14">
         <v>222</v>
       </c>
@@ -18927,8 +19395,13 @@
       <c r="H42" s="11" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1">
       <c r="A43" s="14">
         <v>223</v>
       </c>
@@ -18951,8 +19424,13 @@
       <c r="H43" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1">
       <c r="A44" s="14">
         <v>221</v>
       </c>
@@ -18975,8 +19453,13 @@
       <c r="H44" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1">
       <c r="A45" s="14">
         <v>166</v>
       </c>
@@ -18999,8 +19482,13 @@
       <c r="H45" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="14">
         <v>46</v>
       </c>
@@ -19023,8 +19511,13 @@
       <c r="H46" s="11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -19045,8 +19538,13 @@
         <v>1</v>
       </c>
       <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="40" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1">
       <c r="A48" s="14">
         <v>157</v>
       </c>
@@ -19069,8 +19567,13 @@
       <c r="H48" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="47" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="14">
         <v>132</v>
       </c>
@@ -19091,8 +19594,13 @@
         <v>1</v>
       </c>
       <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="14">
         <v>98</v>
       </c>
@@ -19115,8 +19623,13 @@
       <c r="H50" s="11" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1">
       <c r="A51" s="14">
         <v>34</v>
       </c>
@@ -19139,8 +19652,13 @@
       <c r="H51" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1">
       <c r="A52" s="14">
         <v>219</v>
       </c>
@@ -19163,8 +19681,13 @@
       <c r="H52" s="11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="40" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1">
       <c r="A53" s="14">
         <v>54</v>
       </c>
@@ -19187,8 +19710,13 @@
       <c r="H53" s="11" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="40" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" thickBot="1">
       <c r="A54" s="14">
         <v>57</v>
       </c>
@@ -19209,8 +19737,13 @@
         <v>1</v>
       </c>
       <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1">
       <c r="A55" s="14">
         <v>283</v>
       </c>
@@ -19233,8 +19766,13 @@
       <c r="H55" s="11" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="40" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" thickBot="1">
       <c r="A56" s="14">
         <v>48</v>
       </c>
@@ -19257,8 +19795,13 @@
       <c r="H56" s="11" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="40" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" thickBot="1">
       <c r="A57" s="14">
         <v>276</v>
       </c>
@@ -19281,8 +19824,13 @@
       <c r="H57" s="11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" thickBot="1">
       <c r="A58" s="14">
         <v>145</v>
       </c>
@@ -19303,8 +19851,13 @@
         <v>1</v>
       </c>
       <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="40" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" thickBot="1">
       <c r="A59" s="14">
         <v>144</v>
       </c>
@@ -19325,8 +19878,10 @@
         <v>1</v>
       </c>
       <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" thickBot="1">
       <c r="A60" s="14">
         <v>178</v>
       </c>
@@ -19347,8 +19902,13 @@
         <v>1</v>
       </c>
       <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1">
       <c r="A61" s="14">
         <v>220</v>
       </c>
@@ -19369,8 +19929,13 @@
         <v>1</v>
       </c>
       <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="14">
         <v>213</v>
       </c>
@@ -19393,8 +19958,13 @@
       <c r="H62" s="11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="14">
         <v>103</v>
       </c>
@@ -19415,8 +19985,13 @@
         <v>1</v>
       </c>
       <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="40" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" thickBot="1">
       <c r="A64" s="14">
         <v>215</v>
       </c>
@@ -19439,8 +20014,13 @@
       <c r="H64" s="11" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="40" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1">
       <c r="A65" s="14">
         <v>84</v>
       </c>
@@ -19463,8 +20043,13 @@
       <c r="H65" s="11" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="40" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" thickBot="1">
       <c r="A66" s="14">
         <v>86</v>
       </c>
@@ -19487,8 +20072,13 @@
       <c r="H66" s="11" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="40" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="A67" s="14">
         <v>83</v>
       </c>
@@ -19511,8 +20101,13 @@
       <c r="H67" s="11" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="40" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" thickBot="1">
       <c r="A68" s="14">
         <v>47</v>
       </c>
@@ -19535,8 +20130,13 @@
       <c r="H68" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="40" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1">
       <c r="A69" s="14">
         <v>170</v>
       </c>
@@ -19559,8 +20159,13 @@
       <c r="H69" s="11" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" thickBot="1">
       <c r="A70" s="14">
         <v>280</v>
       </c>
@@ -19583,8 +20188,13 @@
       <c r="H70" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" thickBot="1">
       <c r="A71" s="14">
         <v>208</v>
       </c>
@@ -19607,8 +20217,13 @@
       <c r="H71" s="11" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1">
       <c r="A72" s="14">
         <v>209</v>
       </c>
@@ -19631,8 +20246,13 @@
       <c r="H72" s="11" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1">
       <c r="A73" s="14">
         <v>279</v>
       </c>
@@ -19655,8 +20275,13 @@
       <c r="H73" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1">
       <c r="A74" s="14">
         <v>278</v>
       </c>
@@ -19679,8 +20304,13 @@
       <c r="H74" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="40" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" thickBot="1">
       <c r="A75" s="14">
         <v>93</v>
       </c>
@@ -19703,8 +20333,13 @@
       <c r="H75" s="11" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1">
       <c r="A76" s="14">
         <v>19</v>
       </c>
@@ -19725,8 +20360,13 @@
         <v>1</v>
       </c>
       <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="40" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" thickBot="1">
       <c r="A77" s="14">
         <v>56</v>
       </c>
@@ -19747,8 +20387,13 @@
         <v>1</v>
       </c>
       <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" thickBot="1">
       <c r="A78" s="14">
         <v>253</v>
       </c>
@@ -19769,8 +20414,13 @@
         <v>1</v>
       </c>
       <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="40" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" thickBot="1">
       <c r="A79" s="14">
         <v>246</v>
       </c>
@@ -19791,8 +20441,13 @@
         <v>1</v>
       </c>
       <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="40" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1">
       <c r="A80" s="14">
         <v>80</v>
       </c>
@@ -19813,8 +20468,13 @@
         <v>1</v>
       </c>
       <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" thickBot="1">
       <c r="A81" s="14">
         <v>36</v>
       </c>
@@ -19835,8 +20495,13 @@
         <v>1</v>
       </c>
       <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" thickBot="1">
       <c r="A82" s="14">
         <v>23</v>
       </c>
@@ -19857,8 +20522,13 @@
         <v>1</v>
       </c>
       <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="40" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1">
       <c r="A83" s="14">
         <v>78</v>
       </c>
@@ -19879,8 +20549,13 @@
         <v>1</v>
       </c>
       <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" thickBot="1">
       <c r="A84" s="14">
         <v>42</v>
       </c>
@@ -19901,8 +20576,13 @@
         <v>1</v>
       </c>
       <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="40" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1">
       <c r="A85" s="14">
         <v>41</v>
       </c>
@@ -19923,8 +20603,13 @@
         <v>1</v>
       </c>
       <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1">
       <c r="A86" s="14">
         <v>1</v>
       </c>
@@ -19947,8 +20632,10 @@
       <c r="H86" s="11" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" thickBot="1">
       <c r="A87" s="14">
         <v>30</v>
       </c>
@@ -19969,8 +20656,13 @@
         <v>1</v>
       </c>
       <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="40" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" thickBot="1">
       <c r="A88" s="14">
         <v>228</v>
       </c>
@@ -19991,8 +20683,13 @@
         <v>1</v>
       </c>
       <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="48" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" thickBot="1">
       <c r="A89" s="14">
         <v>229</v>
       </c>
@@ -20013,8 +20710,13 @@
         <v>1</v>
       </c>
       <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="48" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="14">
         <v>231</v>
       </c>
@@ -20035,8 +20737,13 @@
         <v>1</v>
       </c>
       <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="48" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="14">
         <v>230</v>
       </c>
@@ -20057,8 +20764,13 @@
         <v>1</v>
       </c>
       <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="48" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1">
       <c r="A92" s="14">
         <v>234</v>
       </c>
@@ -20079,8 +20791,13 @@
         <v>1</v>
       </c>
       <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="48" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1">
       <c r="A93" s="14">
         <v>232</v>
       </c>
@@ -20101,8 +20818,13 @@
         <v>1</v>
       </c>
       <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="48" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1">
       <c r="A94" s="14">
         <v>233</v>
       </c>
@@ -20123,8 +20845,13 @@
         <v>1</v>
       </c>
       <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="48" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="17.25" thickBot="1">
       <c r="A95" s="14">
         <v>109</v>
       </c>
@@ -20147,8 +20874,13 @@
       <c r="H95" s="11" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="49" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="17.25" thickBot="1">
       <c r="A96" s="14">
         <v>107</v>
       </c>
@@ -20171,8 +20903,13 @@
       <c r="H96" s="11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="49" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="17.25" thickBot="1">
       <c r="A97" s="14">
         <v>115</v>
       </c>
@@ -20195,8 +20932,13 @@
       <c r="H97" s="11" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="49" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="17.25" thickBot="1">
       <c r="A98" s="14">
         <v>90</v>
       </c>
@@ -20219,8 +20961,13 @@
       <c r="H98" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="49" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="17.25" thickBot="1">
       <c r="A99" s="14">
         <v>111</v>
       </c>
@@ -20243,8 +20990,13 @@
       <c r="H99" s="11" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="49" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="17.25" thickBot="1">
       <c r="A100" s="14">
         <v>113</v>
       </c>
@@ -20267,8 +21019,13 @@
       <c r="H100" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="49" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17.25" thickBot="1">
       <c r="A101" s="14">
         <v>218</v>
       </c>
@@ -20291,8 +21048,13 @@
       <c r="H101" s="11" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="17.25" thickBot="1">
       <c r="A102" s="14">
         <v>6</v>
       </c>
@@ -20315,8 +21077,13 @@
       <c r="H102" s="11" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" thickBot="1">
       <c r="A103" s="14">
         <v>226</v>
       </c>
@@ -20337,8 +21104,10 @@
         <v>1</v>
       </c>
       <c r="H103" s="11"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+    </row>
+    <row r="104" spans="1:12" ht="17.25" thickBot="1">
       <c r="A104" s="14">
         <v>5</v>
       </c>
@@ -20361,8 +21130,13 @@
       <c r="H104" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17.25" thickBot="1">
       <c r="A105" s="14">
         <v>137</v>
       </c>
@@ -20385,8 +21159,13 @@
       <c r="H105" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="17.25" thickBot="1">
       <c r="A106" s="14">
         <v>176</v>
       </c>
@@ -20409,8 +21188,13 @@
       <c r="H106" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="17.25" thickBot="1">
       <c r="A107" s="14">
         <v>64</v>
       </c>
@@ -20433,8 +21217,13 @@
       <c r="H107" s="11" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17.25" thickBot="1">
       <c r="A108" s="14">
         <v>81</v>
       </c>
@@ -20457,8 +21246,13 @@
       <c r="H108" s="11" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="17.25" thickBot="1">
       <c r="A109" s="14">
         <v>127</v>
       </c>
@@ -20479,8 +21273,14 @@
         <v>1</v>
       </c>
       <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="52" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L109" s="51"/>
+    </row>
+    <row r="110" spans="1:12" ht="17.25" thickBot="1">
       <c r="A110" s="14">
         <v>216</v>
       </c>
@@ -20501,8 +21301,13 @@
         <v>1</v>
       </c>
       <c r="H110" s="11"/>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="17.25" thickBot="1">
       <c r="A111" s="14">
         <v>217</v>
       </c>
@@ -20523,8 +21328,13 @@
         <v>1</v>
       </c>
       <c r="H111" s="11"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="17.25" thickBot="1">
       <c r="A112" s="14">
         <v>172</v>
       </c>
@@ -20545,8 +21355,13 @@
         <v>1</v>
       </c>
       <c r="H112" s="11"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="52" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="17.25" thickBot="1">
       <c r="A113" s="14">
         <v>174</v>
       </c>
@@ -20567,8 +21382,13 @@
         <v>1</v>
       </c>
       <c r="H113" s="11"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="52" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17.25" thickBot="1">
       <c r="A114" s="14">
         <v>274</v>
       </c>
@@ -20591,8 +21411,13 @@
       <c r="H114" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="52" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" thickBot="1">
       <c r="A115" s="14">
         <v>140</v>
       </c>
@@ -20613,8 +21438,10 @@
         <v>1</v>
       </c>
       <c r="H115" s="11"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+    </row>
+    <row r="116" spans="1:11" ht="17.25" thickBot="1">
       <c r="A116" s="14">
         <v>97</v>
       </c>
@@ -20637,8 +21464,13 @@
       <c r="H116" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="52" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="17.25" thickBot="1">
       <c r="A117" s="14">
         <v>26</v>
       </c>
@@ -20661,8 +21493,13 @@
       <c r="H117" s="11" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="17.25" thickBot="1">
       <c r="A118" s="14">
         <v>277</v>
       </c>
@@ -20685,8 +21522,13 @@
       <c r="H118" s="11" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="52" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="17.25" thickBot="1">
       <c r="A119" s="14">
         <v>251</v>
       </c>
@@ -20709,8 +21551,13 @@
       <c r="H119" s="11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="17.25" thickBot="1">
       <c r="A120" s="14">
         <v>275</v>
       </c>
@@ -20733,8 +21580,13 @@
       <c r="H120" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="52" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" thickBot="1">
       <c r="A121" s="14">
         <v>141</v>
       </c>
@@ -20757,8 +21609,13 @@
       <c r="H121" s="11" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="16" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="17.25" thickBot="1">
       <c r="A122" s="14">
         <v>180</v>
       </c>
@@ -20781,8 +21638,13 @@
       <c r="H122" s="11" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="52" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="17.25" thickBot="1">
       <c r="A123" s="14">
         <v>203</v>
       </c>
@@ -20805,8 +21667,13 @@
       <c r="H123" s="11" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="52" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="17.25" thickBot="1">
       <c r="A124" s="14">
         <v>169</v>
       </c>
@@ -20829,8 +21696,13 @@
       <c r="H124" s="11" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="17.25" thickBot="1">
       <c r="A125" s="14">
         <v>38</v>
       </c>
@@ -20851,8 +21723,13 @@
         <v>1</v>
       </c>
       <c r="H125" s="11"/>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" thickBot="1">
       <c r="A126" s="14">
         <v>22</v>
       </c>
@@ -20873,8 +21750,13 @@
         <v>1</v>
       </c>
       <c r="H126" s="11"/>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="48" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="17.25" thickBot="1">
       <c r="A127" s="14">
         <v>15</v>
       </c>
@@ -20897,8 +21779,13 @@
       <c r="H127" s="11" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="52" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17.25" thickBot="1">
       <c r="A128" s="14">
         <v>254</v>
       </c>
@@ -20919,8 +21806,13 @@
         <v>1</v>
       </c>
       <c r="H128" s="11"/>
-    </row>
-    <row r="129" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="52" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:138" ht="15.75" thickBot="1">
       <c r="A129" s="14">
         <v>82</v>
       </c>
@@ -20943,8 +21835,13 @@
       <c r="H129" s="11" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="130" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="40" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:138" ht="17.25" thickBot="1">
       <c r="A130" s="14">
         <v>285</v>
       </c>
@@ -20967,8 +21864,13 @@
       <c r="H130" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="131" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="52" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:138" ht="15.75" thickBot="1">
       <c r="A131" s="14">
         <v>286</v>
       </c>
@@ -20991,8 +21893,13 @@
       <c r="H131" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="132" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="40" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:138" ht="15.75" thickBot="1">
       <c r="A132" s="14">
         <v>284</v>
       </c>
@@ -21015,8 +21922,13 @@
       <c r="H132" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="133" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="40" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:138" ht="15.75" thickBot="1">
       <c r="A133" s="14">
         <v>287</v>
       </c>
@@ -21039,8 +21951,13 @@
       <c r="H133" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="134" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="40" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:138" ht="15.75" thickBot="1">
       <c r="A134" s="14">
         <v>281</v>
       </c>
@@ -21063,8 +21980,13 @@
       <c r="H134" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="135" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="40" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="135" spans="1:138" ht="15.75" thickBot="1">
       <c r="A135" s="14">
         <v>40</v>
       </c>
@@ -21087,8 +22009,13 @@
       <c r="H135" s="11" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="136" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I135" s="54"/>
+      <c r="J135" s="54"/>
+      <c r="K135" s="40" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:138" ht="15.75" thickBot="1">
       <c r="A136" s="14">
         <v>165</v>
       </c>
@@ -21109,9 +22036,14 @@
         <v>1</v>
       </c>
       <c r="H136" s="11"/>
-    </row>
-    <row r="137" spans="1:136" ht="15.75" thickBot="1"/>
-    <row r="138" spans="1:136" ht="15.75" thickBot="1">
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:138" ht="15.75" thickBot="1"/>
+    <row r="138" spans="1:138" ht="15.75" thickBot="1">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -21248,8 +22180,11 @@
       <c r="ED138" s="14"/>
       <c r="EE138" s="14"/>
       <c r="EF138" s="14"/>
+      <c r="EG138" s="14"/>
+      <c r="EH138" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://api.paymentwall.com/admin/payment-systems?sort%5bfield%5d=ps_name&amp;sort%5border%5d=asc&amp;search%5Bps_active%5D=1" xr:uid="{45E28F9B-5E8C-44ED-B754-3AF5CBF0C6C8}"/>
     <hyperlink ref="B2" r:id="rId2" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=91" xr:uid="{6ECB3A7B-E405-4137-BD12-040559B7D468}"/>
@@ -25051,7 +25986,7 @@
       <c r="F2" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G2" s="39"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -25086,7 +26021,7 @@
       <c r="F3" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -25121,7 +26056,7 @@
       <c r="F4" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -25156,7 +26091,7 @@
       <c r="F5" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -25191,7 +26126,7 @@
       <c r="F6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -25226,7 +26161,7 @@
       <c r="F7" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -25261,7 +26196,7 @@
       <c r="F8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -25296,7 +26231,7 @@
       <c r="F9" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -25331,7 +26266,7 @@
       <c r="F10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -25366,7 +26301,7 @@
       <c r="F11" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59861F5B-3B8F-4245-8929-FE3BD948DDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E133BA-66FC-41D7-8A7C-3F1FC40540A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="1290">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -4349,7 +4349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4518,6 +4518,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4527,22 +4533,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4682,6 +4678,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5016,11 +5019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,20 +7635,20 @@
         <v>383</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="87" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="87">
-        <v>1</v>
+    <row r="66" spans="1:11" s="85" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0</v>
       </c>
       <c r="B66" s="17">
         <v>180</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="D66" s="87" t="s">
+      <c r="D66" s="85" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="85" t="s">
         <v>1288</v>
       </c>
       <c r="F66" s="32" t="s">
@@ -7661,27 +7664,27 @@
       <c r="I66" s="32">
         <v>86844</v>
       </c>
-      <c r="J66" s="87">
+      <c r="J66" s="85">
         <v>94</v>
       </c>
       <c r="K66" s="32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="87" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="87">
-        <v>1</v>
+    <row r="67" spans="1:11" s="85" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
       </c>
       <c r="B67" s="17">
         <v>203</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="E67" s="87" t="s">
+      <c r="E67" s="85" t="s">
         <v>1289</v>
       </c>
       <c r="F67" s="32" t="s">
@@ -7697,47 +7700,88 @@
       <c r="I67" s="32">
         <v>86844</v>
       </c>
-      <c r="J67" s="87">
+      <c r="J67" s="85">
         <v>94</v>
       </c>
       <c r="K67" s="32" t="s">
         <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="85" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="85">
+        <v>1</v>
+      </c>
+      <c r="B68" s="17">
+        <v>93</v>
+      </c>
+      <c r="C68" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" s="84" t="str">
+        <f>IF(ISNA(VLOOKUP(C68,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C68,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H68" s="32">
+        <v>99894</v>
+      </c>
+      <c r="I68" s="32">
+        <v>86844</v>
+      </c>
+      <c r="J68" s="85">
+        <v>30</v>
+      </c>
+      <c r="K68" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L51" xr:uid="{F4D50087-81CA-4121-AC19-488D7706F9F6}"/>
   <conditionalFormatting sqref="K50:L50 K52:K53">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>COUNTIF($S$3:$AF$3,K50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:L50">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:L51">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>COUNTIF($S$3:$AF$3,K51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:L51 K52:K53">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G41 G45:G66">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="19" priority="30">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>
@@ -18364,59 +18408,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C74">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>COUNTIF($Q$3:$AD$3,B2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>COUNTIF($Q$3:$AD$3,B75)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>COUNTIF($Q$3:$AD$3,B76)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:C82">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>COUNTIF($Q$3:$AD$3,B77)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C82">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B82">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:C83">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>COUNTIF($Q$3:$AD$3,B83)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C74">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B74">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26783,7 +26827,7 @@
       <c r="F2" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G2" s="84"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -26818,7 +26862,7 @@
       <c r="F3" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -26853,7 +26897,7 @@
       <c r="F4" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -26888,7 +26932,7 @@
       <c r="F5" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G5" s="85"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -26923,7 +26967,7 @@
       <c r="F6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="85"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -26958,7 +27002,7 @@
       <c r="F7" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -26993,7 +27037,7 @@
       <c r="F8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -27028,7 +27072,7 @@
       <c r="F9" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="G9" s="85"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -27063,7 +27107,7 @@
       <c r="F10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G10" s="85"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -27098,7 +27142,7 @@
       <c r="F11" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>

--- a/src/main/java/utility/logo.xlsx
+++ b/src/main/java/utility/logo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486535D-D762-41A4-BA53-7D431EFD5D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823140E3-0CEE-41FB-8FCD-DE11BABDA980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psname" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1300">
   <si>
     <t>efectycolombia</t>
   </si>
@@ -3961,6 +3961,9 @@
   </si>
   <si>
     <t>rupay</t>
+  </si>
+  <si>
+    <t>openbucks_usca</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4550,6 +4553,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4987,11 +4993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,7 +6650,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>VLOOKUP(C41,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6685,7 +6691,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>VLOOKUP(C42,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6725,7 +6731,7 @@
     </row>
     <row r="43" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>VLOOKUP(C43,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6765,7 +6771,7 @@
     </row>
     <row r="44" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>VLOOKUP(C44,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6805,7 +6811,7 @@
     </row>
     <row r="45" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <f>VLOOKUP(C45,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6845,7 +6851,7 @@
     </row>
     <row r="46" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <f>VLOOKUP(C46,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6885,7 +6891,7 @@
     </row>
     <row r="47" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <f>VLOOKUP(C47,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -6925,7 +6931,7 @@
     </row>
     <row r="48" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <f>VLOOKUP(C48,shortcode!$C$1:$D$200,2,FALSE)</f>
@@ -7836,7 +7842,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="85" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="85">
+      <c r="A72">
         <v>0</v>
       </c>
       <c r="B72" s="17">
@@ -7871,7 +7877,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -7890,6 +7896,10 @@
       <c r="F73" s="32" t="s">
         <v>1287</v>
       </c>
+      <c r="G73" s="87" t="str">
+        <f>IF(ISNA(VLOOKUP(C73,logoName!$B$2:$D$39,3,FALSE)),"",VLOOKUP(C73,logoName!$B$2:$D$39,3,FALSE))</f>
+        <v/>
+      </c>
       <c r="H73" s="32">
         <v>99894</v>
       </c>
@@ -7901,6 +7911,41 @@
       </c>
       <c r="K73" s="32" t="s">
         <v>816</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="17">
+        <v>170</v>
+      </c>
+      <c r="C74" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" s="87" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H74" s="32">
+        <v>99894</v>
+      </c>
+      <c r="I74" s="32">
+        <v>86844</v>
+      </c>
+      <c r="J74" s="85">
+        <v>2</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -26394,8 +26439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279EA41E-7727-4698-8E10-FD63D59C9993}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26951,7 +26996,7 @@
       <c r="F2" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="G2" s="87"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -26986,7 +27031,7 @@
       <c r="F3" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -27021,7 +27066,7 @@
       <c r="F4" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -27056,7 +27101,7 @@
       <c r="F5" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -27091,7 +27136,7 @@
       <c r="F6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -27126,7 +27171,7 @@
       <c r="F7" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -27161,7 +27206,7 @@
       <c r="F8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -27196,7 +27241,7 @@
       <c r="F9" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -27231,7 +27276,7 @@
       <c r="F10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -27266,7 +27311,7 @@
       <c r="F11" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="89"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
